--- a/LG-06 Protocol V1.0.xlsx
+++ b/LG-06 Protocol V1.0.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="216">
   <si>
     <t>byte:</t>
   </si>
@@ -379,6 +379,10 @@
   </si>
   <si>
     <t>当前补白的参数ID</t>
+  </si>
+  <si>
+    <t>0x01补拍
+0x01退出</t>
   </si>
   <si>
     <t>手动模式</t>
@@ -682,6 +686,15 @@
     <t>0x01:G30
 0x02:ER1
 0x03:CAR</t>
+  </si>
+  <si>
+    <t>全景模式返回要补拍的参数组给遥控器显示</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0x01</t>
+  </si>
+  <si>
+    <t>可补拍的参数组ID</t>
   </si>
 </sst>
 </file>
@@ -1462,7 +1475,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1473,85 +1486,91 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1577,6 +1596,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1960,9 +1982,9 @@
   <dimension ref="A1:N78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I53" sqref="I53"/>
+      <selection pane="bottomLeft" activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1984,35 +2006,35 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:14">
-      <c r="A1" s="14"/>
-      <c r="C1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="15">
-        <v>0</v>
-      </c>
-      <c r="E1" s="15">
+      <c r="A1" s="15"/>
+      <c r="C1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="16">
+        <v>0</v>
+      </c>
+      <c r="E1" s="16">
         <v>1</v>
       </c>
-      <c r="F1" s="15">
+      <c r="F1" s="16">
         <v>2</v>
       </c>
-      <c r="G1" s="15">
+      <c r="G1" s="16">
         <v>3</v>
       </c>
-      <c r="H1" s="15">
+      <c r="H1" s="16">
         <v>4</v>
       </c>
-      <c r="I1" s="15">
+      <c r="I1" s="16">
         <v>5</v>
       </c>
-      <c r="J1" s="15">
+      <c r="J1" s="16">
         <v>6</v>
       </c>
-      <c r="K1" s="15">
+      <c r="K1" s="16">
         <v>7</v>
       </c>
-      <c r="L1" s="15">
+      <c r="L1" s="16">
         <v>8</v>
       </c>
       <c r="M1" s="3"/>
@@ -2043,41 +2065,41 @@
       <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="12"/>
+      <c r="L2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="4"/>
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="18" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="17" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="9" t="s">
@@ -2092,50 +2114,50 @@
       <c r="K3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
+      <c r="L3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
     </row>
     <row r="4" ht="27" spans="1:14">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="18"/>
+      <c r="G4" s="19"/>
       <c r="H4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="14">
         <v>0</v>
       </c>
       <c r="K4" s="2">
         <v>0</v>
       </c>
-      <c r="L4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
+      <c r="L4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
     </row>
     <row r="5" ht="27" spans="1:14">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="20"/>
       <c r="F5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="18"/>
+      <c r="G5" s="19"/>
       <c r="H5" s="9" t="s">
         <v>26</v>
       </c>
@@ -2148,22 +2170,22 @@
       <c r="K5" s="2">
         <v>0</v>
       </c>
-      <c r="L5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
+      <c r="L5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
     </row>
     <row r="6" ht="27" spans="1:14">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
       <c r="F6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="18"/>
+      <c r="G6" s="19"/>
       <c r="H6" s="9" t="s">
         <v>28</v>
       </c>
@@ -2176,23 +2198,23 @@
       <c r="K6" s="2">
         <v>0</v>
       </c>
-      <c r="L6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
+      <c r="L6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
     </row>
     <row r="7" ht="27" spans="1:14">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="20"/>
       <c r="F7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="20" t="s">
+      <c r="G7" s="19"/>
+      <c r="H7" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I7" s="9" t="s">
@@ -2204,23 +2226,23 @@
       <c r="K7" s="2">
         <v>0</v>
       </c>
-      <c r="L7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
+      <c r="L7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
     </row>
     <row r="8" ht="27" spans="1:14">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
       <c r="F8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="20" t="s">
+      <c r="G8" s="19"/>
+      <c r="H8" s="5" t="s">
         <v>31</v>
       </c>
       <c r="I8" s="9" t="s">
@@ -2232,14 +2254,14 @@
       <c r="K8" s="2">
         <v>0</v>
       </c>
-      <c r="L8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
+      <c r="L8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
     </row>
     <row r="9" ht="27" spans="1:14">
-      <c r="A9" s="18"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="21"/>
       <c r="C9" s="2"/>
       <c r="D9" s="21"/>
@@ -2248,7 +2270,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="21"/>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="5" t="s">
         <v>33</v>
       </c>
       <c r="I9" s="9" t="s">
@@ -2260,19 +2282,19 @@
       <c r="K9" s="2">
         <v>0</v>
       </c>
-      <c r="L9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
+      <c r="L9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="18"/>
-      <c r="B10" s="16" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="17" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="23" t="s">
@@ -2281,10 +2303,10 @@
       <c r="F10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="5" t="s">
         <v>37</v>
       </c>
       <c r="I10" s="9" t="s">
@@ -2296,23 +2318,23 @@
       <c r="K10" s="2">
         <v>0</v>
       </c>
-      <c r="L10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
+      <c r="L10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="18"/>
+      <c r="D11" s="19"/>
       <c r="E11" s="24"/>
       <c r="F11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="20" t="s">
+      <c r="G11" s="19"/>
+      <c r="H11" s="5" t="s">
         <v>40</v>
       </c>
       <c r="I11" s="9" t="s">
@@ -2324,23 +2346,23 @@
       <c r="K11" s="2">
         <v>0</v>
       </c>
-      <c r="L11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
+      <c r="L11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="18"/>
+      <c r="D12" s="19"/>
       <c r="E12" s="24"/>
       <c r="F12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="20" t="s">
+      <c r="G12" s="19"/>
+      <c r="H12" s="5" t="s">
         <v>41</v>
       </c>
       <c r="I12" s="9" t="s">
@@ -2352,23 +2374,23 @@
       <c r="K12" s="2">
         <v>0</v>
       </c>
-      <c r="L12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
+      <c r="L12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
     </row>
     <row r="13" ht="27" spans="1:14">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="18"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="24"/>
       <c r="F13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="20" t="s">
+      <c r="G13" s="19"/>
+      <c r="H13" s="5" t="s">
         <v>42</v>
       </c>
       <c r="I13" s="9" t="s">
@@ -2380,22 +2402,22 @@
       <c r="K13" s="2">
         <v>0</v>
       </c>
-      <c r="L13" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
+      <c r="L13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
     </row>
     <row r="14" ht="27" spans="1:14">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="18"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="24"/>
       <c r="F14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="18"/>
+      <c r="G14" s="19"/>
       <c r="H14" s="9" t="s">
         <v>44</v>
       </c>
@@ -2408,23 +2430,23 @@
       <c r="K14" s="2">
         <v>0</v>
       </c>
-      <c r="L14" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
+      <c r="L14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
     </row>
     <row r="15" ht="27" spans="1:14">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="18"/>
+      <c r="D15" s="19"/>
       <c r="E15" s="24"/>
       <c r="F15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="20" t="s">
+      <c r="G15" s="19"/>
+      <c r="H15" s="5" t="s">
         <v>46</v>
       </c>
       <c r="I15" s="9" t="s">
@@ -2436,23 +2458,23 @@
       <c r="K15" s="2">
         <v>0</v>
       </c>
-      <c r="L15" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
+      <c r="L15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
     </row>
     <row r="16" ht="27" spans="1:14">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="18"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="24"/>
       <c r="F16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="20" t="s">
+      <c r="G16" s="19"/>
+      <c r="H16" s="5" t="s">
         <v>47</v>
       </c>
       <c r="I16" s="9" t="s">
@@ -2464,21 +2486,21 @@
       <c r="K16" s="2">
         <v>0</v>
       </c>
-      <c r="L16" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
+      <c r="L16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="18"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="21"/>
       <c r="C17" s="2"/>
       <c r="D17" s="21"/>
       <c r="E17" s="25"/>
       <c r="F17" s="9"/>
       <c r="G17" s="21"/>
-      <c r="H17" s="20" t="s">
+      <c r="H17" s="5" t="s">
         <v>48</v>
       </c>
       <c r="I17" s="9" t="s">
@@ -2490,14 +2512,14 @@
       <c r="K17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
+      <c r="L17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="18"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="21"/>
       <c r="C18" s="2"/>
       <c r="D18" s="21"/>
@@ -2508,12 +2530,12 @@
       <c r="I18" s="9"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
     </row>
     <row r="19" ht="54" spans="1:14">
-      <c r="A19" s="18"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="2" t="s">
         <v>49</v>
       </c>
@@ -2524,1011 +2546,1011 @@
       <c r="E19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="4" t="s">
+      <c r="F19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="12" t="s">
         <v>50</v>
       </c>
       <c r="H19" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="K19" s="4">
-        <v>0</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
+      <c r="K19" s="12">
+        <v>0</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
     </row>
     <row r="20" ht="54" spans="1:14">
-      <c r="A20" s="18"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="4"/>
+      <c r="F20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="12"/>
       <c r="H20" s="28"/>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J20" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
     </row>
     <row r="21" ht="54" spans="1:14">
-      <c r="A21" s="18"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="4"/>
+      <c r="F21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="12"/>
       <c r="H21" s="28"/>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
     </row>
     <row r="22" ht="81" spans="1:14">
-      <c r="A22" s="18"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="4"/>
+      <c r="F22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="12"/>
       <c r="H22" s="29"/>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="J22" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
     </row>
     <row r="23" ht="54" spans="1:14">
-      <c r="A23" s="18"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="5" t="s">
+      <c r="F23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J23" s="4">
-        <v>0</v>
-      </c>
-      <c r="K23" s="4">
-        <v>0</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
+      <c r="J23" s="12">
+        <v>0</v>
+      </c>
+      <c r="K23" s="12">
+        <v>0</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="18"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4" t="s">
+      <c r="F24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I24" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J24" s="4">
-        <v>0</v>
-      </c>
-      <c r="K24" s="4">
-        <v>0</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M24" s="44"/>
-      <c r="N24" s="45"/>
+      <c r="J24" s="12">
+        <v>0</v>
+      </c>
+      <c r="K24" s="12">
+        <v>0</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M24" s="47"/>
+      <c r="N24" s="48"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="30"/>
-      <c r="B25" s="8"/>
+      <c r="B25" s="31"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="9"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="45"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="48"/>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="2"/>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="12" t="s">
+      <c r="F26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H26" s="12" t="s">
+      <c r="H26" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I26" s="12" t="s">
+      <c r="I26" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J26" s="12" t="s">
+      <c r="J26" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K26" s="12">
-        <v>0</v>
-      </c>
-      <c r="L26" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M26" s="44"/>
-      <c r="N26" s="45"/>
+      <c r="K26" s="4">
+        <v>0</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M26" s="47"/>
+      <c r="N26" s="48"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="2"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="12" t="s">
+      <c r="B27" s="34"/>
+      <c r="C27" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="12" t="s">
+      <c r="F27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H27" s="12" t="s">
+      <c r="H27" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I27" s="12">
-        <v>0</v>
-      </c>
-      <c r="J27" s="12">
-        <v>0</v>
-      </c>
-      <c r="K27" s="12">
-        <v>0</v>
-      </c>
-      <c r="L27" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M27" s="44"/>
-      <c r="N27" s="45"/>
+      <c r="I27" s="4">
+        <v>0</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M27" s="47"/>
+      <c r="N27" s="48"/>
     </row>
     <row r="28" ht="27" spans="1:14">
       <c r="A28" s="2"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12" t="s">
+      <c r="B28" s="34"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="12" t="s">
+      <c r="F28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H28" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" s="20" t="s">
+      <c r="H28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="12">
-        <v>0</v>
-      </c>
-      <c r="K28" s="12">
-        <v>0</v>
-      </c>
-      <c r="L28" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M28" s="44"/>
-      <c r="N28" s="45"/>
+      <c r="J28" s="4">
+        <v>0</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M28" s="47"/>
+      <c r="N28" s="48"/>
     </row>
     <row r="29" ht="40.5" spans="1:14">
       <c r="A29" s="2"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12" t="s">
+      <c r="B29" s="34"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="12" t="s">
+      <c r="F29" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H29" s="12" t="s">
+      <c r="H29" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="I29" s="20" t="s">
+      <c r="I29" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="J29" s="20" t="s">
+      <c r="J29" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="K29" s="12">
-        <v>0</v>
-      </c>
-      <c r="L29" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M29" s="44"/>
-      <c r="N29" s="45"/>
+      <c r="K29" s="4">
+        <v>0</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M29" s="47"/>
+      <c r="N29" s="48"/>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="2"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12" t="s">
+      <c r="B30" s="34"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="12" t="s">
+      <c r="F30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H30" s="12" t="s">
+      <c r="H30" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="I30" s="20">
-        <v>0</v>
-      </c>
-      <c r="J30" s="20">
-        <v>0</v>
-      </c>
-      <c r="K30" s="12">
-        <v>0</v>
-      </c>
-      <c r="L30" s="12"/>
-      <c r="M30" s="44"/>
-      <c r="N30" s="45"/>
+      <c r="I30" s="5">
+        <v>0</v>
+      </c>
+      <c r="J30" s="5">
+        <v>0</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0</v>
+      </c>
+      <c r="L30" s="4"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="48"/>
     </row>
     <row r="31" ht="27" spans="1:14">
       <c r="A31" s="2"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12" t="s">
+      <c r="B31" s="35"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F31" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="12" t="s">
+      <c r="F31" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H31" s="12" t="s">
+      <c r="H31" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="I31" s="20" t="s">
+      <c r="I31" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="J31" s="20">
-        <v>0</v>
-      </c>
-      <c r="K31" s="12">
-        <v>0</v>
-      </c>
-      <c r="L31" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M31" s="44"/>
-      <c r="N31" s="45"/>
+      <c r="J31" s="5">
+        <v>0</v>
+      </c>
+      <c r="K31" s="4">
+        <v>0</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M31" s="47"/>
+      <c r="N31" s="48"/>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="30"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12" t="s">
+      <c r="B32" s="35"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F32" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="12" t="s">
+      <c r="F32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H32" s="12" t="s">
+      <c r="H32" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I32" s="20">
-        <v>0</v>
-      </c>
-      <c r="J32" s="20">
-        <v>0</v>
-      </c>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="45"/>
+      <c r="I32" s="5">
+        <v>0</v>
+      </c>
+      <c r="J32" s="5">
+        <v>0</v>
+      </c>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="48"/>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="30"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12" t="s">
+      <c r="B33" s="35"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="12" t="s">
+      <c r="F33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H33" s="12" t="s">
+      <c r="H33" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I33" s="20">
-        <v>0</v>
-      </c>
-      <c r="J33" s="20">
-        <v>0</v>
-      </c>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="44"/>
-      <c r="N33" s="45"/>
+      <c r="I33" s="5">
+        <v>0</v>
+      </c>
+      <c r="J33" s="5">
+        <v>0</v>
+      </c>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="48"/>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="30"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12" t="s">
+      <c r="B34" s="35"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F34" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="12" t="s">
+      <c r="F34" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H34" s="12" t="s">
+      <c r="H34" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="I34" s="20">
-        <v>0</v>
-      </c>
-      <c r="J34" s="20"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="44"/>
-      <c r="N34" s="45"/>
+      <c r="I34" s="5">
+        <v>0</v>
+      </c>
+      <c r="J34" s="5"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="48"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="34"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="46"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="30"/>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4" t="s">
+      <c r="C36" s="12"/>
+      <c r="D36" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" s="4" t="s">
+      <c r="F36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H36" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="I36" s="5" t="s">
+      <c r="I36" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="J36" s="5" t="s">
+      <c r="J36" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="K36" s="5" t="s">
+      <c r="K36" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="L36" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M36" s="44"/>
-      <c r="N36" s="45"/>
+      <c r="L36" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M36" s="47"/>
+      <c r="N36" s="48"/>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="30"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4" t="s">
+      <c r="B37" s="37"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" s="4" t="s">
+      <c r="F37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="H37" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="I37" s="5" t="s">
+      <c r="I37" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="J37" s="5">
-        <v>0</v>
-      </c>
-      <c r="K37" s="5" t="s">
+      <c r="J37" s="11">
+        <v>0</v>
+      </c>
+      <c r="K37" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="L37" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M37" s="44"/>
-      <c r="N37" s="45"/>
+      <c r="L37" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M37" s="47"/>
+      <c r="N37" s="48"/>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="30"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4" t="s">
+      <c r="B38" s="37"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F38" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" s="4" t="s">
+      <c r="F38" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H38" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I38" s="5" t="s">
+      <c r="I38" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="J38" s="5">
-        <v>0</v>
-      </c>
-      <c r="K38" s="5" t="s">
+      <c r="J38" s="11">
+        <v>0</v>
+      </c>
+      <c r="K38" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="L38" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M38" s="44"/>
-      <c r="N38" s="45"/>
+      <c r="L38" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M38" s="47"/>
+      <c r="N38" s="48"/>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="30"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4" t="s">
+      <c r="B39" s="37"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F39" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" s="4" t="s">
+      <c r="F39" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="H39" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="I39" s="5" t="s">
+      <c r="I39" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="J39" s="5">
-        <v>0</v>
-      </c>
-      <c r="K39" s="5" t="s">
+      <c r="J39" s="11">
+        <v>0</v>
+      </c>
+      <c r="K39" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="L39" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M39" s="44"/>
-      <c r="N39" s="45"/>
+      <c r="L39" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M39" s="47"/>
+      <c r="N39" s="48"/>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="30"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4" t="s">
+      <c r="B40" s="37"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F40" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" s="4" t="s">
+      <c r="F40" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="H40" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="I40" s="5" t="s">
+      <c r="I40" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="J40" s="5">
-        <v>0</v>
-      </c>
-      <c r="K40" s="5" t="s">
+      <c r="J40" s="11">
+        <v>0</v>
+      </c>
+      <c r="K40" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="L40" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M40" s="44"/>
-      <c r="N40" s="45"/>
+      <c r="L40" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M40" s="47"/>
+      <c r="N40" s="48"/>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="30"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4" t="s">
+      <c r="B41" s="37"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" s="4" t="s">
+      <c r="F41" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="H41" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="I41" s="5" t="s">
+      <c r="I41" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J41" s="5">
-        <v>0</v>
-      </c>
-      <c r="K41" s="5" t="s">
+      <c r="J41" s="11">
+        <v>0</v>
+      </c>
+      <c r="K41" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="L41" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M41" s="44"/>
-      <c r="N41" s="45"/>
+      <c r="L41" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M41" s="47"/>
+      <c r="N41" s="48"/>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="30"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4" t="s">
+      <c r="B42" s="37"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F42" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" s="4" t="s">
+      <c r="F42" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="H42" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="I42" s="5" t="s">
+      <c r="I42" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="J42" s="5">
-        <v>0</v>
-      </c>
-      <c r="K42" s="5" t="s">
+      <c r="J42" s="11">
+        <v>0</v>
+      </c>
+      <c r="K42" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="L42" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M42" s="44"/>
-      <c r="N42" s="45"/>
+      <c r="L42" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M42" s="47"/>
+      <c r="N42" s="48"/>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="30"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4" t="s">
+      <c r="B43" s="37"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F43" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="4" t="s">
+      <c r="F43" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="H43" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I43" s="5" t="s">
+      <c r="I43" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="J43" s="5">
-        <v>0</v>
-      </c>
-      <c r="K43" s="5" t="s">
+      <c r="J43" s="11">
+        <v>0</v>
+      </c>
+      <c r="K43" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="L43" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M43" s="44"/>
-      <c r="N43" s="45"/>
+      <c r="L43" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M43" s="47"/>
+      <c r="N43" s="48"/>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="30"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="4" t="s">
+      <c r="B44" s="37"/>
+      <c r="C44" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F44" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" s="4" t="s">
+      <c r="F44" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="H44" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I44" s="5" t="s">
+      <c r="H44" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="J44" s="5">
-        <v>0</v>
-      </c>
-      <c r="K44" s="5">
-        <v>0</v>
-      </c>
-      <c r="L44" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M44" s="44"/>
-      <c r="N44" s="45"/>
+      <c r="J44" s="11">
+        <v>0</v>
+      </c>
+      <c r="K44" s="11">
+        <v>0</v>
+      </c>
+      <c r="L44" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M44" s="47"/>
+      <c r="N44" s="48"/>
     </row>
     <row r="45" ht="27" spans="1:14">
       <c r="A45" s="30"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="4" t="s">
+      <c r="B45" s="37"/>
+      <c r="C45" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F45" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" s="4" t="s">
+      <c r="F45" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="H45" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="I45" s="5" t="s">
+      <c r="I45" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="J45" s="5" t="s">
+      <c r="J45" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="K45" s="5" t="s">
+      <c r="K45" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="L45" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M45" s="44"/>
-      <c r="N45" s="45"/>
+      <c r="L45" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M45" s="47"/>
+      <c r="N45" s="48"/>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="30"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="4" t="s">
+      <c r="B46" s="37"/>
+      <c r="C46" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F46" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" s="4" t="s">
+      <c r="F46" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="H46" s="4" t="s">
+      <c r="H46" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="I46" s="5" t="s">
+      <c r="I46" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="J46" s="5">
-        <v>0</v>
-      </c>
-      <c r="K46" s="5">
-        <v>0</v>
-      </c>
-      <c r="L46" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M46" s="44"/>
-      <c r="N46" s="45"/>
+      <c r="J46" s="11">
+        <v>0</v>
+      </c>
+      <c r="K46" s="11">
+        <v>0</v>
+      </c>
+      <c r="L46" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M46" s="47"/>
+      <c r="N46" s="48"/>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="30"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="4" t="s">
+      <c r="B47" s="37"/>
+      <c r="C47" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F47" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" s="4" t="s">
+      <c r="F47" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="H47" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="I47" s="5" t="s">
+      <c r="I47" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="J47" s="5">
-        <v>0</v>
-      </c>
-      <c r="K47" s="5">
-        <v>0</v>
-      </c>
-      <c r="L47" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M47" s="44"/>
-      <c r="N47" s="45"/>
+      <c r="J47" s="11">
+        <v>0</v>
+      </c>
+      <c r="K47" s="11">
+        <v>0</v>
+      </c>
+      <c r="L47" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M47" s="47"/>
+      <c r="N47" s="48"/>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="30"/>
-      <c r="B48" s="35"/>
-      <c r="C48" s="4" t="s">
+      <c r="B48" s="37"/>
+      <c r="C48" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F48" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" s="4" t="s">
+      <c r="F48" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="H48" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="I48" s="5" t="s">
+      <c r="I48" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="J48" s="5">
-        <v>0</v>
-      </c>
-      <c r="K48" s="5">
-        <v>0</v>
-      </c>
-      <c r="L48" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M48" s="44"/>
-      <c r="N48" s="45"/>
+      <c r="J48" s="11">
+        <v>0</v>
+      </c>
+      <c r="K48" s="11">
+        <v>0</v>
+      </c>
+      <c r="L48" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M48" s="47"/>
+      <c r="N48" s="48"/>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="30"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="4" t="s">
+      <c r="B49" s="37"/>
+      <c r="C49" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F49" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" s="4" t="s">
+      <c r="F49" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="H49" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="I49" s="5" t="s">
+      <c r="I49" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="J49" s="5">
-        <v>0</v>
-      </c>
-      <c r="K49" s="5" t="s">
+      <c r="J49" s="11">
+        <v>0</v>
+      </c>
+      <c r="K49" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="L49" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M49" s="44"/>
-      <c r="N49" s="45"/>
+      <c r="L49" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M49" s="47"/>
+      <c r="N49" s="48"/>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="30"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4" t="s">
+      <c r="B50" s="37"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F50" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" s="4" t="s">
+      <c r="F50" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="H50" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="I50" s="47" t="s">
+      <c r="I50" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="J50" s="5">
-        <v>0</v>
-      </c>
-      <c r="K50" s="5" t="s">
+      <c r="J50" s="11">
+        <v>0</v>
+      </c>
+      <c r="K50" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="L50" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M50" s="44"/>
-      <c r="N50" s="45"/>
+      <c r="L50" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M50" s="47"/>
+      <c r="N50" s="48"/>
     </row>
     <row r="51" customFormat="1" ht="54" spans="1:14">
       <c r="A51" s="30"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="36" t="s">
+      <c r="B51" s="37"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="38" t="s">
         <v>16</v>
       </c>
       <c r="E51" s="27" t="s">
@@ -3537,784 +3559,784 @@
       <c r="F51" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G51" s="36" t="s">
+      <c r="G51" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="H51" s="36" t="s">
+      <c r="H51" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="I51" s="5" t="s">
+      <c r="I51" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="J51" s="5" t="s">
+      <c r="J51" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="K51" s="5">
-        <v>0</v>
-      </c>
-      <c r="L51" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M51" s="44"/>
-      <c r="N51" s="45"/>
+      <c r="K51" s="11">
+        <v>0</v>
+      </c>
+      <c r="L51" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M51" s="47"/>
+      <c r="N51" s="48"/>
     </row>
     <row r="52" customFormat="1" ht="54" spans="1:14">
       <c r="A52" s="30"/>
-      <c r="B52" s="37"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="38"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="40"/>
       <c r="E52" s="29"/>
       <c r="F52" s="29"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="5" t="s">
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J52" s="5" t="s">
+      <c r="J52" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="K52" s="5">
-        <v>0</v>
-      </c>
-      <c r="L52" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M52" s="44"/>
-      <c r="N52" s="45"/>
+      <c r="K52" s="11">
+        <v>0</v>
+      </c>
+      <c r="L52" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M52" s="47"/>
+      <c r="N52" s="48"/>
     </row>
     <row r="53" customFormat="1" ht="27" spans="1:14">
       <c r="A53" s="30"/>
-      <c r="B53" s="37"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4" t="s">
+      <c r="B53" s="39"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E53" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" s="4" t="s">
+      <c r="F53" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="H53" s="4" t="s">
+      <c r="H53" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="I53" s="5" t="s">
+      <c r="I53" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="J53" s="5" t="s">
+      <c r="J53" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="K53" s="5">
-        <v>0</v>
-      </c>
-      <c r="L53" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M53" s="44"/>
-      <c r="N53" s="45"/>
+      <c r="K53" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="L53" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M53" s="47"/>
+      <c r="N53" s="48"/>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="30"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="44"/>
-      <c r="N54" s="45"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="47"/>
+      <c r="N54" s="48"/>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="30"/>
-      <c r="B55" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4" t="s">
+      <c r="B55" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E55" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F55" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" s="4" t="s">
+      <c r="F55" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="H55" s="4" t="s">
+      <c r="H55" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I55" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="44"/>
-      <c r="N55" s="45"/>
+      <c r="I55" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="47"/>
+      <c r="N55" s="48"/>
     </row>
     <row r="56" ht="54" spans="1:14">
       <c r="A56" s="30"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="36" t="s">
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E56" s="36" t="s">
+      <c r="E56" s="38" t="s">
         <v>17</v>
       </c>
       <c r="F56" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G56" s="36" t="s">
+      <c r="G56" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="H56" s="36" t="s">
+      <c r="H56" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="I56" s="5" t="s">
+      <c r="I56" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="J56" s="5" t="s">
+      <c r="J56" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="K56" s="5">
-        <v>0</v>
-      </c>
-      <c r="L56" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M56" s="44"/>
-      <c r="N56" s="45"/>
+      <c r="K56" s="11">
+        <v>0</v>
+      </c>
+      <c r="L56" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M56" s="47"/>
+      <c r="N56" s="48"/>
     </row>
     <row r="57" ht="54" spans="1:14">
       <c r="A57" s="30"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="39"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
       <c r="F57" s="28"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="39"/>
-      <c r="I57" s="5" t="s">
+      <c r="G57" s="41"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J57" s="5" t="s">
+      <c r="J57" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="K57" s="5">
-        <v>0</v>
-      </c>
-      <c r="L57" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M57" s="44"/>
-      <c r="N57" s="45"/>
+      <c r="K57" s="11">
+        <v>0</v>
+      </c>
+      <c r="L57" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M57" s="47"/>
+      <c r="N57" s="48"/>
     </row>
     <row r="58" ht="54" spans="1:14">
       <c r="A58" s="30"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="39"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
       <c r="F58" s="28"/>
-      <c r="G58" s="39"/>
-      <c r="H58" s="39"/>
-      <c r="I58" s="5" t="s">
+      <c r="G58" s="41"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="J58" s="5" t="s">
+      <c r="J58" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K58" s="5">
-        <v>0</v>
-      </c>
-      <c r="L58" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M58" s="44"/>
-      <c r="N58" s="45"/>
+      <c r="K58" s="11">
+        <v>0</v>
+      </c>
+      <c r="L58" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M58" s="47"/>
+      <c r="N58" s="48"/>
     </row>
     <row r="59" ht="81" spans="1:14">
       <c r="A59" s="30"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="38"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
       <c r="F59" s="29"/>
-      <c r="G59" s="38"/>
-      <c r="H59" s="38"/>
-      <c r="I59" s="5" t="s">
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="J59" s="5" t="s">
+      <c r="J59" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="K59" s="5">
-        <v>0</v>
-      </c>
-      <c r="L59" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M59" s="44"/>
-      <c r="N59" s="45"/>
+      <c r="K59" s="11">
+        <v>0</v>
+      </c>
+      <c r="L59" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M59" s="47"/>
+      <c r="N59" s="48"/>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="30"/>
-      <c r="B60" s="8"/>
+      <c r="B60" s="31"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="9"/>
       <c r="G60" s="2"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="44"/>
-      <c r="N60" s="45"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="32"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="47"/>
+      <c r="N60" s="48"/>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B61" s="8"/>
+      <c r="A61" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="B61" s="31"/>
       <c r="C61" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D61" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E61" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F61" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" s="4" t="s">
+      <c r="F61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G61" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H61" s="4">
-        <v>0</v>
-      </c>
-      <c r="I61" s="4">
-        <v>0</v>
-      </c>
-      <c r="J61" s="4">
-        <v>0</v>
-      </c>
-      <c r="K61" s="4">
-        <v>0</v>
-      </c>
-      <c r="L61" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M61" s="12"/>
+      <c r="H61" s="12">
+        <v>0</v>
+      </c>
+      <c r="I61" s="12">
+        <v>0</v>
+      </c>
+      <c r="J61" s="12">
+        <v>0</v>
+      </c>
+      <c r="K61" s="12">
+        <v>0</v>
+      </c>
+      <c r="L61" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M61" s="4"/>
       <c r="N61" s="9"/>
     </row>
     <row r="62" ht="27" spans="1:14">
-      <c r="A62" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="B62" s="41"/>
-      <c r="C62" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="6" t="s">
+      <c r="A62" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="B62" s="44"/>
+      <c r="C62" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E62" s="6" t="s">
-        <v>117</v>
+      <c r="E62" s="32" t="s">
+        <v>118</v>
       </c>
       <c r="F62" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G62" s="6" t="s">
+      <c r="G62" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="H62" s="13" t="s">
+      <c r="H62" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="I62" s="32">
+        <v>0</v>
+      </c>
+      <c r="J62" s="32">
+        <v>0</v>
+      </c>
+      <c r="K62" s="32">
+        <v>0</v>
+      </c>
+      <c r="L62" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M62" s="32"/>
+      <c r="N62" s="9"/>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="42"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="31"/>
+      <c r="N63" s="2"/>
+    </row>
+    <row r="64" ht="48" customHeight="1" spans="1:14">
+      <c r="A64" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="B64" s="46"/>
+      <c r="C64" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="H64" s="12">
+        <v>0</v>
+      </c>
+      <c r="I64" s="12">
+        <v>0</v>
+      </c>
+      <c r="J64" s="12">
+        <v>0</v>
+      </c>
+      <c r="K64" s="12">
+        <v>0</v>
+      </c>
+      <c r="L64" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M64" s="4"/>
+      <c r="N64" s="51"/>
+    </row>
+    <row r="65" ht="28" customHeight="1" spans="1:14">
+      <c r="A65" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="B65" s="46"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H65" s="12">
+        <v>0</v>
+      </c>
+      <c r="I65" s="12">
+        <v>0</v>
+      </c>
+      <c r="J65" s="12">
+        <v>0</v>
+      </c>
+      <c r="K65" s="12">
+        <v>0</v>
+      </c>
+      <c r="L65" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M65" s="4"/>
+      <c r="N65" s="51"/>
+    </row>
+    <row r="66" customFormat="1" ht="28" customHeight="1" spans="1:14">
+      <c r="A66" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="B66" s="46"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H66" s="12">
+        <v>0</v>
+      </c>
+      <c r="I66" s="12">
+        <v>0</v>
+      </c>
+      <c r="J66" s="12">
+        <v>0</v>
+      </c>
+      <c r="K66" s="12">
+        <v>0</v>
+      </c>
+      <c r="L66" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M66" s="4"/>
+      <c r="N66" s="51"/>
+    </row>
+    <row r="67" customFormat="1" ht="28" customHeight="1" spans="1:14">
+      <c r="A67" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="B67" s="46"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="51"/>
+    </row>
+    <row r="68" customFormat="1" ht="28" customHeight="1" spans="1:14">
+      <c r="A68" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="B68" s="46"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G68" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="I62" s="6">
-        <v>0</v>
-      </c>
-      <c r="J62" s="6">
-        <v>0</v>
-      </c>
-      <c r="K62" s="6">
-        <v>0</v>
-      </c>
-      <c r="L62" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M62" s="6"/>
-      <c r="N62" s="9"/>
-    </row>
-    <row r="63" spans="1:14">
-      <c r="A63" s="7"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="11"/>
-      <c r="L63" s="11"/>
-      <c r="M63" s="8"/>
-      <c r="N63" s="2"/>
-    </row>
-    <row r="64" ht="48" customHeight="1" spans="1:14">
-      <c r="A64" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="B64" s="43"/>
-      <c r="C64" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D64" s="4" t="s">
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="51"/>
+    </row>
+    <row r="69" customFormat="1" ht="28" customHeight="1" spans="1:14">
+      <c r="A69" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="B69" s="46"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="E69" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F64" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="H64" s="4">
-        <v>0</v>
-      </c>
-      <c r="I64" s="4">
-        <v>0</v>
-      </c>
-      <c r="J64" s="4">
-        <v>0</v>
-      </c>
-      <c r="K64" s="4">
-        <v>0</v>
-      </c>
-      <c r="L64" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M64" s="12"/>
-      <c r="N64" s="48"/>
-    </row>
-    <row r="65" ht="28" customHeight="1" spans="1:14">
-      <c r="A65" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="B65" s="43"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="4" t="s">
+      <c r="F69" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="51"/>
+    </row>
+    <row r="70" customFormat="1" ht="28" customHeight="1" spans="1:14">
+      <c r="A70" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="B70" s="46"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="E70" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F65" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H65" s="4">
-        <v>0</v>
-      </c>
-      <c r="I65" s="4">
-        <v>0</v>
-      </c>
-      <c r="J65" s="4">
-        <v>0</v>
-      </c>
-      <c r="K65" s="4">
-        <v>0</v>
-      </c>
-      <c r="L65" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M65" s="12"/>
-      <c r="N65" s="48"/>
-    </row>
-    <row r="66" customFormat="1" ht="28" customHeight="1" spans="1:14">
-      <c r="A66" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="B66" s="43"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="4" t="s">
+      <c r="F70" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="51"/>
+    </row>
+    <row r="71" customFormat="1" ht="28" customHeight="1" spans="1:14">
+      <c r="A71" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="B71" s="46"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="E71" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F66" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H66" s="4">
-        <v>0</v>
-      </c>
-      <c r="I66" s="4">
-        <v>0</v>
-      </c>
-      <c r="J66" s="4">
-        <v>0</v>
-      </c>
-      <c r="K66" s="4">
-        <v>0</v>
-      </c>
-      <c r="L66" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M66" s="12"/>
-      <c r="N66" s="48"/>
-    </row>
-    <row r="67" customFormat="1" ht="28" customHeight="1" spans="1:14">
-      <c r="A67" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="B67" s="43"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="4" t="s">
+      <c r="F71" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="51"/>
+    </row>
+    <row r="72" customFormat="1" ht="28" customHeight="1" spans="1:14">
+      <c r="A72" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="B72" s="46"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="E72" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F67" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
-      <c r="M67" s="12"/>
-      <c r="N67" s="48"/>
-    </row>
-    <row r="68" customFormat="1" ht="28" customHeight="1" spans="1:14">
-      <c r="A68" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="B68" s="43"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="4" t="s">
+      <c r="F72" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="51"/>
+    </row>
+    <row r="73" customFormat="1" ht="28" customHeight="1" spans="1:14">
+      <c r="A73" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="B73" s="46"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="E73" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F68" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
-      <c r="M68" s="12"/>
-      <c r="N68" s="48"/>
-    </row>
-    <row r="69" customFormat="1" ht="28" customHeight="1" spans="1:14">
-      <c r="A69" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="B69" s="43"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="4" t="s">
+      <c r="F73" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G73" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="51"/>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="B74" s="32"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E69" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-      <c r="M69" s="12"/>
-      <c r="N69" s="48"/>
-    </row>
-    <row r="70" customFormat="1" ht="28" customHeight="1" spans="1:14">
-      <c r="A70" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="B70" s="43"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="4" t="s">
+      <c r="E74" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="F74" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G74" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H74" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="I74" s="32">
+        <v>0</v>
+      </c>
+      <c r="J74" s="32">
+        <v>0</v>
+      </c>
+      <c r="K74" s="32">
+        <v>0</v>
+      </c>
+      <c r="L74" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="M74" s="32"/>
+      <c r="N74" s="2"/>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="B75" s="32"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-      <c r="M70" s="12"/>
-      <c r="N70" s="48"/>
-    </row>
-    <row r="71" customFormat="1" ht="28" customHeight="1" spans="1:14">
-      <c r="A71" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="B71" s="43"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="4" t="s">
+      <c r="E75" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F75" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G75" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="I75" s="32"/>
+      <c r="J75" s="32"/>
+      <c r="K75" s="32"/>
+      <c r="L75" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="M75" s="32"/>
+      <c r="N75" s="2"/>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="B76" s="32"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E71" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
-      <c r="M71" s="12"/>
-      <c r="N71" s="48"/>
-    </row>
-    <row r="72" customFormat="1" ht="28" customHeight="1" spans="1:14">
-      <c r="A72" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="B72" s="43"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
-      <c r="M72" s="12"/>
-      <c r="N72" s="48"/>
-    </row>
-    <row r="73" customFormat="1" ht="28" customHeight="1" spans="1:14">
-      <c r="A73" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="B73" s="43"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
-      <c r="M73" s="12"/>
-      <c r="N73" s="48"/>
-    </row>
-    <row r="74" spans="1:14">
-      <c r="A74" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" s="6" t="s">
+      <c r="E76" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F76" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G76" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="H74" s="6" t="s">
+      <c r="H76" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="I74" s="6">
-        <v>0</v>
-      </c>
-      <c r="J74" s="6">
-        <v>0</v>
-      </c>
-      <c r="K74" s="6">
-        <v>0</v>
-      </c>
-      <c r="L74" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M74" s="6"/>
-      <c r="N74" s="2"/>
-    </row>
-    <row r="75" spans="1:14">
-      <c r="A75" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H75" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
-      <c r="L75" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M75" s="6"/>
-      <c r="N75" s="2"/>
-    </row>
-    <row r="76" spans="1:14">
-      <c r="A76" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
-      <c r="L76" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M76" s="6"/>
+      <c r="I76" s="32"/>
+      <c r="J76" s="32"/>
+      <c r="K76" s="32"/>
+      <c r="L76" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="M76" s="32"/>
       <c r="N76" s="2"/>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
-      <c r="D77" s="6" t="s">
+      <c r="D77" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E77" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F77" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" s="6" t="s">
+      <c r="E77" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="F77" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G77" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="H77" s="6" t="s">
+      <c r="H77" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
-      <c r="L77" s="6" t="s">
+      <c r="I77" s="32"/>
+      <c r="J77" s="32"/>
+      <c r="K77" s="32"/>
+      <c r="L77" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D78" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="D78" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="49" t="s">
+      <c r="E78" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="F78" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G78" s="49" t="s">
+      <c r="F78" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="G78" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="H78" s="49" t="s">
+      <c r="H78" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="I78" s="49"/>
-      <c r="J78" s="49"/>
-      <c r="K78" s="49"/>
-      <c r="L78" s="49"/>
+      <c r="I78" s="52"/>
+      <c r="J78" s="52"/>
+      <c r="K78" s="52"/>
+      <c r="L78" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="47">
@@ -4380,7 +4402,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="B10:J10"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="$A17:$XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4466,24 +4488,24 @@
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="L2" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="M2" s="2"/>
@@ -4494,9 +4516,9 @@
       <c r="R2" s="2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="67.5" spans="1:18">
-      <c r="A3" s="2"/>
+      <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>18</v>
@@ -4508,31 +4530,31 @@
         <v>97</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="J3" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="J3" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="K3" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="M3" s="9">
-        <v>0</v>
-      </c>
-      <c r="N3" s="13" t="s">
+      <c r="L3" s="4" t="s">
         <v>150</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>12</v>
@@ -4542,9 +4564,9 @@
       <c r="R3" s="2"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="67.5" spans="1:18">
-      <c r="A4" s="2"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>18</v>
@@ -4553,48 +4575,48 @@
         <v>17</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="J4" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="J4" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="K4" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="M4" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="N4" s="9" t="s">
+      <c r="L4" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="O4" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="P4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
+      <c r="M4" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="2"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>18</v>
@@ -4611,11 +4633,11 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
       <c r="O5" s="2" t="s">
         <v>12</v>
       </c>
@@ -4624,9 +4646,9 @@
       <c r="R5" s="2"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="2"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>18</v>
@@ -4635,7 +4657,7 @@
         <v>17</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>65</v>
@@ -4645,20 +4667,20 @@
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="2"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>18</v>
@@ -4667,34 +4689,34 @@
         <v>17</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I7" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="L7" s="2" t="s">
+      <c r="J7" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="K7" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="L7" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>167</v>
+      <c r="M7" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>12</v>
@@ -4704,9 +4726,9 @@
       <c r="R7" s="2"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="2"/>
+      <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>18</v>
@@ -4715,34 +4737,34 @@
         <v>17</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>80</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I8" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="L8" s="2" t="s">
+      <c r="J8" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="K8" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="L8" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>167</v>
+      <c r="M8" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>12</v>
@@ -4752,9 +4774,9 @@
       <c r="R8" s="2"/>
     </row>
     <row r="9" ht="27" spans="1:20">
-      <c r="A9" s="2"/>
+      <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>18</v>
@@ -4769,33 +4791,33 @@
         <v>92</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J9" s="5">
         <v>0</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N9" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="O9" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="P9" s="11" t="s">
         <v>94</v>
       </c>
       <c r="Q9" s="1" t="s">
@@ -4805,16 +4827,16 @@
         <v>91</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="T9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:18">
-      <c r="A10" s="2"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>18</v>
@@ -4828,31 +4850,31 @@
       <c r="F10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="H10" s="2" t="s">
+      <c r="G10" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="H10" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="J10" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
+      <c r="J10" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="2"/>
+      <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>18</v>
@@ -4866,46 +4888,46 @@
       <c r="F11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="G11" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
     </row>
     <row r="13" ht="27" spans="1:18">
-      <c r="A13" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B13" s="8"/>
+      <c r="A13" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B13" s="7"/>
       <c r="C13" s="4" t="s">
         <v>18</v>
       </c>
@@ -4918,29 +4940,29 @@
       <c r="F13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="H13" s="2" t="s">
+      <c r="G13" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+      <c r="H13" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
-        <v>184</v>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>18</v>
@@ -4955,84 +4977,84 @@
         <v>19</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+      <c r="G16" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2" t="s">
-        <v>189</v>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>18</v>
@@ -5047,30 +5069,30 @@
         <v>17</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="H17" s="10" t="s">
         <v>191</v>
       </c>
+      <c r="H17" s="8" t="s">
+        <v>192</v>
+      </c>
       <c r="I17" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2" t="s">
-        <v>193</v>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>18</v>
@@ -5085,34 +5107,34 @@
         <v>17</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2" t="s">
-        <v>196</v>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>18</v>
@@ -5124,28 +5146,28 @@
         <v>97</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="M19" s="2" t="s">
-        <v>200</v>
+      <c r="M19" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="N19" s="4" t="s">
         <v>12</v>
@@ -5156,43 +5178,43 @@
       <c r="R19" s="2"/>
     </row>
     <row r="20" ht="27" spans="1:18">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+      <c r="G20" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="2"/>
+      <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>18</v>
@@ -5207,31 +5229,31 @@
         <v>17</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="B22" s="8"/>
+      <c r="A22" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B22" s="7"/>
       <c r="C22" s="4" t="s">
         <v>18</v>
       </c>
@@ -5242,28 +5264,28 @@
         <v>97</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
@@ -5272,7 +5294,7 @@
     <row r="23" ht="40.5" spans="1:18">
       <c r="A23" s="2"/>
       <c r="B23" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>18</v>
@@ -5284,19 +5306,19 @@
         <v>100</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>12</v>
@@ -5331,8 +5353,8 @@
     </row>
     <row r="25" ht="40.5" spans="1:18">
       <c r="A25" s="2"/>
-      <c r="B25" s="11" t="s">
-        <v>210</v>
+      <c r="B25" s="10" t="s">
+        <v>211</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>18</v>
@@ -5344,7 +5366,7 @@
         <v>19</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>12</v>
@@ -5361,14 +5383,26 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" ht="40.5" spans="1:18">
       <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+      <c r="B26" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>

--- a/LG-06 Protocol V1.0.xlsx
+++ b/LG-06 Protocol V1.0.xlsx
@@ -382,7 +382,7 @@
   </si>
   <si>
     <t>0x01补拍
-0x01退出</t>
+0x00退出</t>
   </si>
   <si>
     <t>手动模式</t>
@@ -1982,9 +1982,9 @@
   <dimension ref="A1:N78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J53" sqref="J53"/>
+      <selection pane="bottomLeft" activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/LG-06 Protocol V1.0.xlsx
+++ b/LG-06 Protocol V1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="controller to motor" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="219">
   <si>
     <t>byte:</t>
   </si>
@@ -695,6 +695,19 @@
   </si>
   <si>
     <t>可补拍的参数组ID</t>
+  </si>
+  <si>
+    <t>视频模式倒计时</t>
+  </si>
+  <si>
+    <t>视频模式找AB点通知遥控器提示用户</t>
+  </si>
+  <si>
+    <t>0:已打到点
+1：在找A点
+2：在找B点
+3：正在找原点
+4：原点已找到</t>
   </si>
 </sst>
 </file>
@@ -1475,7 +1488,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1509,6 +1522,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1981,8 +2000,8 @@
   <sheetPr/>
   <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="K53" sqref="K53"/>
     </sheetView>
@@ -2006,35 +2025,35 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:14">
-      <c r="A1" s="15"/>
-      <c r="C1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="16">
-        <v>0</v>
-      </c>
-      <c r="E1" s="16">
+      <c r="A1" s="17"/>
+      <c r="C1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="18">
+        <v>0</v>
+      </c>
+      <c r="E1" s="18">
         <v>1</v>
       </c>
-      <c r="F1" s="16">
+      <c r="F1" s="18">
         <v>2</v>
       </c>
-      <c r="G1" s="16">
+      <c r="G1" s="18">
         <v>3</v>
       </c>
-      <c r="H1" s="16">
+      <c r="H1" s="18">
         <v>4</v>
       </c>
-      <c r="I1" s="16">
+      <c r="I1" s="18">
         <v>5</v>
       </c>
-      <c r="J1" s="16">
+      <c r="J1" s="18">
         <v>6</v>
       </c>
-      <c r="K1" s="16">
+      <c r="K1" s="18">
         <v>7</v>
       </c>
-      <c r="L1" s="16">
+      <c r="L1" s="18">
         <v>8</v>
       </c>
       <c r="M1" s="3"/>
@@ -2081,25 +2100,25 @@
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="19" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="20" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="19" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="9" t="s">
@@ -2117,26 +2136,26 @@
       <c r="L3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
     </row>
     <row r="4" ht="27" spans="1:14">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22"/>
       <c r="F4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="19"/>
+      <c r="G4" s="21"/>
       <c r="H4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="16">
         <v>0</v>
       </c>
       <c r="K4" s="2">
@@ -2145,19 +2164,19 @@
       <c r="L4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
     </row>
     <row r="5" ht="27" spans="1:14">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="19"/>
+      <c r="G5" s="21"/>
       <c r="H5" s="9" t="s">
         <v>26</v>
       </c>
@@ -2173,19 +2192,19 @@
       <c r="L5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
     </row>
     <row r="6" ht="27" spans="1:14">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="19"/>
+      <c r="G6" s="21"/>
       <c r="H6" s="9" t="s">
         <v>28</v>
       </c>
@@ -2201,19 +2220,19 @@
       <c r="L6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
     </row>
     <row r="7" ht="27" spans="1:14">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="19"/>
+      <c r="G7" s="21"/>
       <c r="H7" s="5" t="s">
         <v>29</v>
       </c>
@@ -2229,19 +2248,19 @@
       <c r="L7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
     </row>
     <row r="8" ht="27" spans="1:14">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
       <c r="F8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="19"/>
+      <c r="G8" s="21"/>
       <c r="H8" s="5" t="s">
         <v>31</v>
       </c>
@@ -2257,19 +2276,19 @@
       <c r="L8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
     </row>
     <row r="9" ht="27" spans="1:14">
-      <c r="A9" s="19"/>
-      <c r="B9" s="21"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="24"/>
       <c r="F9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="21"/>
+      <c r="G9" s="23"/>
       <c r="H9" s="5" t="s">
         <v>33</v>
       </c>
@@ -2285,25 +2304,25 @@
       <c r="L9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="19"/>
-      <c r="B10" s="17" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="19" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="25" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="19" t="s">
         <v>36</v>
       </c>
       <c r="H10" s="5" t="s">
@@ -2321,19 +2340,19 @@
       <c r="L10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="24"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="26"/>
       <c r="F11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="19"/>
+      <c r="G11" s="21"/>
       <c r="H11" s="5" t="s">
         <v>40</v>
       </c>
@@ -2349,19 +2368,19 @@
       <c r="L11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="24"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="26"/>
       <c r="F12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="19"/>
+      <c r="G12" s="21"/>
       <c r="H12" s="5" t="s">
         <v>41</v>
       </c>
@@ -2377,19 +2396,19 @@
       <c r="L12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
     </row>
     <row r="13" ht="27" spans="1:14">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="24"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="26"/>
       <c r="F13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="19"/>
+      <c r="G13" s="21"/>
       <c r="H13" s="5" t="s">
         <v>42</v>
       </c>
@@ -2405,19 +2424,19 @@
       <c r="L13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
     </row>
     <row r="14" ht="27" spans="1:14">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="24"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="19"/>
+      <c r="G14" s="21"/>
       <c r="H14" s="9" t="s">
         <v>44</v>
       </c>
@@ -2433,19 +2452,19 @@
       <c r="L14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
     </row>
     <row r="15" ht="27" spans="1:14">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="24"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="26"/>
       <c r="F15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="19"/>
+      <c r="G15" s="21"/>
       <c r="H15" s="5" t="s">
         <v>46</v>
       </c>
@@ -2461,19 +2480,19 @@
       <c r="L15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
     </row>
     <row r="16" ht="27" spans="1:14">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="24"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="26"/>
       <c r="F16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="19"/>
+      <c r="G16" s="21"/>
       <c r="H16" s="5" t="s">
         <v>47</v>
       </c>
@@ -2489,17 +2508,17 @@
       <c r="L16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="19"/>
-      <c r="B17" s="21"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="25"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="27"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="21"/>
+      <c r="G17" s="23"/>
       <c r="H17" s="5" t="s">
         <v>48</v>
       </c>
@@ -2515,27 +2534,27 @@
       <c r="L17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="19"/>
-      <c r="B18" s="21"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="25"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="27"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="26"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="28"/>
       <c r="I18" s="9"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
     </row>
     <row r="19" ht="54" spans="1:14">
-      <c r="A19" s="19"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="2" t="s">
         <v>49</v>
       </c>
@@ -2552,7 +2571,7 @@
       <c r="G19" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H19" s="27" t="s">
+      <c r="H19" s="29" t="s">
         <v>51</v>
       </c>
       <c r="I19" s="11" t="s">
@@ -2567,11 +2586,11 @@
       <c r="L19" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
     </row>
     <row r="20" ht="54" spans="1:14">
-      <c r="A20" s="19"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -2580,7 +2599,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="12"/>
-      <c r="H20" s="28"/>
+      <c r="H20" s="30"/>
       <c r="I20" s="11" t="s">
         <v>54</v>
       </c>
@@ -2591,11 +2610,11 @@
       <c r="L20" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
     </row>
     <row r="21" ht="54" spans="1:14">
-      <c r="A21" s="19"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -2604,7 +2623,7 @@
         <v>18</v>
       </c>
       <c r="G21" s="12"/>
-      <c r="H21" s="28"/>
+      <c r="H21" s="30"/>
       <c r="I21" s="11" t="s">
         <v>56</v>
       </c>
@@ -2613,11 +2632,11 @@
       </c>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
     </row>
     <row r="22" ht="81" spans="1:14">
-      <c r="A22" s="19"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -2626,7 +2645,7 @@
         <v>18</v>
       </c>
       <c r="G22" s="12"/>
-      <c r="H22" s="29"/>
+      <c r="H22" s="31"/>
       <c r="I22" s="11" t="s">
         <v>58</v>
       </c>
@@ -2635,11 +2654,11 @@
       </c>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
     </row>
     <row r="23" ht="54" spans="1:14">
-      <c r="A23" s="19"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2663,11 +2682,11 @@
       <c r="L23" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="19"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -2691,28 +2710,28 @@
       <c r="L24" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M24" s="47"/>
-      <c r="N24" s="48"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="50"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="30"/>
-      <c r="B25" s="31"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="9"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
       <c r="L25" s="4"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="48"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="50"/>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="2"/>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="35" t="s">
         <v>63</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -2745,12 +2764,12 @@
       <c r="L26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M26" s="47"/>
-      <c r="N26" s="48"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="50"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="2"/>
-      <c r="B27" s="34"/>
+      <c r="B27" s="36"/>
       <c r="C27" s="4" t="s">
         <v>69</v>
       </c>
@@ -2781,12 +2800,12 @@
       <c r="L27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M27" s="47"/>
-      <c r="N27" s="48"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="50"/>
     </row>
     <row r="28" ht="27" spans="1:14">
       <c r="A28" s="2"/>
-      <c r="B28" s="34"/>
+      <c r="B28" s="36"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
         <v>16</v>
@@ -2815,12 +2834,12 @@
       <c r="L28" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M28" s="47"/>
-      <c r="N28" s="48"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="50"/>
     </row>
     <row r="29" ht="40.5" spans="1:14">
       <c r="A29" s="2"/>
-      <c r="B29" s="34"/>
+      <c r="B29" s="36"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
         <v>16</v>
@@ -2849,12 +2868,12 @@
       <c r="L29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M29" s="47"/>
-      <c r="N29" s="48"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="50"/>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="2"/>
-      <c r="B30" s="34"/>
+      <c r="B30" s="36"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
         <v>16</v>
@@ -2881,12 +2900,12 @@
         <v>0</v>
       </c>
       <c r="L30" s="4"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="48"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="50"/>
     </row>
     <row r="31" ht="27" spans="1:14">
       <c r="A31" s="2"/>
-      <c r="B31" s="35"/>
+      <c r="B31" s="37"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
         <v>16</v>
@@ -2915,12 +2934,12 @@
       <c r="L31" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M31" s="47"/>
-      <c r="N31" s="48"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="50"/>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="30"/>
-      <c r="B32" s="35"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="37"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
         <v>16</v>
@@ -2945,12 +2964,12 @@
       </c>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="48"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="50"/>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="30"/>
-      <c r="B33" s="35"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="37"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
         <v>16</v>
@@ -2975,12 +2994,12 @@
       </c>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="47"/>
-      <c r="N33" s="48"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="50"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="30"/>
-      <c r="B34" s="35"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="37"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
         <v>16</v>
@@ -3003,12 +3022,12 @@
       <c r="J34" s="5"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="47"/>
-      <c r="N34" s="48"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="50"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="36"/>
-      <c r="B35" s="35"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="37"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -3019,12 +3038,12 @@
       <c r="J35" s="5"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="49"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="51"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="30"/>
-      <c r="B36" s="37" t="s">
+      <c r="A36" s="32"/>
+      <c r="B36" s="39" t="s">
         <v>79</v>
       </c>
       <c r="C36" s="12"/>
@@ -3055,12 +3074,12 @@
       <c r="L36" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M36" s="47"/>
-      <c r="N36" s="48"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="50"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="30"/>
-      <c r="B37" s="37"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="39"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12" t="s">
         <v>16</v>
@@ -3089,12 +3108,12 @@
       <c r="L37" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M37" s="47"/>
-      <c r="N37" s="48"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="50"/>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="30"/>
-      <c r="B38" s="37"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="39"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12" t="s">
         <v>16</v>
@@ -3123,12 +3142,12 @@
       <c r="L38" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M38" s="47"/>
-      <c r="N38" s="48"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="50"/>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="30"/>
-      <c r="B39" s="37"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="39"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12" t="s">
         <v>16</v>
@@ -3157,12 +3176,12 @@
       <c r="L39" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M39" s="47"/>
-      <c r="N39" s="48"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="50"/>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="30"/>
-      <c r="B40" s="37"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="39"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12" t="s">
         <v>16</v>
@@ -3191,12 +3210,12 @@
       <c r="L40" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M40" s="47"/>
-      <c r="N40" s="48"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="50"/>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="30"/>
-      <c r="B41" s="37"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="39"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12" t="s">
         <v>16</v>
@@ -3225,12 +3244,12 @@
       <c r="L41" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M41" s="47"/>
-      <c r="N41" s="48"/>
+      <c r="M41" s="49"/>
+      <c r="N41" s="50"/>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="30"/>
-      <c r="B42" s="37"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="39"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12" t="s">
         <v>16</v>
@@ -3259,12 +3278,12 @@
       <c r="L42" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M42" s="47"/>
-      <c r="N42" s="48"/>
+      <c r="M42" s="49"/>
+      <c r="N42" s="50"/>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="30"/>
-      <c r="B43" s="37"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="39"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12" t="s">
         <v>16</v>
@@ -3293,12 +3312,12 @@
       <c r="L43" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M43" s="47"/>
-      <c r="N43" s="48"/>
+      <c r="M43" s="49"/>
+      <c r="N43" s="50"/>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="30"/>
-      <c r="B44" s="37"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="39"/>
       <c r="C44" s="12" t="s">
         <v>95</v>
       </c>
@@ -3329,12 +3348,12 @@
       <c r="L44" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M44" s="47"/>
-      <c r="N44" s="48"/>
+      <c r="M44" s="49"/>
+      <c r="N44" s="50"/>
     </row>
     <row r="45" ht="27" spans="1:14">
-      <c r="A45" s="30"/>
-      <c r="B45" s="37"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="39"/>
       <c r="C45" s="12" t="s">
         <v>96</v>
       </c>
@@ -3365,12 +3384,12 @@
       <c r="L45" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M45" s="47"/>
-      <c r="N45" s="48"/>
+      <c r="M45" s="49"/>
+      <c r="N45" s="50"/>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="30"/>
-      <c r="B46" s="37"/>
+      <c r="A46" s="32"/>
+      <c r="B46" s="39"/>
       <c r="C46" s="12" t="s">
         <v>99</v>
       </c>
@@ -3401,12 +3420,12 @@
       <c r="L46" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M46" s="47"/>
-      <c r="N46" s="48"/>
+      <c r="M46" s="49"/>
+      <c r="N46" s="50"/>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="30"/>
-      <c r="B47" s="37"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="39"/>
       <c r="C47" s="12" t="s">
         <v>101</v>
       </c>
@@ -3437,12 +3456,12 @@
       <c r="L47" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M47" s="47"/>
-      <c r="N47" s="48"/>
+      <c r="M47" s="49"/>
+      <c r="N47" s="50"/>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="30"/>
-      <c r="B48" s="37"/>
+      <c r="A48" s="32"/>
+      <c r="B48" s="39"/>
       <c r="C48" s="12" t="s">
         <v>103</v>
       </c>
@@ -3473,12 +3492,12 @@
       <c r="L48" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M48" s="47"/>
-      <c r="N48" s="48"/>
+      <c r="M48" s="49"/>
+      <c r="N48" s="50"/>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="30"/>
-      <c r="B49" s="37"/>
+      <c r="A49" s="32"/>
+      <c r="B49" s="39"/>
       <c r="C49" s="12" t="s">
         <v>105</v>
       </c>
@@ -3509,12 +3528,12 @@
       <c r="L49" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M49" s="47"/>
-      <c r="N49" s="48"/>
+      <c r="M49" s="49"/>
+      <c r="N49" s="50"/>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="30"/>
-      <c r="B50" s="37"/>
+      <c r="A50" s="32"/>
+      <c r="B50" s="39"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12" t="s">
         <v>16</v>
@@ -3531,7 +3550,7 @@
       <c r="H50" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="I50" s="50" t="s">
+      <c r="I50" s="52" t="s">
         <v>109</v>
       </c>
       <c r="J50" s="11">
@@ -3543,26 +3562,26 @@
       <c r="L50" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M50" s="47"/>
-      <c r="N50" s="48"/>
+      <c r="M50" s="49"/>
+      <c r="N50" s="50"/>
     </row>
     <row r="51" customFormat="1" ht="54" spans="1:14">
-      <c r="A51" s="30"/>
-      <c r="B51" s="37"/>
+      <c r="A51" s="32"/>
+      <c r="B51" s="39"/>
       <c r="C51" s="12"/>
-      <c r="D51" s="38" t="s">
+      <c r="D51" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="E51" s="27" t="s">
+      <c r="E51" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F51" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" s="38" t="s">
+      <c r="F51" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="H51" s="38" t="s">
+      <c r="H51" s="40" t="s">
         <v>110</v>
       </c>
       <c r="I51" s="11" t="s">
@@ -3577,18 +3596,18 @@
       <c r="L51" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M51" s="47"/>
-      <c r="N51" s="48"/>
+      <c r="M51" s="49"/>
+      <c r="N51" s="50"/>
     </row>
     <row r="52" customFormat="1" ht="54" spans="1:14">
-      <c r="A52" s="30"/>
-      <c r="B52" s="39"/>
+      <c r="A52" s="32"/>
+      <c r="B52" s="41"/>
       <c r="C52" s="12"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="40"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
       <c r="I52" s="11" t="s">
         <v>54</v>
       </c>
@@ -3601,12 +3620,12 @@
       <c r="L52" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M52" s="47"/>
-      <c r="N52" s="48"/>
+      <c r="M52" s="49"/>
+      <c r="N52" s="50"/>
     </row>
     <row r="53" customFormat="1" ht="27" spans="1:14">
-      <c r="A53" s="30"/>
-      <c r="B53" s="39"/>
+      <c r="A53" s="32"/>
+      <c r="B53" s="41"/>
       <c r="C53" s="12"/>
       <c r="D53" s="12" t="s">
         <v>16</v>
@@ -3635,12 +3654,12 @@
       <c r="L53" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M53" s="47"/>
-      <c r="N53" s="48"/>
+      <c r="M53" s="49"/>
+      <c r="N53" s="50"/>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="30"/>
-      <c r="B54" s="35"/>
+      <c r="A54" s="32"/>
+      <c r="B54" s="37"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -3651,11 +3670,11 @@
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
       <c r="L54" s="4"/>
-      <c r="M54" s="47"/>
-      <c r="N54" s="48"/>
+      <c r="M54" s="49"/>
+      <c r="N54" s="50"/>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="30"/>
+      <c r="A55" s="32"/>
       <c r="B55" s="12" t="s">
         <v>114</v>
       </c>
@@ -3681,26 +3700,26 @@
       <c r="J55" s="11"/>
       <c r="K55" s="11"/>
       <c r="L55" s="12"/>
-      <c r="M55" s="47"/>
-      <c r="N55" s="48"/>
+      <c r="M55" s="49"/>
+      <c r="N55" s="50"/>
     </row>
     <row r="56" ht="54" spans="1:14">
-      <c r="A56" s="30"/>
+      <c r="A56" s="32"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
-      <c r="D56" s="38" t="s">
+      <c r="D56" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="E56" s="38" t="s">
+      <c r="E56" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F56" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" s="38" t="s">
+      <c r="F56" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="H56" s="38" t="s">
+      <c r="H56" s="40" t="s">
         <v>36</v>
       </c>
       <c r="I56" s="11" t="s">
@@ -3715,18 +3734,18 @@
       <c r="L56" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M56" s="47"/>
-      <c r="N56" s="48"/>
+      <c r="M56" s="49"/>
+      <c r="N56" s="50"/>
     </row>
     <row r="57" ht="54" spans="1:14">
-      <c r="A57" s="30"/>
+      <c r="A57" s="32"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="41"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
       <c r="I57" s="11" t="s">
         <v>54</v>
       </c>
@@ -3739,18 +3758,18 @@
       <c r="L57" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M57" s="47"/>
-      <c r="N57" s="48"/>
+      <c r="M57" s="49"/>
+      <c r="N57" s="50"/>
     </row>
     <row r="58" ht="54" spans="1:14">
-      <c r="A58" s="30"/>
+      <c r="A58" s="32"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="41"/>
-      <c r="H58" s="41"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="43"/>
       <c r="I58" s="11" t="s">
         <v>56</v>
       </c>
@@ -3763,18 +3782,18 @@
       <c r="L58" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M58" s="47"/>
-      <c r="N58" s="48"/>
+      <c r="M58" s="49"/>
+      <c r="N58" s="50"/>
     </row>
     <row r="59" ht="81" spans="1:14">
-      <c r="A59" s="30"/>
+      <c r="A59" s="32"/>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
       <c r="I59" s="11" t="s">
         <v>58</v>
       </c>
@@ -3787,30 +3806,30 @@
       <c r="L59" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M59" s="47"/>
-      <c r="N59" s="48"/>
+      <c r="M59" s="49"/>
+      <c r="N59" s="50"/>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="30"/>
-      <c r="B60" s="31"/>
+      <c r="A60" s="32"/>
+      <c r="B60" s="33"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="9"/>
       <c r="G60" s="2"/>
-      <c r="H60" s="32"/>
-      <c r="I60" s="32"/>
-      <c r="J60" s="32"/>
-      <c r="K60" s="32"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="34"/>
+      <c r="J60" s="34"/>
+      <c r="K60" s="34"/>
       <c r="L60" s="4"/>
-      <c r="M60" s="47"/>
-      <c r="N60" s="48"/>
+      <c r="M60" s="49"/>
+      <c r="N60" s="50"/>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="42" t="s">
+      <c r="A61" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="B61" s="31"/>
+      <c r="B61" s="33"/>
       <c r="C61" s="2" t="s">
         <v>15</v>
       </c>
@@ -3845,45 +3864,45 @@
       <c r="N61" s="9"/>
     </row>
     <row r="62" ht="27" spans="1:14">
-      <c r="A62" s="43" t="s">
+      <c r="A62" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="B62" s="44"/>
-      <c r="C62" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="32" t="s">
+      <c r="B62" s="46"/>
+      <c r="C62" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="E62" s="32" t="s">
+      <c r="E62" s="34" t="s">
         <v>118</v>
       </c>
       <c r="F62" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G62" s="32" t="s">
+      <c r="G62" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="H62" s="14" t="s">
+      <c r="H62" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="I62" s="32">
-        <v>0</v>
-      </c>
-      <c r="J62" s="32">
-        <v>0</v>
-      </c>
-      <c r="K62" s="32">
+      <c r="I62" s="34">
+        <v>0</v>
+      </c>
+      <c r="J62" s="34">
+        <v>0</v>
+      </c>
+      <c r="K62" s="34">
         <v>0</v>
       </c>
       <c r="L62" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M62" s="32"/>
+      <c r="M62" s="34"/>
       <c r="N62" s="9"/>
     </row>
     <row r="63" spans="1:14">
-      <c r="A63" s="42"/>
+      <c r="A63" s="44"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
@@ -3895,15 +3914,15 @@
       <c r="J63" s="10"/>
       <c r="K63" s="10"/>
       <c r="L63" s="10"/>
-      <c r="M63" s="31"/>
+      <c r="M63" s="33"/>
       <c r="N63" s="2"/>
     </row>
     <row r="64" ht="48" customHeight="1" spans="1:14">
-      <c r="A64" s="45" t="s">
+      <c r="A64" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="B64" s="46"/>
-      <c r="C64" s="17" t="s">
+      <c r="B64" s="48"/>
+      <c r="C64" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D64" s="12" t="s">
@@ -3934,14 +3953,14 @@
         <v>12</v>
       </c>
       <c r="M64" s="4"/>
-      <c r="N64" s="51"/>
+      <c r="N64" s="53"/>
     </row>
     <row r="65" ht="28" customHeight="1" spans="1:14">
-      <c r="A65" s="45" t="s">
+      <c r="A65" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="B65" s="46"/>
-      <c r="C65" s="19"/>
+      <c r="B65" s="48"/>
+      <c r="C65" s="21"/>
       <c r="D65" s="12" t="s">
         <v>16</v>
       </c>
@@ -3970,14 +3989,14 @@
         <v>12</v>
       </c>
       <c r="M65" s="4"/>
-      <c r="N65" s="51"/>
+      <c r="N65" s="53"/>
     </row>
     <row r="66" customFormat="1" ht="28" customHeight="1" spans="1:14">
-      <c r="A66" s="45" t="s">
+      <c r="A66" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="B66" s="46"/>
-      <c r="C66" s="19"/>
+      <c r="B66" s="48"/>
+      <c r="C66" s="21"/>
       <c r="D66" s="12" t="s">
         <v>16</v>
       </c>
@@ -4006,14 +4025,14 @@
         <v>12</v>
       </c>
       <c r="M66" s="4"/>
-      <c r="N66" s="51"/>
+      <c r="N66" s="53"/>
     </row>
     <row r="67" customFormat="1" ht="28" customHeight="1" spans="1:14">
-      <c r="A67" s="45" t="s">
+      <c r="A67" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="B67" s="46"/>
-      <c r="C67" s="19"/>
+      <c r="B67" s="48"/>
+      <c r="C67" s="21"/>
       <c r="D67" s="12" t="s">
         <v>16</v>
       </c>
@@ -4032,14 +4051,14 @@
       <c r="K67" s="12"/>
       <c r="L67" s="12"/>
       <c r="M67" s="4"/>
-      <c r="N67" s="51"/>
+      <c r="N67" s="53"/>
     </row>
     <row r="68" customFormat="1" ht="28" customHeight="1" spans="1:14">
-      <c r="A68" s="45" t="s">
+      <c r="A68" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="B68" s="46"/>
-      <c r="C68" s="19"/>
+      <c r="B68" s="48"/>
+      <c r="C68" s="21"/>
       <c r="D68" s="12" t="s">
         <v>16</v>
       </c>
@@ -4058,14 +4077,14 @@
       <c r="K68" s="12"/>
       <c r="L68" s="12"/>
       <c r="M68" s="4"/>
-      <c r="N68" s="51"/>
+      <c r="N68" s="53"/>
     </row>
     <row r="69" customFormat="1" ht="28" customHeight="1" spans="1:14">
-      <c r="A69" s="45" t="s">
+      <c r="A69" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="B69" s="46"/>
-      <c r="C69" s="19"/>
+      <c r="B69" s="48"/>
+      <c r="C69" s="21"/>
       <c r="D69" s="12" t="s">
         <v>16</v>
       </c>
@@ -4084,14 +4103,14 @@
       <c r="K69" s="12"/>
       <c r="L69" s="12"/>
       <c r="M69" s="4"/>
-      <c r="N69" s="51"/>
+      <c r="N69" s="53"/>
     </row>
     <row r="70" customFormat="1" ht="28" customHeight="1" spans="1:14">
-      <c r="A70" s="45" t="s">
+      <c r="A70" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="B70" s="46"/>
-      <c r="C70" s="19"/>
+      <c r="B70" s="48"/>
+      <c r="C70" s="21"/>
       <c r="D70" s="12" t="s">
         <v>16</v>
       </c>
@@ -4110,14 +4129,14 @@
       <c r="K70" s="12"/>
       <c r="L70" s="12"/>
       <c r="M70" s="4"/>
-      <c r="N70" s="51"/>
+      <c r="N70" s="53"/>
     </row>
     <row r="71" customFormat="1" ht="28" customHeight="1" spans="1:14">
-      <c r="A71" s="45" t="s">
+      <c r="A71" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="B71" s="46"/>
-      <c r="C71" s="19"/>
+      <c r="B71" s="48"/>
+      <c r="C71" s="21"/>
       <c r="D71" s="12" t="s">
         <v>16</v>
       </c>
@@ -4136,14 +4155,14 @@
       <c r="K71" s="12"/>
       <c r="L71" s="12"/>
       <c r="M71" s="4"/>
-      <c r="N71" s="51"/>
+      <c r="N71" s="53"/>
     </row>
     <row r="72" customFormat="1" ht="28" customHeight="1" spans="1:14">
-      <c r="A72" s="45" t="s">
+      <c r="A72" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="B72" s="46"/>
-      <c r="C72" s="19"/>
+      <c r="B72" s="48"/>
+      <c r="C72" s="21"/>
       <c r="D72" s="12" t="s">
         <v>16</v>
       </c>
@@ -4162,14 +4181,14 @@
       <c r="K72" s="12"/>
       <c r="L72" s="12"/>
       <c r="M72" s="4"/>
-      <c r="N72" s="51"/>
+      <c r="N72" s="53"/>
     </row>
     <row r="73" customFormat="1" ht="28" customHeight="1" spans="1:14">
-      <c r="A73" s="45" t="s">
+      <c r="A73" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="B73" s="46"/>
-      <c r="C73" s="19"/>
+      <c r="B73" s="48"/>
+      <c r="C73" s="21"/>
       <c r="D73" s="12" t="s">
         <v>16</v>
       </c>
@@ -4188,102 +4207,102 @@
       <c r="K73" s="12"/>
       <c r="L73" s="12"/>
       <c r="M73" s="4"/>
-      <c r="N73" s="51"/>
+      <c r="N73" s="53"/>
     </row>
     <row r="74" spans="1:14">
-      <c r="A74" s="32" t="s">
+      <c r="A74" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="B74" s="32"/>
-      <c r="C74" s="32"/>
-      <c r="D74" s="32" t="s">
+      <c r="B74" s="34"/>
+      <c r="C74" s="34"/>
+      <c r="D74" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="E74" s="32" t="s">
+      <c r="E74" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="F74" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" s="32" t="s">
+      <c r="F74" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="G74" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="H74" s="32" t="s">
+      <c r="H74" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="I74" s="32">
-        <v>0</v>
-      </c>
-      <c r="J74" s="32">
-        <v>0</v>
-      </c>
-      <c r="K74" s="32">
-        <v>0</v>
-      </c>
-      <c r="L74" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="M74" s="32"/>
+      <c r="I74" s="34">
+        <v>0</v>
+      </c>
+      <c r="J74" s="34">
+        <v>0</v>
+      </c>
+      <c r="K74" s="34">
+        <v>0</v>
+      </c>
+      <c r="L74" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="M74" s="34"/>
       <c r="N74" s="2"/>
     </row>
     <row r="75" spans="1:14">
-      <c r="A75" s="32" t="s">
+      <c r="A75" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="B75" s="32"/>
-      <c r="C75" s="32"/>
-      <c r="D75" s="32" t="s">
+      <c r="B75" s="34"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="E75" s="32" t="s">
+      <c r="E75" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="F75" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" s="32" t="s">
+      <c r="F75" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="G75" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="H75" s="32" t="s">
+      <c r="H75" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="I75" s="32"/>
-      <c r="J75" s="32"/>
-      <c r="K75" s="32"/>
-      <c r="L75" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="M75" s="32"/>
+      <c r="I75" s="34"/>
+      <c r="J75" s="34"/>
+      <c r="K75" s="34"/>
+      <c r="L75" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="M75" s="34"/>
       <c r="N75" s="2"/>
     </row>
     <row r="76" spans="1:14">
-      <c r="A76" s="32" t="s">
+      <c r="A76" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="B76" s="32"/>
-      <c r="C76" s="32"/>
-      <c r="D76" s="32" t="s">
+      <c r="B76" s="34"/>
+      <c r="C76" s="34"/>
+      <c r="D76" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="E76" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="F76" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" s="32" t="s">
+      <c r="E76" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="F76" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="G76" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="H76" s="32" t="s">
+      <c r="H76" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="I76" s="32"/>
-      <c r="J76" s="32"/>
-      <c r="K76" s="32"/>
-      <c r="L76" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="M76" s="32"/>
+      <c r="I76" s="34"/>
+      <c r="J76" s="34"/>
+      <c r="K76" s="34"/>
+      <c r="L76" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="M76" s="34"/>
       <c r="N76" s="2"/>
     </row>
     <row r="77" spans="1:12">
@@ -4292,25 +4311,25 @@
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
-      <c r="D77" s="32" t="s">
+      <c r="D77" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="E77" s="32" t="s">
+      <c r="E77" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="F77" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" s="32" t="s">
+      <c r="F77" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="G77" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="H77" s="32" t="s">
+      <c r="H77" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="I77" s="32"/>
-      <c r="J77" s="32"/>
-      <c r="K77" s="32"/>
-      <c r="L77" s="32" t="s">
+      <c r="I77" s="34"/>
+      <c r="J77" s="34"/>
+      <c r="K77" s="34"/>
+      <c r="L77" s="34" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4318,25 +4337,25 @@
       <c r="A78" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D78" s="52" t="s">
+      <c r="D78" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="52" t="s">
+      <c r="E78" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="F78" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G78" s="52" t="s">
+      <c r="F78" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="G78" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="H78" s="52" t="s">
+      <c r="H78" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="I78" s="52"/>
-      <c r="J78" s="52"/>
-      <c r="K78" s="52"/>
-      <c r="L78" s="52"/>
+      <c r="I78" s="54"/>
+      <c r="J78" s="54"/>
+      <c r="K78" s="54"/>
+      <c r="L78" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="47">
@@ -4399,10 +4418,10 @@
   <sheetPr/>
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="$A17:$XFD17"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4410,7 +4429,7 @@
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="17.25" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="8.88333333333333" customWidth="1"/>
+    <col min="5" max="5" width="13.625" customWidth="1"/>
     <col min="6" max="7" width="17.5" customWidth="1"/>
     <col min="8" max="8" width="9.775" customWidth="1"/>
     <col min="9" max="9" width="17.5" customWidth="1"/>
@@ -4541,7 +4560,7 @@
       <c r="I3" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="15" t="s">
         <v>148</v>
       </c>
       <c r="K3" s="4" t="s">
@@ -4604,14 +4623,14 @@
       <c r="N4" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="O4" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="P4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
+      <c r="P4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="4"/>
@@ -5417,14 +5436,30 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -5435,13 +5470,23 @@
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
     </row>
-    <row r="28" spans="1:18">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+    <row r="28" ht="94.5" spans="1:18">
+      <c r="A28" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -5496,9 +5541,10 @@
       <c r="R30" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="D14:D15"/>

--- a/LG-06 Protocol V1.0.xlsx
+++ b/LG-06 Protocol V1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="controller to motor" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="227">
   <si>
     <t>byte:</t>
   </si>
@@ -230,53 +230,46 @@
     <t>0x04:AB点重置</t>
   </si>
   <si>
-    <t>单层全景模式</t>
+    <t>合影模式</t>
   </si>
   <si>
     <t>等待此时间后拍照</t>
   </si>
   <si>
-    <t>0x04</t>
-  </si>
-  <si>
-    <t>0x02 缓停时间</t>
-  </si>
-  <si>
-    <t>缓停时间毫秒</t>
-  </si>
-  <si>
-    <t>缓停时间</t>
+    <t>0x05</t>
+  </si>
+  <si>
+    <t>0x01 镜头焦距</t>
+  </si>
+  <si>
+    <t>1-500低位</t>
+  </si>
+  <si>
+    <t>高位</t>
   </si>
   <si>
     <t>推迟启动时间0-255秒</t>
   </si>
   <si>
-    <t>0x01 张数</t>
-  </si>
-  <si>
-    <t>0x03 快门速度</t>
-  </si>
-  <si>
-    <t>快门时间毫秒0.5-30S</t>
-  </si>
-  <si>
-    <t>0x04 定时开拍</t>
-  </si>
-  <si>
-    <t>0x05 手动快门</t>
-  </si>
-  <si>
-    <t>0xff:手动
-00:自动</t>
-  </si>
-  <si>
-    <t>0x06 快门次数</t>
-  </si>
-  <si>
-    <t>0x07 延时时间</t>
-  </si>
-  <si>
-    <t>0x08 速度</t>
+    <t>0x02 重叠率</t>
+  </si>
+  <si>
+    <t>0-100</t>
+  </si>
+  <si>
+    <t>0x03快门时间</t>
+  </si>
+  <si>
+    <t>1-99</t>
+  </si>
+  <si>
+    <t>0x04 手动快门</t>
+  </si>
+  <si>
+    <t>0x05 方向</t>
+  </si>
+  <si>
+    <t>0x06 启停</t>
   </si>
   <si>
     <t>多层全景模式</t>
@@ -298,9 +291,6 @@
   </si>
   <si>
     <t>0x02快门次数</t>
-  </si>
-  <si>
-    <t>1-99</t>
   </si>
   <si>
     <t>张数</t>
@@ -394,10 +384,10 @@
     <t>与MCU蓝牙连接成功</t>
   </si>
   <si>
+    <t>0x04</t>
+  </si>
+  <si>
     <t>APP最小化或最大化</t>
-  </si>
-  <si>
-    <t>0x05</t>
   </si>
   <si>
     <t>0x01:最小化
@@ -419,7 +409,7 @@
     <t>主菜单</t>
   </si>
   <si>
-    <t>进入标准界面</t>
+    <t>进入合影模式</t>
   </si>
   <si>
     <t>进入广角界面</t>
@@ -534,7 +524,31 @@
     <t>进入原点设置界面</t>
   </si>
   <si>
-    <t>标准模式</t>
+    <t>镜头焦距-低位</t>
+  </si>
+  <si>
+    <t>镜头焦距-高</t>
+  </si>
+  <si>
+    <t>重叠率</t>
+  </si>
+  <si>
+    <t>快门时间</t>
+  </si>
+  <si>
+    <t>手动快门</t>
+  </si>
+  <si>
+    <t>方向</t>
+  </si>
+  <si>
+    <t>启停状态</t>
+  </si>
+  <si>
+    <t>AB点状态</t>
+  </si>
+  <si>
+    <t>广角模式</t>
   </si>
   <si>
     <t>delay time</t>
@@ -550,9 +564,6 @@
   </si>
   <si>
     <t>缓停速度</t>
-  </si>
-  <si>
-    <t>广角模式</t>
   </si>
   <si>
     <t>专业模式</t>
@@ -628,16 +639,28 @@
     <t>电量百分比1-100%</t>
   </si>
   <si>
+    <t>合影模式张数倒计</t>
+  </si>
+  <si>
     <t>张数 时间倒计</t>
   </si>
   <si>
+    <t>计数张数</t>
+  </si>
+  <si>
+    <t>目标张数</t>
+  </si>
+  <si>
+    <t>启动状态</t>
+  </si>
+  <si>
+    <t>多层全景模式倒计时</t>
+  </si>
+  <si>
     <t>张数低</t>
   </si>
   <si>
     <t>张数高</t>
-  </si>
-  <si>
-    <t>多层全景模式倒计时</t>
   </si>
   <si>
     <t>秒-低</t>
@@ -1488,7 +1511,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1505,6 +1528,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1512,18 +1538,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1584,9 +1607,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1596,28 +1616,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1703,6 +1723,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="00FFFF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1998,33 +2023,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N78"/>
+  <dimension ref="A1:N76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K53" sqref="K53"/>
+      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="6" width="21.8833333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.8833333333333" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.3833333333333" style="1" customWidth="1"/>
+    <col min="5" max="6" width="21.8796296296296" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.8796296296296" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.3796296296296" style="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.89166666666667" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.88888888888889" style="1" customWidth="1"/>
     <col min="11" max="13" width="9" style="1"/>
     <col min="14" max="14" width="28.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14.6333333333333" customWidth="1"/>
+    <col min="15" max="15" width="14.6296296296296" customWidth="1"/>
     <col min="16" max="16" width="13.75" customWidth="1"/>
-    <col min="17" max="17" width="12.8833333333333" customWidth="1"/>
+    <col min="17" max="17" width="12.8796296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:14">
+    <row r="1" ht="17.4" spans="1:14">
       <c r="A1" s="17"/>
       <c r="C1" s="18" t="s">
         <v>0</v>
@@ -2115,16 +2140,16 @@
       <c r="E3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="11" t="s">
         <v>21</v>
       </c>
       <c r="J3" s="2" t="s">
@@ -2136,23 +2161,23 @@
       <c r="L3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-    </row>
-    <row r="4" ht="27" spans="1:14">
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+    </row>
+    <row r="4" ht="28.8" spans="1:14">
       <c r="A4" s="21"/>
       <c r="B4" s="21"/>
       <c r="C4" s="2"/>
       <c r="D4" s="21"/>
       <c r="E4" s="22"/>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="21"/>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="33" t="s">
         <v>25</v>
       </c>
       <c r="J4" s="16">
@@ -2164,23 +2189,23 @@
       <c r="L4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-    </row>
-    <row r="5" ht="27" spans="1:14">
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+    </row>
+    <row r="5" ht="28.8" spans="1:14">
       <c r="A5" s="21"/>
       <c r="B5" s="21"/>
       <c r="C5" s="2"/>
       <c r="D5" s="21"/>
       <c r="E5" s="22"/>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="21"/>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="11" t="s">
         <v>27</v>
       </c>
       <c r="J5" s="2">
@@ -2192,23 +2217,23 @@
       <c r="L5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-    </row>
-    <row r="6" ht="27" spans="1:14">
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+    </row>
+    <row r="6" ht="28.8" spans="1:14">
       <c r="A6" s="21"/>
       <c r="B6" s="21"/>
       <c r="C6" s="2"/>
       <c r="D6" s="21"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="21"/>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="11" t="s">
         <v>27</v>
       </c>
       <c r="J6" s="2">
@@ -2220,23 +2245,23 @@
       <c r="L6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-    </row>
-    <row r="7" ht="27" spans="1:14">
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+    </row>
+    <row r="7" ht="28.8" spans="1:14">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
       <c r="C7" s="2"/>
       <c r="D7" s="21"/>
       <c r="E7" s="22"/>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="11" t="s">
         <v>30</v>
       </c>
       <c r="J7" s="2">
@@ -2248,23 +2273,23 @@
       <c r="L7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-    </row>
-    <row r="8" ht="27" spans="1:14">
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+    </row>
+    <row r="8" ht="28.8" spans="1:14">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
       <c r="C8" s="2"/>
       <c r="D8" s="21"/>
       <c r="E8" s="22"/>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="11" t="s">
         <v>32</v>
       </c>
       <c r="J8" s="2">
@@ -2276,23 +2301,23 @@
       <c r="L8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-    </row>
-    <row r="9" ht="27" spans="1:14">
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+    </row>
+    <row r="9" ht="28.8" spans="1:14">
       <c r="A9" s="21"/>
       <c r="B9" s="23"/>
       <c r="C9" s="2"/>
       <c r="D9" s="23"/>
       <c r="E9" s="24"/>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J9" s="2">
@@ -2304,8 +2329,8 @@
       <c r="L9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="21"/>
@@ -2319,7 +2344,7 @@
       <c r="E10" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="19" t="s">
@@ -2328,7 +2353,7 @@
       <c r="H10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="11" t="s">
         <v>38</v>
       </c>
       <c r="J10" s="2" t="s">
@@ -2340,8 +2365,8 @@
       <c r="L10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="21"/>
@@ -2349,14 +2374,14 @@
       <c r="C11" s="2"/>
       <c r="D11" s="21"/>
       <c r="E11" s="26"/>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="21"/>
       <c r="H11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="11" t="s">
         <v>38</v>
       </c>
       <c r="J11" s="2" t="s">
@@ -2368,8 +2393,8 @@
       <c r="L11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="21"/>
@@ -2377,14 +2402,14 @@
       <c r="C12" s="2"/>
       <c r="D12" s="21"/>
       <c r="E12" s="26"/>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G12" s="21"/>
       <c r="H12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="11" t="s">
         <v>38</v>
       </c>
       <c r="J12" s="2" t="s">
@@ -2396,23 +2421,23 @@
       <c r="L12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-    </row>
-    <row r="13" ht="27" spans="1:14">
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+    </row>
+    <row r="13" ht="28.8" spans="1:14">
       <c r="A13" s="21"/>
       <c r="B13" s="21"/>
       <c r="C13" s="2"/>
       <c r="D13" s="21"/>
       <c r="E13" s="26"/>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="21"/>
       <c r="H13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="11" t="s">
         <v>43</v>
       </c>
       <c r="J13" s="2">
@@ -2424,23 +2449,23 @@
       <c r="L13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-    </row>
-    <row r="14" ht="27" spans="1:14">
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+    </row>
+    <row r="14" ht="28.8" spans="1:14">
       <c r="A14" s="21"/>
       <c r="B14" s="21"/>
       <c r="C14" s="2"/>
       <c r="D14" s="21"/>
       <c r="E14" s="26"/>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="21"/>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="11" t="s">
         <v>45</v>
       </c>
       <c r="J14" s="2">
@@ -2452,23 +2477,23 @@
       <c r="L14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-    </row>
-    <row r="15" ht="27" spans="1:14">
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+    </row>
+    <row r="15" ht="28.8" spans="1:14">
       <c r="A15" s="21"/>
       <c r="B15" s="21"/>
       <c r="C15" s="2"/>
       <c r="D15" s="21"/>
       <c r="E15" s="26"/>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="11" t="s">
         <v>32</v>
       </c>
       <c r="J15" s="2">
@@ -2480,23 +2505,23 @@
       <c r="L15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-    </row>
-    <row r="16" ht="27" spans="1:14">
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+    </row>
+    <row r="16" ht="28.8" spans="1:14">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="2"/>
       <c r="D16" s="21"/>
       <c r="E16" s="26"/>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="21"/>
       <c r="H16" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="11" t="s">
         <v>30</v>
       </c>
       <c r="J16" s="2">
@@ -2508,8 +2533,8 @@
       <c r="L16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="21"/>
@@ -2517,12 +2542,12 @@
       <c r="C17" s="2"/>
       <c r="D17" s="23"/>
       <c r="E17" s="27"/>
-      <c r="F17" s="9"/>
+      <c r="F17" s="11"/>
       <c r="G17" s="23"/>
       <c r="H17" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="11" t="s">
         <v>21</v>
       </c>
       <c r="J17" s="2" t="s">
@@ -2534,8 +2559,8 @@
       <c r="L17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="21"/>
@@ -2543,17 +2568,17 @@
       <c r="C18" s="2"/>
       <c r="D18" s="23"/>
       <c r="E18" s="27"/>
-      <c r="F18" s="9"/>
+      <c r="F18" s="11"/>
       <c r="G18" s="23"/>
       <c r="H18" s="28"/>
-      <c r="I18" s="9"/>
+      <c r="I18" s="11"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-    </row>
-    <row r="19" ht="54" spans="1:14">
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+    </row>
+    <row r="19" ht="57.6" spans="1:14">
       <c r="A19" s="21"/>
       <c r="B19" s="2" t="s">
         <v>49</v>
@@ -2565,125 +2590,125 @@
       <c r="E19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="12" t="s">
+      <c r="F19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>50</v>
       </c>
       <c r="H19" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="I19" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="J19" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="K19" s="12">
-        <v>0</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-    </row>
-    <row r="20" ht="54" spans="1:14">
+      <c r="K19" s="6">
+        <v>0</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+    </row>
+    <row r="20" ht="57.6" spans="1:14">
       <c r="A20" s="21"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="12"/>
+      <c r="F20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="6"/>
       <c r="H20" s="30"/>
-      <c r="I20" s="11" t="s">
+      <c r="I20" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-    </row>
-    <row r="21" ht="54" spans="1:14">
+      <c r="K20" s="6"/>
+      <c r="L20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+    </row>
+    <row r="21" ht="57.6" spans="1:14">
       <c r="A21" s="21"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="12"/>
+      <c r="F21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="6"/>
       <c r="H21" s="30"/>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-    </row>
-    <row r="22" ht="81" spans="1:14">
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+    </row>
+    <row r="22" ht="86.4" spans="1:14">
       <c r="A22" s="21"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="12"/>
+      <c r="F22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="6"/>
       <c r="H22" s="31"/>
-      <c r="I22" s="11" t="s">
+      <c r="I22" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-    </row>
-    <row r="23" ht="54" spans="1:14">
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+    </row>
+    <row r="23" ht="57.6" spans="1:14">
       <c r="A23" s="21"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="11" t="s">
+      <c r="F23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="I23" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="J23" s="12">
-        <v>0</v>
-      </c>
-      <c r="K23" s="12">
-        <v>0</v>
-      </c>
-      <c r="L23" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
+      <c r="J23" s="6">
+        <v>0</v>
+      </c>
+      <c r="K23" s="6">
+        <v>0</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="21"/>
@@ -2691,47 +2716,47 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12" t="s">
+      <c r="F24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I24" s="12" t="s">
+      <c r="I24" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J24" s="12">
-        <v>0</v>
-      </c>
-      <c r="K24" s="12">
-        <v>0</v>
-      </c>
-      <c r="L24" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M24" s="49"/>
-      <c r="N24" s="50"/>
+      <c r="J24" s="6">
+        <v>0</v>
+      </c>
+      <c r="K24" s="6">
+        <v>0</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M24" s="48"/>
+      <c r="N24" s="49"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="32"/>
-      <c r="B25" s="33"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="9"/>
+      <c r="F25" s="11"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
       <c r="L25" s="4"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="50"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="49"/>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="2"/>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="34" t="s">
         <v>63</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -2764,12 +2789,12 @@
       <c r="L26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M26" s="49"/>
-      <c r="N26" s="50"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="49"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="2"/>
-      <c r="B27" s="36"/>
+      <c r="B27" s="35"/>
       <c r="C27" s="4" t="s">
         <v>69</v>
       </c>
@@ -2788,8 +2813,8 @@
       <c r="H27" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I27" s="4">
-        <v>0</v>
+      <c r="I27" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="J27" s="4">
         <v>0</v>
@@ -2800,12 +2825,12 @@
       <c r="L27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M27" s="49"/>
-      <c r="N27" s="50"/>
-    </row>
-    <row r="28" ht="27" spans="1:14">
+      <c r="M27" s="48"/>
+      <c r="N27" s="49"/>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="2"/>
-      <c r="B28" s="36"/>
+      <c r="B28" s="35"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
         <v>16</v>
@@ -2820,10 +2845,10 @@
         <v>65</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="J28" s="4">
         <v>0</v>
@@ -2834,12 +2859,12 @@
       <c r="L28" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M28" s="49"/>
-      <c r="N28" s="50"/>
-    </row>
-    <row r="29" ht="40.5" spans="1:14">
+      <c r="M28" s="48"/>
+      <c r="N28" s="49"/>
+    </row>
+    <row r="29" ht="28.8" spans="1:14">
       <c r="A29" s="2"/>
-      <c r="B29" s="36"/>
+      <c r="B29" s="35"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
         <v>16</v>
@@ -2854,13 +2879,13 @@
         <v>65</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J29" s="5">
+        <v>0</v>
       </c>
       <c r="K29" s="4">
         <v>0</v>
@@ -2868,12 +2893,12 @@
       <c r="L29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M29" s="49"/>
-      <c r="N29" s="50"/>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="M29" s="48"/>
+      <c r="N29" s="49"/>
+    </row>
+    <row r="30" ht="28.8" spans="1:14">
       <c r="A30" s="2"/>
-      <c r="B30" s="36"/>
+      <c r="B30" s="35"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
         <v>16</v>
@@ -2888,10 +2913,10 @@
         <v>65</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I30" s="5">
-        <v>0</v>
+        <v>75</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="J30" s="5">
         <v>0</v>
@@ -2900,12 +2925,12 @@
         <v>0</v>
       </c>
       <c r="L30" s="4"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="50"/>
-    </row>
-    <row r="31" ht="27" spans="1:14">
-      <c r="A31" s="2"/>
-      <c r="B31" s="37"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="49"/>
+    </row>
+    <row r="31" ht="28.8" spans="1:14">
+      <c r="A31" s="32"/>
+      <c r="B31" s="35"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
         <v>16</v>
@@ -2920,10 +2945,10 @@
         <v>65</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="J31" s="5">
         <v>0</v>
@@ -2931,1437 +2956,1366 @@
       <c r="K31" s="4">
         <v>0</v>
       </c>
-      <c r="L31" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M31" s="49"/>
-      <c r="N31" s="50"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="49"/>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="32"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I32" s="5">
-        <v>0</v>
-      </c>
-      <c r="J32" s="5">
-        <v>0</v>
-      </c>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="50"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="49"/>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="32"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I33" s="5">
-        <v>0</v>
-      </c>
-      <c r="J33" s="5">
-        <v>0</v>
-      </c>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="49"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="50"/>
       <c r="N33" s="50"/>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="32"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4" t="s">
+      <c r="B34" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="F34" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H34" s="4" t="s">
+      <c r="F34" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="I34" s="5">
-        <v>0</v>
-      </c>
-      <c r="J34" s="5"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="50"/>
+      <c r="H34" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="I34" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="J34" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="K34" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="L34" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="M34" s="48"/>
+      <c r="N34" s="49"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="38"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="51"/>
-      <c r="N35" s="51"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="J35" s="10">
+        <v>0</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M35" s="48"/>
+      <c r="N35" s="49"/>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="32"/>
-      <c r="B36" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12" t="s">
+      <c r="B36" s="38"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F36" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="I36" s="11" t="s">
+      <c r="F36" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="J36" s="10">
+        <v>0</v>
+      </c>
+      <c r="K36" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="J36" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="K36" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="L36" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M36" s="49"/>
-      <c r="N36" s="50"/>
+      <c r="L36" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M36" s="48"/>
+      <c r="N36" s="49"/>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="32"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12" t="s">
+      <c r="B37" s="38"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E37" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="H37" s="12" t="s">
+      <c r="F37" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H37" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="I37" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="J37" s="11">
-        <v>0</v>
-      </c>
-      <c r="K37" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="L37" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M37" s="49"/>
-      <c r="N37" s="50"/>
+      <c r="I37" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="J37" s="10">
+        <v>0</v>
+      </c>
+      <c r="K37" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M37" s="48"/>
+      <c r="N37" s="49"/>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="32"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12" t="s">
+      <c r="B38" s="38"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F38" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I38" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="J38" s="11">
-        <v>0</v>
-      </c>
-      <c r="K38" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="L38" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M38" s="49"/>
-      <c r="N38" s="50"/>
+      <c r="F38" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="J38" s="10">
+        <v>0</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M38" s="48"/>
+      <c r="N38" s="49"/>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="32"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12" t="s">
+      <c r="B39" s="38"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F39" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="H39" s="12" t="s">
+      <c r="F39" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J39" s="10">
+        <v>0</v>
+      </c>
+      <c r="K39" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="I39" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="J39" s="11">
-        <v>0</v>
-      </c>
-      <c r="K39" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="L39" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M39" s="49"/>
-      <c r="N39" s="50"/>
+      <c r="L39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M39" s="48"/>
+      <c r="N39" s="49"/>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="32"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12" t="s">
+      <c r="B40" s="38"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F40" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="H40" s="12" t="s">
+      <c r="F40" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H40" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="I40" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="J40" s="11">
-        <v>0</v>
-      </c>
-      <c r="K40" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="L40" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M40" s="49"/>
-      <c r="N40" s="50"/>
+      <c r="I40" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="J40" s="10">
+        <v>0</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M40" s="48"/>
+      <c r="N40" s="49"/>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="32"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12" t="s">
+      <c r="B41" s="38"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E41" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="I41" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="J41" s="11">
-        <v>0</v>
-      </c>
-      <c r="K41" s="11" t="s">
+      <c r="F41" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I41" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="L41" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M41" s="49"/>
-      <c r="N41" s="50"/>
+      <c r="J41" s="10">
+        <v>0</v>
+      </c>
+      <c r="K41" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M41" s="48"/>
+      <c r="N41" s="49"/>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="32"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12" t="s">
+      <c r="B42" s="38"/>
+      <c r="C42" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="E42" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F42" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="I42" s="11" t="s">
+      <c r="F42" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J42" s="10">
+        <v>0</v>
+      </c>
+      <c r="K42" s="10">
+        <v>0</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M42" s="48"/>
+      <c r="N42" s="49"/>
+    </row>
+    <row r="43" ht="28.8" spans="1:14">
+      <c r="A43" s="32"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="J42" s="11">
-        <v>0</v>
-      </c>
-      <c r="K42" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="L42" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M42" s="49"/>
-      <c r="N42" s="50"/>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="A43" s="32"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12" t="s">
+      <c r="D43" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="E43" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F43" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I43" s="11" t="s">
+      <c r="F43" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H43" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="J43" s="11">
-        <v>0</v>
-      </c>
-      <c r="K43" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="L43" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M43" s="49"/>
-      <c r="N43" s="50"/>
+      <c r="I43" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M43" s="48"/>
+      <c r="N43" s="49"/>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="32"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D44" s="12" t="s">
+      <c r="B44" s="38"/>
+      <c r="C44" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="E44" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F44" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="J44" s="11">
-        <v>0</v>
-      </c>
-      <c r="K44" s="11">
-        <v>0</v>
-      </c>
-      <c r="L44" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M44" s="49"/>
-      <c r="N44" s="50"/>
-    </row>
-    <row r="45" ht="27" spans="1:14">
+      <c r="F44" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J44" s="10">
+        <v>0</v>
+      </c>
+      <c r="K44" s="10">
+        <v>0</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M44" s="48"/>
+      <c r="N44" s="49"/>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" s="32"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D45" s="12" t="s">
+      <c r="B45" s="38"/>
+      <c r="C45" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E45" s="12" t="s">
+      <c r="E45" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F45" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="H45" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="I45" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="J45" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="K45" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="L45" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M45" s="49"/>
-      <c r="N45" s="50"/>
+      <c r="F45" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J45" s="10">
+        <v>0</v>
+      </c>
+      <c r="K45" s="10">
+        <v>0</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M45" s="48"/>
+      <c r="N45" s="49"/>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="32"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D46" s="12" t="s">
+      <c r="B46" s="38"/>
+      <c r="C46" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="12" t="s">
+      <c r="E46" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F46" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="H46" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="J46" s="11">
-        <v>0</v>
-      </c>
-      <c r="K46" s="11">
-        <v>0</v>
-      </c>
-      <c r="L46" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M46" s="49"/>
-      <c r="N46" s="50"/>
+      <c r="F46" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J46" s="10">
+        <v>0</v>
+      </c>
+      <c r="K46" s="10">
+        <v>0</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M46" s="48"/>
+      <c r="N46" s="49"/>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="32"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D47" s="12" t="s">
+      <c r="B47" s="38"/>
+      <c r="C47" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E47" s="12" t="s">
+      <c r="E47" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F47" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="H47" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="I47" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="J47" s="11">
-        <v>0</v>
-      </c>
-      <c r="K47" s="11">
-        <v>0</v>
-      </c>
-      <c r="L47" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M47" s="49"/>
-      <c r="N47" s="50"/>
+      <c r="F47" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J47" s="10">
+        <v>0</v>
+      </c>
+      <c r="K47" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M47" s="48"/>
+      <c r="N47" s="49"/>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="32"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D48" s="12" t="s">
+      <c r="B48" s="38"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E48" s="12" t="s">
+      <c r="E48" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F48" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="H48" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="I48" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="J48" s="11">
-        <v>0</v>
-      </c>
-      <c r="K48" s="11">
-        <v>0</v>
-      </c>
-      <c r="L48" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M48" s="49"/>
-      <c r="N48" s="50"/>
-    </row>
-    <row r="49" spans="1:14">
+      <c r="F48" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I48" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="J48" s="10">
+        <v>0</v>
+      </c>
+      <c r="K48" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M48" s="48"/>
+      <c r="N48" s="49"/>
+    </row>
+    <row r="49" customFormat="1" ht="57.6" spans="1:14">
       <c r="A49" s="32"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D49" s="12" t="s">
+      <c r="B49" s="38"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="E49" s="12" t="s">
+      <c r="E49" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F49" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="I49" s="11" t="s">
+      <c r="F49" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="H49" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="J49" s="11">
-        <v>0</v>
-      </c>
-      <c r="K49" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="L49" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M49" s="49"/>
-      <c r="N49" s="50"/>
-    </row>
-    <row r="50" spans="1:14">
+      <c r="I49" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J49" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K49" s="10">
+        <v>0</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M49" s="48"/>
+      <c r="N49" s="49"/>
+    </row>
+    <row r="50" customFormat="1" ht="57.6" spans="1:14">
       <c r="A50" s="32"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12" t="s">
+      <c r="B50" s="41"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="K50" s="10">
+        <v>0</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M50" s="48"/>
+      <c r="N50" s="49"/>
+    </row>
+    <row r="51" customFormat="1" ht="28.8" spans="1:14">
+      <c r="A51" s="32"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="12" t="s">
+      <c r="E51" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F50" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="H50" s="12" t="s">
+      <c r="F51" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H51" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="I50" s="52" t="s">
+      <c r="I51" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="J50" s="11">
-        <v>0</v>
-      </c>
-      <c r="K50" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="L50" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M50" s="49"/>
-      <c r="N50" s="50"/>
-    </row>
-    <row r="51" customFormat="1" ht="54" spans="1:14">
-      <c r="A51" s="32"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="40" t="s">
+      <c r="J51" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M51" s="48"/>
+      <c r="N51" s="49"/>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="32"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="48"/>
+      <c r="N52" s="49"/>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="32"/>
+      <c r="B53" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E51" s="29" t="s">
+      <c r="E53" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F51" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="H51" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="I51" s="11" t="s">
+      <c r="F53" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="48"/>
+      <c r="N53" s="49"/>
+    </row>
+    <row r="54" ht="57.6" spans="1:14">
+      <c r="A54" s="32"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="H54" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="I54" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="J51" s="11" t="s">
+      <c r="J54" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="K51" s="11">
-        <v>0</v>
-      </c>
-      <c r="L51" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M51" s="49"/>
-      <c r="N51" s="50"/>
-    </row>
-    <row r="52" customFormat="1" ht="54" spans="1:14">
-      <c r="A52" s="32"/>
-      <c r="B52" s="41"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="11" t="s">
+      <c r="K54" s="10">
+        <v>0</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M54" s="48"/>
+      <c r="N54" s="49"/>
+    </row>
+    <row r="55" ht="57.6" spans="1:14">
+      <c r="A55" s="32"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="J52" s="11" t="s">
+      <c r="J55" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="K52" s="11">
-        <v>0</v>
-      </c>
-      <c r="L52" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M52" s="49"/>
-      <c r="N52" s="50"/>
-    </row>
-    <row r="53" customFormat="1" ht="27" spans="1:14">
-      <c r="A53" s="32"/>
-      <c r="B53" s="41"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12" t="s">
+      <c r="K55" s="10">
+        <v>0</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M55" s="48"/>
+      <c r="N55" s="49"/>
+    </row>
+    <row r="56" ht="57.6" spans="1:14">
+      <c r="A56" s="32"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="K56" s="10">
+        <v>0</v>
+      </c>
+      <c r="L56" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M56" s="48"/>
+      <c r="N56" s="49"/>
+    </row>
+    <row r="57" ht="86.4" spans="1:14">
+      <c r="A57" s="32"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J57" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K57" s="10">
+        <v>0</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M57" s="48"/>
+      <c r="N57" s="49"/>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="32"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="48"/>
+      <c r="N58" s="49"/>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E53" s="12" t="s">
+      <c r="E59" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" s="6">
+        <v>0</v>
+      </c>
+      <c r="I59" s="6">
+        <v>0</v>
+      </c>
+      <c r="J59" s="6">
+        <v>0</v>
+      </c>
+      <c r="K59" s="6">
+        <v>0</v>
+      </c>
+      <c r="L59" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M59" s="4"/>
+      <c r="N59" s="11"/>
+    </row>
+    <row r="60" ht="28.8" spans="1:14">
+      <c r="A60" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="B60" s="45"/>
+      <c r="C60" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G60" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H60" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="I60" s="33">
+        <v>0</v>
+      </c>
+      <c r="J60" s="33">
+        <v>0</v>
+      </c>
+      <c r="K60" s="33">
+        <v>0</v>
+      </c>
+      <c r="L60" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M60" s="33"/>
+      <c r="N60" s="11"/>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="13"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="2"/>
+    </row>
+    <row r="62" ht="48" customHeight="1" spans="1:14">
+      <c r="A62" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="B62" s="47"/>
+      <c r="C62" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H62" s="6">
+        <v>0</v>
+      </c>
+      <c r="I62" s="6">
+        <v>0</v>
+      </c>
+      <c r="J62" s="6">
+        <v>0</v>
+      </c>
+      <c r="K62" s="6">
+        <v>0</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M62" s="4"/>
+      <c r="N62" s="52"/>
+    </row>
+    <row r="63" ht="28" customHeight="1" spans="1:14">
+      <c r="A63" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="B63" s="47"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H63" s="6">
+        <v>0</v>
+      </c>
+      <c r="I63" s="6">
+        <v>0</v>
+      </c>
+      <c r="J63" s="6">
+        <v>0</v>
+      </c>
+      <c r="K63" s="6">
+        <v>0</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M63" s="4"/>
+      <c r="N63" s="52"/>
+    </row>
+    <row r="64" customFormat="1" ht="28" customHeight="1" spans="1:14">
+      <c r="A64" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="B64" s="47"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H64" s="6">
+        <v>0</v>
+      </c>
+      <c r="I64" s="6">
+        <v>0</v>
+      </c>
+      <c r="J64" s="6">
+        <v>0</v>
+      </c>
+      <c r="K64" s="6">
+        <v>0</v>
+      </c>
+      <c r="L64" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M64" s="4"/>
+      <c r="N64" s="52"/>
+    </row>
+    <row r="65" customFormat="1" ht="28" customHeight="1" spans="1:14">
+      <c r="A65" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="B65" s="47"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="52"/>
+    </row>
+    <row r="66" customFormat="1" ht="28" customHeight="1" spans="1:14">
+      <c r="A66" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="B66" s="47"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="52"/>
+    </row>
+    <row r="67" customFormat="1" ht="28" customHeight="1" spans="1:14">
+      <c r="A67" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="B67" s="47"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="52"/>
+    </row>
+    <row r="68" customFormat="1" ht="28" customHeight="1" spans="1:14">
+      <c r="A68" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="B68" s="47"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="52"/>
+    </row>
+    <row r="69" customFormat="1" ht="28" customHeight="1" spans="1:14">
+      <c r="A69" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="B69" s="47"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="52"/>
+    </row>
+    <row r="70" customFormat="1" ht="28" customHeight="1" spans="1:14">
+      <c r="A70" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="B70" s="47"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="52"/>
+    </row>
+    <row r="71" customFormat="1" ht="28" customHeight="1" spans="1:14">
+      <c r="A71" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="B71" s="47"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="52"/>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B72" s="33"/>
+      <c r="C72" s="33"/>
+      <c r="D72" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E72" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="F72" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G72" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="H53" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="I53" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="J53" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="K53" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="L53" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M53" s="49"/>
-      <c r="N53" s="50"/>
-    </row>
-    <row r="54" spans="1:14">
-      <c r="A54" s="32"/>
-      <c r="B54" s="37"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="49"/>
-      <c r="N54" s="50"/>
-    </row>
-    <row r="55" spans="1:14">
-      <c r="A55" s="32"/>
-      <c r="B55" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12" t="s">
+      <c r="H72" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I72" s="33">
+        <v>0</v>
+      </c>
+      <c r="J72" s="33">
+        <v>0</v>
+      </c>
+      <c r="K72" s="33">
+        <v>0</v>
+      </c>
+      <c r="L72" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="M72" s="33"/>
+      <c r="N72" s="2"/>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="B73" s="33"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E55" s="12" t="s">
+      <c r="E73" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="F73" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G73" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="F55" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="H55" s="12" t="s">
+      <c r="H73" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I73" s="33"/>
+      <c r="J73" s="33"/>
+      <c r="K73" s="33"/>
+      <c r="L73" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="M73" s="33"/>
+      <c r="N73" s="2"/>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="B74" s="33"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E74" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F74" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G74" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H74" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I74" s="33"/>
+      <c r="J74" s="33"/>
+      <c r="K74" s="33"/>
+      <c r="L74" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="M74" s="33"/>
+      <c r="N74" s="2"/>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E75" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="F75" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G75" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I75" s="33"/>
+      <c r="J75" s="33"/>
+      <c r="K75" s="33"/>
+      <c r="L75" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D76" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="E76" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="F76" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="G76" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="I55" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="49"/>
-      <c r="N55" s="50"/>
-    </row>
-    <row r="56" ht="54" spans="1:14">
-      <c r="A56" s="32"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="E56" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="F56" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="H56" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="I56" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="J56" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="K56" s="11">
-        <v>0</v>
-      </c>
-      <c r="L56" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M56" s="49"/>
-      <c r="N56" s="50"/>
-    </row>
-    <row r="57" ht="54" spans="1:14">
-      <c r="A57" s="32"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="43"/>
-      <c r="I57" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="J57" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="K57" s="11">
-        <v>0</v>
-      </c>
-      <c r="L57" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M57" s="49"/>
-      <c r="N57" s="50"/>
-    </row>
-    <row r="58" ht="54" spans="1:14">
-      <c r="A58" s="32"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="43"/>
-      <c r="E58" s="43"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="43"/>
-      <c r="H58" s="43"/>
-      <c r="I58" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="J58" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K58" s="11">
-        <v>0</v>
-      </c>
-      <c r="L58" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M58" s="49"/>
-      <c r="N58" s="50"/>
-    </row>
-    <row r="59" ht="81" spans="1:14">
-      <c r="A59" s="32"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="42"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="42"/>
-      <c r="I59" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="J59" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K59" s="11">
-        <v>0</v>
-      </c>
-      <c r="L59" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M59" s="49"/>
-      <c r="N59" s="50"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="A60" s="32"/>
-      <c r="B60" s="33"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="34"/>
-      <c r="J60" s="34"/>
-      <c r="K60" s="34"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="49"/>
-      <c r="N60" s="50"/>
-    </row>
-    <row r="61" spans="1:14">
-      <c r="A61" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="B61" s="33"/>
-      <c r="C61" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H61" s="12">
-        <v>0</v>
-      </c>
-      <c r="I61" s="12">
-        <v>0</v>
-      </c>
-      <c r="J61" s="12">
-        <v>0</v>
-      </c>
-      <c r="K61" s="12">
-        <v>0</v>
-      </c>
-      <c r="L61" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M61" s="4"/>
-      <c r="N61" s="9"/>
-    </row>
-    <row r="62" ht="27" spans="1:14">
-      <c r="A62" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="B62" s="46"/>
-      <c r="C62" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="E62" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="H62" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="I62" s="34">
-        <v>0</v>
-      </c>
-      <c r="J62" s="34">
-        <v>0</v>
-      </c>
-      <c r="K62" s="34">
-        <v>0</v>
-      </c>
-      <c r="L62" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M62" s="34"/>
-      <c r="N62" s="9"/>
-    </row>
-    <row r="63" spans="1:14">
-      <c r="A63" s="44"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="10"/>
-      <c r="K63" s="10"/>
-      <c r="L63" s="10"/>
-      <c r="M63" s="33"/>
-      <c r="N63" s="2"/>
-    </row>
-    <row r="64" ht="48" customHeight="1" spans="1:14">
-      <c r="A64" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="B64" s="48"/>
-      <c r="C64" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E64" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F64" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H64" s="12">
-        <v>0</v>
-      </c>
-      <c r="I64" s="12">
-        <v>0</v>
-      </c>
-      <c r="J64" s="12">
-        <v>0</v>
-      </c>
-      <c r="K64" s="12">
-        <v>0</v>
-      </c>
-      <c r="L64" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M64" s="4"/>
-      <c r="N64" s="53"/>
-    </row>
-    <row r="65" ht="28" customHeight="1" spans="1:14">
-      <c r="A65" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="B65" s="48"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E65" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F65" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H65" s="12">
-        <v>0</v>
-      </c>
-      <c r="I65" s="12">
-        <v>0</v>
-      </c>
-      <c r="J65" s="12">
-        <v>0</v>
-      </c>
-      <c r="K65" s="12">
-        <v>0</v>
-      </c>
-      <c r="L65" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M65" s="4"/>
-      <c r="N65" s="53"/>
-    </row>
-    <row r="66" customFormat="1" ht="28" customHeight="1" spans="1:14">
-      <c r="A66" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="B66" s="48"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F66" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H66" s="12">
-        <v>0</v>
-      </c>
-      <c r="I66" s="12">
-        <v>0</v>
-      </c>
-      <c r="J66" s="12">
-        <v>0</v>
-      </c>
-      <c r="K66" s="12">
-        <v>0</v>
-      </c>
-      <c r="L66" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M66" s="4"/>
-      <c r="N66" s="53"/>
-    </row>
-    <row r="67" customFormat="1" ht="28" customHeight="1" spans="1:14">
-      <c r="A67" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="B67" s="48"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E67" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F67" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H67" s="12"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="12"/>
-      <c r="L67" s="12"/>
-      <c r="M67" s="4"/>
-      <c r="N67" s="53"/>
-    </row>
-    <row r="68" customFormat="1" ht="28" customHeight="1" spans="1:14">
-      <c r="A68" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="B68" s="48"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F68" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
-      <c r="L68" s="12"/>
-      <c r="M68" s="4"/>
-      <c r="N68" s="53"/>
-    </row>
-    <row r="69" customFormat="1" ht="28" customHeight="1" spans="1:14">
-      <c r="A69" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="B69" s="48"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F69" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="12"/>
-      <c r="L69" s="12"/>
-      <c r="M69" s="4"/>
-      <c r="N69" s="53"/>
-    </row>
-    <row r="70" customFormat="1" ht="28" customHeight="1" spans="1:14">
-      <c r="A70" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="B70" s="48"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E70" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F70" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="12"/>
-      <c r="L70" s="12"/>
-      <c r="M70" s="4"/>
-      <c r="N70" s="53"/>
-    </row>
-    <row r="71" customFormat="1" ht="28" customHeight="1" spans="1:14">
-      <c r="A71" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="B71" s="48"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E71" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F71" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="12"/>
-      <c r="L71" s="12"/>
-      <c r="M71" s="4"/>
-      <c r="N71" s="53"/>
-    </row>
-    <row r="72" customFormat="1" ht="28" customHeight="1" spans="1:14">
-      <c r="A72" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="B72" s="48"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E72" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F72" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="12"/>
-      <c r="L72" s="12"/>
-      <c r="M72" s="4"/>
-      <c r="N72" s="53"/>
-    </row>
-    <row r="73" customFormat="1" ht="28" customHeight="1" spans="1:14">
-      <c r="A73" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="B73" s="48"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E73" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F73" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="H73" s="12"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="12"/>
-      <c r="L73" s="12"/>
-      <c r="M73" s="4"/>
-      <c r="N73" s="53"/>
-    </row>
-    <row r="74" spans="1:14">
-      <c r="A74" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="B74" s="34"/>
-      <c r="C74" s="34"/>
-      <c r="D74" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="E74" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="F74" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="H74" s="34" t="s">
+      <c r="H76" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="I74" s="34">
-        <v>0</v>
-      </c>
-      <c r="J74" s="34">
-        <v>0</v>
-      </c>
-      <c r="K74" s="34">
-        <v>0</v>
-      </c>
-      <c r="L74" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="M74" s="34"/>
-      <c r="N74" s="2"/>
-    </row>
-    <row r="75" spans="1:14">
-      <c r="A75" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="B75" s="34"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="E75" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="F75" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="H75" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="I75" s="34"/>
-      <c r="J75" s="34"/>
-      <c r="K75" s="34"/>
-      <c r="L75" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="M75" s="34"/>
-      <c r="N75" s="2"/>
-    </row>
-    <row r="76" spans="1:14">
-      <c r="A76" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="B76" s="34"/>
-      <c r="C76" s="34"/>
-      <c r="D76" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="E76" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F76" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="H76" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="I76" s="34"/>
-      <c r="J76" s="34"/>
-      <c r="K76" s="34"/>
-      <c r="L76" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="M76" s="34"/>
-      <c r="N76" s="2"/>
-    </row>
-    <row r="77" spans="1:12">
-      <c r="A77" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="E77" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="F77" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="H77" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="I77" s="34"/>
-      <c r="J77" s="34"/>
-      <c r="K77" s="34"/>
-      <c r="L77" s="34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
-      <c r="A78" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D78" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="E78" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="F78" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G78" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="H78" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="I78" s="54"/>
-      <c r="J78" s="54"/>
-      <c r="K78" s="54"/>
-      <c r="L78" s="54"/>
+      <c r="I76" s="53"/>
+      <c r="J76" s="53"/>
+      <c r="K76" s="53"/>
+      <c r="L76" s="53"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="A61:B61"/>
+  <mergeCells count="48">
+    <mergeCell ref="A33:L33"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:M61"/>
     <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:M63"/>
+    <mergeCell ref="A63:B63"/>
     <mergeCell ref="A64:B64"/>
     <mergeCell ref="A65:B65"/>
     <mergeCell ref="A66:B66"/>
@@ -4375,37 +4329,35 @@
     <mergeCell ref="A74:B74"/>
     <mergeCell ref="A75:B75"/>
     <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
     <mergeCell ref="A3:A24"/>
     <mergeCell ref="B3:B9"/>
     <mergeCell ref="B10:B17"/>
     <mergeCell ref="B19:B24"/>
     <mergeCell ref="B26:B31"/>
-    <mergeCell ref="B36:B52"/>
-    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="B34:B50"/>
+    <mergeCell ref="B53:B57"/>
     <mergeCell ref="C3:C24"/>
-    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="C62:C64"/>
     <mergeCell ref="D3:D9"/>
     <mergeCell ref="D10:D17"/>
     <mergeCell ref="D19:D24"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D54:D57"/>
     <mergeCell ref="E3:E9"/>
     <mergeCell ref="E10:E17"/>
     <mergeCell ref="E19:E24"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="E56:E59"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="F56:F59"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="F54:F57"/>
     <mergeCell ref="G3:G9"/>
     <mergeCell ref="G10:G17"/>
     <mergeCell ref="G19:G24"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G56:G59"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G54:G57"/>
     <mergeCell ref="H19:H22"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="H56:H59"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="H54:H57"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4421,19 +4373,19 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="17.25" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="13.625" customWidth="1"/>
+    <col min="5" max="5" width="13.6296296296296" customWidth="1"/>
     <col min="6" max="7" width="17.5" customWidth="1"/>
-    <col min="8" max="8" width="9.775" customWidth="1"/>
+    <col min="8" max="8" width="10.8796296296296" customWidth="1"/>
     <col min="9" max="9" width="17.5" customWidth="1"/>
-    <col min="14" max="14" width="10.225" customWidth="1"/>
+    <col min="14" max="14" width="10.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -4507,22 +4459,22 @@
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>12</v>
@@ -4534,10 +4486,10 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="67.5" spans="1:18">
+    <row r="3" s="1" customFormat="1" ht="72" spans="1:18">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>18</v>
@@ -4546,34 +4498,34 @@
         <v>17</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="J3" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="M3" s="5">
-        <v>0</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>12</v>
@@ -4582,10 +4534,10 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="67.5" spans="1:18">
+    <row r="4" s="1" customFormat="1" ht="72" spans="1:18">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>18</v>
@@ -4594,37 +4546,37 @@
         <v>17</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="J4" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="M4" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="N4" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="K4" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>161</v>
-      </c>
       <c r="O4" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P4" s="16" t="s">
         <v>12</v>
@@ -4635,7 +4587,7 @@
     <row r="5" spans="1:18">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>18</v>
@@ -4644,7 +4596,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>50</v>
@@ -4667,7 +4619,7 @@
     <row r="6" spans="1:18">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>18</v>
@@ -4676,10 +4628,10 @@
         <v>17</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>12</v>
@@ -4698,46 +4650,46 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="4"/>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="K7" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="L7" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="J7" s="4" t="s">
+      <c r="M7" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="L7" s="4" t="s">
+      <c r="N7" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="O7" s="2" t="s">
+      <c r="O7" s="6" t="s">
         <v>12</v>
       </c>
       <c r="P7" s="2"/>
@@ -4747,7 +4699,7 @@
     <row r="8" spans="1:18">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>18</v>
@@ -4756,34 +4708,34 @@
         <v>17</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>12</v>
@@ -4792,10 +4744,10 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" ht="27" spans="1:20">
+    <row r="9" ht="28.8" spans="1:20">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>18</v>
@@ -4804,58 +4756,58 @@
         <v>17</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="J9" s="5">
         <v>0</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="N9" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="O9" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="O9" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="P9" s="11" t="s">
-        <v>94</v>
+      <c r="P9" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="T9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="10" ht="27" spans="1:18">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" ht="28.8" spans="1:18">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>18</v>
@@ -4864,22 +4816,22 @@
         <v>17</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>48</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -4893,7 +4845,7 @@
     <row r="11" spans="1:18">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>18</v>
@@ -4902,13 +4854,13 @@
         <v>17</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -4942,11 +4894,11 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
     </row>
-    <row r="13" ht="27" spans="1:18">
-      <c r="A13" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B13" s="7"/>
+    <row r="13" ht="28.8" spans="1:18">
+      <c r="A13" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B13" s="8"/>
       <c r="C13" s="4" t="s">
         <v>18</v>
       </c>
@@ -4954,16 +4906,16 @@
         <v>19</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>36</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>12</v>
@@ -4981,7 +4933,7 @@
     <row r="14" spans="1:18">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>18</v>
@@ -4990,13 +4942,13 @@
         <v>19</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>12</v>
@@ -5020,7 +4972,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>12</v>
@@ -5039,7 +4991,7 @@
     <row r="16" spans="1:18">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>18</v>
@@ -5048,13 +5000,13 @@
         <v>36</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>12</v>
@@ -5073,7 +5025,7 @@
     <row r="17" spans="1:18">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>18</v>
@@ -5082,19 +5034,19 @@
         <v>50</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>192</v>
+        <v>195</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>196</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>12</v>
@@ -5108,85 +5060,89 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
     </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M18" s="4"/>
+    <row r="18" ht="28.8" spans="1:18">
+      <c r="A18" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="N18" s="4"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" ht="28.8" spans="1:18">
       <c r="A19" s="4"/>
-      <c r="B19" s="4" t="s">
-        <v>197</v>
+      <c r="B19" s="5" t="s">
+        <v>203</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="G19" s="4" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="N19" s="4" t="s">
         <v>12</v>
@@ -5196,25 +5152,25 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
     </row>
-    <row r="20" ht="27" spans="1:18">
+    <row r="20" ht="28.8" spans="1:18">
       <c r="A20" s="4"/>
-      <c r="B20" s="4" t="s">
-        <v>202</v>
+      <c r="B20" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>12</v>
@@ -5233,28 +5189,28 @@
     <row r="21" spans="1:18">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>12</v>
@@ -5269,36 +5225,36 @@
       <c r="R21" s="2"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="B22" s="7"/>
+      <c r="A22" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B22" s="8"/>
       <c r="C22" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>12</v>
@@ -5310,10 +5266,10 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
     </row>
-    <row r="23" ht="40.5" spans="1:18">
+    <row r="23" ht="43.2" spans="1:18">
       <c r="A23" s="2"/>
-      <c r="B23" s="9" t="s">
-        <v>207</v>
+      <c r="B23" s="11" t="s">
+        <v>215</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>18</v>
@@ -5322,22 +5278,22 @@
         <v>48</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>210</v>
+        <v>216</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>218</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>12</v>
@@ -5370,22 +5326,22 @@
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
     </row>
-    <row r="25" ht="40.5" spans="1:18">
+    <row r="25" ht="43.2" spans="1:18">
       <c r="A25" s="2"/>
-      <c r="B25" s="10" t="s">
-        <v>211</v>
+      <c r="B25" s="12" t="s">
+        <v>219</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="9" t="s">
-        <v>212</v>
+      <c r="F25" s="11" t="s">
+        <v>220</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>12</v>
@@ -5402,24 +5358,24 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
     </row>
-    <row r="26" ht="40.5" spans="1:18">
+    <row r="26" ht="43.2" spans="1:18">
       <c r="A26" s="2"/>
-      <c r="B26" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="G26" s="12" t="s">
+      <c r="B26" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H26" s="2"/>
@@ -5437,25 +5393,25 @@
     <row r="27" spans="1:18">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>12</v>
@@ -5470,19 +5426,19 @@
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
     </row>
-    <row r="28" ht="94.5" spans="1:18">
+    <row r="28" ht="100.8" spans="1:18">
       <c r="A28" s="13" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>218</v>
+        <v>101</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>226</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>12</v>

--- a/LG-06 Protocol V1.0.xlsx
+++ b/LG-06 Protocol V1.0.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="230">
   <si>
     <t>byte:</t>
   </si>
@@ -272,6 +272,13 @@
     <t>0x06 启停</t>
   </si>
   <si>
+    <t>0x07横竖拍</t>
+  </si>
+  <si>
+    <t>0xff:竖拍
+0:横拍</t>
+  </si>
+  <si>
     <t>多层全景模式</t>
   </si>
   <si>
@@ -546,6 +553,9 @@
   </si>
   <si>
     <t>AB点状态</t>
+  </si>
+  <si>
+    <t>横竖拍</t>
   </si>
   <si>
     <t>广角模式</t>
@@ -1128,7 +1138,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1231,17 +1241,6 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1387,7 +1386,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1399,34 +1398,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1511,7 +1510,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1610,33 +1609,27 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1656,6 +1649,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2026,9 +2022,9 @@
   <dimension ref="A1:N76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
+      <selection pane="bottomLeft" activeCell="H32" sqref="B26:L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2735,8 +2731,8 @@
       <c r="L24" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M24" s="48"/>
-      <c r="N24" s="49"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="47"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="32"/>
@@ -2751,8 +2747,8 @@
       <c r="J25" s="33"/>
       <c r="K25" s="33"/>
       <c r="L25" s="4"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="49"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="47"/>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="2"/>
@@ -2789,12 +2785,12 @@
       <c r="L26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M26" s="48"/>
-      <c r="N26" s="49"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="47"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="2"/>
-      <c r="B27" s="35"/>
+      <c r="B27" s="34"/>
       <c r="C27" s="4" t="s">
         <v>69</v>
       </c>
@@ -2825,12 +2821,12 @@
       <c r="L27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M27" s="48"/>
-      <c r="N27" s="49"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="47"/>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="2"/>
-      <c r="B28" s="35"/>
+      <c r="B28" s="34"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
         <v>16</v>
@@ -2859,12 +2855,12 @@
       <c r="L28" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M28" s="48"/>
-      <c r="N28" s="49"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="47"/>
     </row>
     <row r="29" ht="28.8" spans="1:14">
       <c r="A29" s="2"/>
-      <c r="B29" s="35"/>
+      <c r="B29" s="34"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
         <v>16</v>
@@ -2893,12 +2889,12 @@
       <c r="L29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M29" s="48"/>
-      <c r="N29" s="49"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="47"/>
     </row>
     <row r="30" ht="28.8" spans="1:14">
       <c r="A30" s="2"/>
-      <c r="B30" s="35"/>
+      <c r="B30" s="34"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
         <v>16</v>
@@ -2924,13 +2920,15 @@
       <c r="K30" s="4">
         <v>0</v>
       </c>
-      <c r="L30" s="4"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="49"/>
+      <c r="L30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M30" s="46"/>
+      <c r="N30" s="47"/>
     </row>
     <row r="31" ht="28.8" spans="1:14">
-      <c r="A31" s="32"/>
-      <c r="B31" s="35"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="34"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
         <v>16</v>
@@ -2956,28 +2954,48 @@
       <c r="K31" s="4">
         <v>0</v>
       </c>
-      <c r="L31" s="4"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="49"/>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="32"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="49"/>
+      <c r="L31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M31" s="46"/>
+      <c r="N31" s="47"/>
+    </row>
+    <row r="32" ht="28.8" spans="1:14">
+      <c r="A32" s="2"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J32" s="5">
+        <v>0</v>
+      </c>
+      <c r="K32" s="4">
+        <v>0</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M32" s="46"/>
+      <c r="N32" s="47"/>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="37"/>
+      <c r="A33" s="35"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
@@ -2988,49 +3006,49 @@
       <c r="I33" s="15"/>
       <c r="J33" s="15"/>
       <c r="K33" s="15"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="50"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="32"/>
-      <c r="B34" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39" t="s">
+      <c r="B34" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="39" t="s">
+      <c r="E34" s="37" t="s">
         <v>17</v>
       </c>
       <c r="F34" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="H34" s="39" t="s">
-        <v>79</v>
+      <c r="G34" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="H34" s="37" t="s">
+        <v>81</v>
       </c>
       <c r="I34" s="31" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J34" s="31" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K34" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="L34" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="M34" s="48"/>
-      <c r="N34" s="49"/>
+        <v>84</v>
+      </c>
+      <c r="L34" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="M34" s="46"/>
+      <c r="N34" s="47"/>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="32"/>
-      <c r="B35" s="38"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6" t="s">
         <v>16</v>
@@ -3042,10 +3060,10 @@
         <v>18</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>73</v>
@@ -3054,17 +3072,17 @@
         <v>0</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L35" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M35" s="48"/>
-      <c r="N35" s="49"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="47"/>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="32"/>
-      <c r="B36" s="38"/>
+      <c r="B36" s="36"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6" t="s">
         <v>16</v>
@@ -3076,29 +3094,29 @@
         <v>18</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>50</v>
       </c>
       <c r="I36" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="J36" s="10">
+        <v>0</v>
+      </c>
+      <c r="K36" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="J36" s="10">
-        <v>0</v>
-      </c>
-      <c r="K36" s="10" t="s">
-        <v>82</v>
-      </c>
       <c r="L36" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M36" s="48"/>
-      <c r="N36" s="49"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="47"/>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="32"/>
-      <c r="B37" s="38"/>
+      <c r="B37" s="36"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6" t="s">
         <v>16</v>
@@ -3110,10 +3128,10 @@
         <v>18</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I37" s="10" t="s">
         <v>73</v>
@@ -3122,17 +3140,17 @@
         <v>0</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L37" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M37" s="48"/>
-      <c r="N37" s="49"/>
+      <c r="M37" s="46"/>
+      <c r="N37" s="47"/>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="32"/>
-      <c r="B38" s="38"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6" t="s">
         <v>16</v>
@@ -3144,10 +3162,10 @@
         <v>18</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>73</v>
@@ -3156,17 +3174,17 @@
         <v>0</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L38" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M38" s="48"/>
-      <c r="N38" s="49"/>
+      <c r="M38" s="46"/>
+      <c r="N38" s="47"/>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="32"/>
-      <c r="B39" s="38"/>
+      <c r="B39" s="36"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6" t="s">
         <v>16</v>
@@ -3178,29 +3196,29 @@
         <v>18</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J39" s="10">
         <v>0</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L39" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M39" s="48"/>
-      <c r="N39" s="49"/>
+      <c r="M39" s="46"/>
+      <c r="N39" s="47"/>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="32"/>
-      <c r="B40" s="38"/>
+      <c r="B40" s="36"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6" t="s">
         <v>16</v>
@@ -3212,29 +3230,29 @@
         <v>18</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I40" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="J40" s="10">
+        <v>0</v>
+      </c>
+      <c r="K40" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="J40" s="10">
-        <v>0</v>
-      </c>
-      <c r="K40" s="10" t="s">
-        <v>88</v>
-      </c>
       <c r="L40" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M40" s="48"/>
-      <c r="N40" s="49"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="47"/>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="32"/>
-      <c r="B41" s="38"/>
+      <c r="B41" s="36"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6" t="s">
         <v>16</v>
@@ -3246,31 +3264,31 @@
         <v>18</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>48</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J41" s="10">
         <v>0</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L41" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M41" s="48"/>
-      <c r="N41" s="49"/>
+      <c r="M41" s="46"/>
+      <c r="N41" s="47"/>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="32"/>
-      <c r="B42" s="38"/>
+      <c r="B42" s="36"/>
       <c r="C42" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>16</v>
@@ -3282,13 +3300,13 @@
         <v>18</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J42" s="10">
         <v>0</v>
@@ -3299,14 +3317,14 @@
       <c r="L42" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M42" s="48"/>
-      <c r="N42" s="49"/>
+      <c r="M42" s="46"/>
+      <c r="N42" s="47"/>
     </row>
     <row r="43" ht="28.8" spans="1:14">
       <c r="A43" s="32"/>
-      <c r="B43" s="38"/>
+      <c r="B43" s="36"/>
       <c r="C43" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>16</v>
@@ -3318,31 +3336,31 @@
         <v>18</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L43" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M43" s="48"/>
-      <c r="N43" s="49"/>
+      <c r="M43" s="46"/>
+      <c r="N43" s="47"/>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="32"/>
-      <c r="B44" s="38"/>
+      <c r="B44" s="36"/>
       <c r="C44" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>16</v>
@@ -3354,13 +3372,13 @@
         <v>18</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J44" s="10">
         <v>0</v>
@@ -3371,14 +3389,14 @@
       <c r="L44" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M44" s="48"/>
-      <c r="N44" s="49"/>
+      <c r="M44" s="46"/>
+      <c r="N44" s="47"/>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="32"/>
-      <c r="B45" s="38"/>
+      <c r="B45" s="36"/>
       <c r="C45" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>16</v>
@@ -3390,13 +3408,13 @@
         <v>18</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J45" s="10">
         <v>0</v>
@@ -3407,14 +3425,14 @@
       <c r="L45" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M45" s="48"/>
-      <c r="N45" s="49"/>
+      <c r="M45" s="46"/>
+      <c r="N45" s="47"/>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="32"/>
-      <c r="B46" s="38"/>
+      <c r="B46" s="36"/>
       <c r="C46" s="6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>16</v>
@@ -3426,13 +3444,13 @@
         <v>18</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J46" s="10">
         <v>0</v>
@@ -3443,14 +3461,14 @@
       <c r="L46" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M46" s="48"/>
-      <c r="N46" s="49"/>
+      <c r="M46" s="46"/>
+      <c r="N46" s="47"/>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="32"/>
-      <c r="B47" s="38"/>
+      <c r="B47" s="36"/>
       <c r="C47" s="6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>16</v>
@@ -3462,29 +3480,29 @@
         <v>18</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J47" s="10">
         <v>0</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L47" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M47" s="48"/>
-      <c r="N47" s="49"/>
+      <c r="M47" s="46"/>
+      <c r="N47" s="47"/>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="32"/>
-      <c r="B48" s="38"/>
+      <c r="B48" s="36"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6" t="s">
         <v>16</v>
@@ -3496,31 +3514,31 @@
         <v>18</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="I48" s="51" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="I48" s="50" t="s">
+        <v>108</v>
       </c>
       <c r="J48" s="10">
         <v>0</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L48" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M48" s="48"/>
-      <c r="N48" s="49"/>
+      <c r="M48" s="46"/>
+      <c r="N48" s="47"/>
     </row>
     <row r="49" customFormat="1" ht="57.6" spans="1:14">
       <c r="A49" s="32"/>
-      <c r="B49" s="38"/>
+      <c r="B49" s="36"/>
       <c r="C49" s="6"/>
-      <c r="D49" s="40" t="s">
+      <c r="D49" s="38" t="s">
         <v>16</v>
       </c>
       <c r="E49" s="29" t="s">
@@ -3529,11 +3547,11 @@
       <c r="F49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G49" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="H49" s="40" t="s">
-        <v>107</v>
+      <c r="G49" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="H49" s="38" t="s">
+        <v>109</v>
       </c>
       <c r="I49" s="10" t="s">
         <v>52</v>
@@ -3547,18 +3565,18 @@
       <c r="L49" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M49" s="48"/>
-      <c r="N49" s="49"/>
+      <c r="M49" s="46"/>
+      <c r="N49" s="47"/>
     </row>
     <row r="50" customFormat="1" ht="57.6" spans="1:14">
       <c r="A50" s="32"/>
-      <c r="B50" s="41"/>
+      <c r="B50" s="39"/>
       <c r="C50" s="6"/>
-      <c r="D50" s="39"/>
+      <c r="D50" s="37"/>
       <c r="E50" s="31"/>
       <c r="F50" s="31"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
       <c r="I50" s="10" t="s">
         <v>54</v>
       </c>
@@ -3571,12 +3589,12 @@
       <c r="L50" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M50" s="48"/>
-      <c r="N50" s="49"/>
+      <c r="M50" s="46"/>
+      <c r="N50" s="47"/>
     </row>
     <row r="51" customFormat="1" ht="28.8" spans="1:14">
       <c r="A51" s="32"/>
-      <c r="B51" s="41"/>
+      <c r="B51" s="39"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6" t="s">
         <v>16</v>
@@ -3588,29 +3606,29 @@
         <v>18</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L51" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M51" s="48"/>
-      <c r="N51" s="49"/>
+      <c r="M51" s="46"/>
+      <c r="N51" s="47"/>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="32"/>
-      <c r="B52" s="42"/>
+      <c r="B52" s="40"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -3621,13 +3639,13 @@
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
       <c r="L52" s="4"/>
-      <c r="M52" s="48"/>
-      <c r="N52" s="49"/>
+      <c r="M52" s="46"/>
+      <c r="N52" s="47"/>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="32"/>
       <c r="B53" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6" t="s">
@@ -3640,37 +3658,37 @@
         <v>18</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>
       <c r="L53" s="6"/>
-      <c r="M53" s="48"/>
-      <c r="N53" s="49"/>
+      <c r="M53" s="46"/>
+      <c r="N53" s="47"/>
     </row>
     <row r="54" ht="57.6" spans="1:14">
       <c r="A54" s="32"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
-      <c r="D54" s="40" t="s">
+      <c r="D54" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E54" s="40" t="s">
+      <c r="E54" s="38" t="s">
         <v>17</v>
       </c>
       <c r="F54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G54" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="H54" s="40" t="s">
+      <c r="G54" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="H54" s="38" t="s">
         <v>36</v>
       </c>
       <c r="I54" s="10" t="s">
@@ -3685,18 +3703,18 @@
       <c r="L54" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M54" s="48"/>
-      <c r="N54" s="49"/>
+      <c r="M54" s="46"/>
+      <c r="N54" s="47"/>
     </row>
     <row r="55" ht="57.6" spans="1:14">
       <c r="A55" s="32"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
-      <c r="D55" s="43"/>
-      <c r="E55" s="43"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
       <c r="F55" s="30"/>
-      <c r="G55" s="43"/>
-      <c r="H55" s="43"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
       <c r="I55" s="10" t="s">
         <v>54</v>
       </c>
@@ -3709,18 +3727,18 @@
       <c r="L55" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M55" s="48"/>
-      <c r="N55" s="49"/>
+      <c r="M55" s="46"/>
+      <c r="N55" s="47"/>
     </row>
     <row r="56" ht="57.6" spans="1:14">
       <c r="A56" s="32"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
-      <c r="D56" s="43"/>
-      <c r="E56" s="43"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
       <c r="F56" s="30"/>
-      <c r="G56" s="43"/>
-      <c r="H56" s="43"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="41"/>
       <c r="I56" s="10" t="s">
         <v>56</v>
       </c>
@@ -3733,18 +3751,18 @@
       <c r="L56" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M56" s="48"/>
-      <c r="N56" s="49"/>
+      <c r="M56" s="46"/>
+      <c r="N56" s="47"/>
     </row>
     <row r="57" ht="86.4" spans="1:14">
       <c r="A57" s="32"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="39"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
       <c r="F57" s="31"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="39"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
       <c r="I57" s="10" t="s">
         <v>58</v>
       </c>
@@ -3757,8 +3775,8 @@
       <c r="L57" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M57" s="48"/>
-      <c r="N57" s="49"/>
+      <c r="M57" s="46"/>
+      <c r="N57" s="47"/>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="32"/>
@@ -3773,12 +3791,12 @@
       <c r="J58" s="33"/>
       <c r="K58" s="33"/>
       <c r="L58" s="4"/>
-      <c r="M58" s="48"/>
-      <c r="N58" s="49"/>
+      <c r="M58" s="46"/>
+      <c r="N58" s="47"/>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B59" s="14"/>
       <c r="C59" s="2" t="s">
@@ -3788,7 +3806,7 @@
         <v>16</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>18</v>
@@ -3815,10 +3833,10 @@
       <c r="N59" s="11"/>
     </row>
     <row r="60" ht="28.8" spans="1:14">
-      <c r="A60" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="B60" s="45"/>
+      <c r="A60" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" s="43"/>
       <c r="C60" s="33" t="s">
         <v>12</v>
       </c>
@@ -3835,7 +3853,7 @@
         <v>19</v>
       </c>
       <c r="H60" s="16" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I60" s="33">
         <v>0</v>
@@ -3869,10 +3887,10 @@
       <c r="N61" s="2"/>
     </row>
     <row r="62" ht="48" customHeight="1" spans="1:14">
-      <c r="A62" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="B62" s="47"/>
+      <c r="A62" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" s="45"/>
       <c r="C62" s="19" t="s">
         <v>15</v>
       </c>
@@ -3880,13 +3898,13 @@
         <v>16</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F62" s="10" t="s">
         <v>18</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H62" s="6">
         <v>0</v>
@@ -3904,19 +3922,19 @@
         <v>12</v>
       </c>
       <c r="M62" s="4"/>
-      <c r="N62" s="52"/>
+      <c r="N62" s="51"/>
     </row>
     <row r="63" ht="28" customHeight="1" spans="1:14">
-      <c r="A63" s="46" t="s">
-        <v>119</v>
-      </c>
-      <c r="B63" s="47"/>
+      <c r="A63" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" s="45"/>
       <c r="C63" s="21"/>
       <c r="D63" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>18</v>
@@ -3940,19 +3958,19 @@
         <v>12</v>
       </c>
       <c r="M63" s="4"/>
-      <c r="N63" s="52"/>
+      <c r="N63" s="51"/>
     </row>
     <row r="64" customFormat="1" ht="28" customHeight="1" spans="1:14">
-      <c r="A64" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="B64" s="47"/>
+      <c r="A64" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="B64" s="45"/>
       <c r="C64" s="21"/>
       <c r="D64" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>18</v>
@@ -3976,25 +3994,25 @@
         <v>12</v>
       </c>
       <c r="M64" s="4"/>
-      <c r="N64" s="52"/>
+      <c r="N64" s="51"/>
     </row>
     <row r="65" customFormat="1" ht="28" customHeight="1" spans="1:14">
-      <c r="A65" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="B65" s="47"/>
+      <c r="A65" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="B65" s="45"/>
       <c r="C65" s="21"/>
       <c r="D65" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
@@ -4002,19 +4020,19 @@
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
       <c r="M65" s="4"/>
-      <c r="N65" s="52"/>
+      <c r="N65" s="51"/>
     </row>
     <row r="66" customFormat="1" ht="28" customHeight="1" spans="1:14">
-      <c r="A66" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="B66" s="47"/>
+      <c r="A66" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="B66" s="45"/>
       <c r="C66" s="21"/>
       <c r="D66" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>18</v>
@@ -4028,25 +4046,25 @@
       <c r="K66" s="6"/>
       <c r="L66" s="6"/>
       <c r="M66" s="4"/>
-      <c r="N66" s="52"/>
+      <c r="N66" s="51"/>
     </row>
     <row r="67" customFormat="1" ht="28" customHeight="1" spans="1:14">
-      <c r="A67" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="B67" s="47"/>
+      <c r="A67" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="B67" s="45"/>
       <c r="C67" s="21"/>
       <c r="D67" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
@@ -4054,25 +4072,25 @@
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
       <c r="M67" s="4"/>
-      <c r="N67" s="52"/>
+      <c r="N67" s="51"/>
     </row>
     <row r="68" customFormat="1" ht="28" customHeight="1" spans="1:14">
-      <c r="A68" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="B68" s="47"/>
+      <c r="A68" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="B68" s="45"/>
       <c r="C68" s="21"/>
       <c r="D68" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
@@ -4080,19 +4098,19 @@
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
       <c r="M68" s="4"/>
-      <c r="N68" s="52"/>
+      <c r="N68" s="51"/>
     </row>
     <row r="69" customFormat="1" ht="28" customHeight="1" spans="1:14">
-      <c r="A69" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="B69" s="47"/>
+      <c r="A69" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="B69" s="45"/>
       <c r="C69" s="21"/>
       <c r="D69" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>18</v>
@@ -4106,19 +4124,19 @@
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
       <c r="M69" s="4"/>
-      <c r="N69" s="52"/>
+      <c r="N69" s="51"/>
     </row>
     <row r="70" customFormat="1" ht="28" customHeight="1" spans="1:14">
-      <c r="A70" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="B70" s="47"/>
+      <c r="A70" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="B70" s="45"/>
       <c r="C70" s="21"/>
       <c r="D70" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>18</v>
@@ -4132,25 +4150,25 @@
       <c r="K70" s="6"/>
       <c r="L70" s="6"/>
       <c r="M70" s="4"/>
-      <c r="N70" s="52"/>
+      <c r="N70" s="51"/>
     </row>
     <row r="71" customFormat="1" ht="28" customHeight="1" spans="1:14">
-      <c r="A71" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="B71" s="47"/>
+      <c r="A71" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="B71" s="45"/>
       <c r="C71" s="21"/>
       <c r="D71" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
@@ -4158,11 +4176,11 @@
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
       <c r="M71" s="4"/>
-      <c r="N71" s="52"/>
+      <c r="N71" s="51"/>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="33" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B72" s="33"/>
       <c r="C72" s="33"/>
@@ -4170,7 +4188,7 @@
         <v>16</v>
       </c>
       <c r="E72" s="33" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F72" s="33" t="s">
         <v>18</v>
@@ -4198,7 +4216,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="33" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B73" s="33"/>
       <c r="C73" s="33"/>
@@ -4228,7 +4246,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="33" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B74" s="33"/>
       <c r="C74" s="33"/>
@@ -4258,7 +4276,7 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -4266,7 +4284,7 @@
         <v>16</v>
       </c>
       <c r="E75" s="33" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F75" s="33" t="s">
         <v>18</v>
@@ -4286,27 +4304,27 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D76" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="D76" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="E76" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F76" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" s="53" t="s">
+      <c r="E76" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="F76" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="G76" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="H76" s="53" t="s">
+      <c r="H76" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="I76" s="53"/>
-      <c r="J76" s="53"/>
-      <c r="K76" s="53"/>
-      <c r="L76" s="53"/>
+      <c r="I76" s="52"/>
+      <c r="J76" s="52"/>
+      <c r="K76" s="52"/>
+      <c r="L76" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="48">
@@ -4333,7 +4351,7 @@
     <mergeCell ref="B3:B9"/>
     <mergeCell ref="B10:B17"/>
     <mergeCell ref="B19:B24"/>
-    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="B26:B32"/>
     <mergeCell ref="B34:B50"/>
     <mergeCell ref="B53:B57"/>
     <mergeCell ref="C3:C24"/>
@@ -4371,9 +4389,9 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
+      <selection pane="bottomLeft" activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -4459,22 +4477,22 @@
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>12</v>
@@ -4489,7 +4507,7 @@
     <row r="3" s="1" customFormat="1" ht="72" spans="1:18">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>18</v>
@@ -4498,34 +4516,34 @@
         <v>17</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M3" s="5">
         <v>0</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>12</v>
@@ -4537,7 +4555,7 @@
     <row r="4" s="1" customFormat="1" ht="72" spans="1:18">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>18</v>
@@ -4546,37 +4564,37 @@
         <v>17</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="M4" s="5" t="s">
+      <c r="N4" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="O4" s="16" t="s">
         <v>148</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="O4" s="16" t="s">
-        <v>146</v>
       </c>
       <c r="P4" s="16" t="s">
         <v>12</v>
@@ -4587,7 +4605,7 @@
     <row r="5" spans="1:18">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>18</v>
@@ -4596,7 +4614,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>50</v>
@@ -4619,7 +4637,7 @@
     <row r="6" spans="1:18">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>18</v>
@@ -4631,7 +4649,7 @@
         <v>65</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>12</v>
@@ -4666,40 +4684,42 @@
         <v>65</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="P7" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>18</v>
@@ -4711,31 +4731,31 @@
         <v>65</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>12</v>
@@ -4747,7 +4767,7 @@
     <row r="9" ht="28.8" spans="1:20">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>18</v>
@@ -4756,58 +4776,58 @@
         <v>17</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="N9" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="J9" s="5">
-        <v>0</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>87</v>
-      </c>
       <c r="O9" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="R9" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="P9" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="S9" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="T9" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" ht="28.8" spans="1:18">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>18</v>
@@ -4816,22 +4836,22 @@
         <v>17</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>48</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -4845,7 +4865,7 @@
     <row r="11" spans="1:18">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>18</v>
@@ -4854,13 +4874,13 @@
         <v>17</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -4896,7 +4916,7 @@
     </row>
     <row r="13" ht="28.8" spans="1:18">
       <c r="A13" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="4" t="s">
@@ -4906,16 +4926,16 @@
         <v>19</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>36</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>12</v>
@@ -4933,7 +4953,7 @@
     <row r="14" spans="1:18">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>18</v>
@@ -4942,13 +4962,13 @@
         <v>19</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>12</v>
@@ -4972,7 +4992,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>12</v>
@@ -4991,7 +5011,7 @@
     <row r="16" spans="1:18">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>18</v>
@@ -5000,13 +5020,13 @@
         <v>36</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>12</v>
@@ -5025,7 +5045,7 @@
     <row r="17" spans="1:18">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>18</v>
@@ -5034,19 +5054,19 @@
         <v>50</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>12</v>
@@ -5062,45 +5082,45 @@
     </row>
     <row r="18" ht="28.8" spans="1:18">
       <c r="A18" s="10" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N18" s="4"/>
+      <c r="N18" s="6"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
@@ -5109,40 +5129,40 @@
     <row r="19" ht="28.8" spans="1:18">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>65</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="N19" s="4" t="s">
         <v>12</v>
@@ -5155,7 +5175,7 @@
     <row r="20" ht="28.8" spans="1:18">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>18</v>
@@ -5164,13 +5184,13 @@
         <v>65</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>12</v>
@@ -5189,28 +5209,28 @@
     <row r="21" spans="1:18">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>12</v>
@@ -5226,35 +5246,35 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>12</v>
@@ -5269,7 +5289,7 @@
     <row r="23" ht="43.2" spans="1:18">
       <c r="A23" s="2"/>
       <c r="B23" s="11" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>18</v>
@@ -5278,22 +5298,22 @@
         <v>48</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>12</v>
@@ -5329,19 +5349,19 @@
     <row r="25" ht="43.2" spans="1:18">
       <c r="A25" s="2"/>
       <c r="B25" s="12" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>12</v>
@@ -5361,19 +5381,19 @@
     <row r="26" ht="43.2" spans="1:18">
       <c r="A26" s="2"/>
       <c r="B26" s="10" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>12</v>
@@ -5393,25 +5413,25 @@
     <row r="27" spans="1:18">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>12</v>
@@ -5428,17 +5448,17 @@
     </row>
     <row r="28" ht="100.8" spans="1:18">
       <c r="A28" s="13" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>12</v>

--- a/LG-06 Protocol V1.0.xlsx
+++ b/LG-06 Protocol V1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="controller to motor" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="240">
   <si>
     <t>byte:</t>
   </si>
@@ -257,10 +257,16 @@
     <t>0-100</t>
   </si>
   <si>
+    <t>单位毫秒500-65000</t>
+  </si>
+  <si>
     <t>0x03快门时间</t>
   </si>
   <si>
-    <t>1-99</t>
+    <t>高</t>
+  </si>
+  <si>
+    <t>低</t>
   </si>
   <si>
     <t>0x04 手动快门</t>
@@ -279,6 +285,18 @@
 0:横拍</t>
   </si>
   <si>
+    <t>0x08拍前暂停</t>
+  </si>
+  <si>
+    <t>0x09拍后暂停</t>
+  </si>
+  <si>
+    <t>0x0a速度档位</t>
+  </si>
+  <si>
+    <t>1-5档</t>
+  </si>
+  <si>
     <t>多层全景模式</t>
   </si>
   <si>
@@ -298,6 +316,9 @@
   </si>
   <si>
     <t>0x02快门次数</t>
+  </si>
+  <si>
+    <t>1-99</t>
   </si>
   <si>
     <t>张数</t>
@@ -556,6 +577,15 @@
   </si>
   <si>
     <t>横竖拍</t>
+  </si>
+  <si>
+    <t>拍前暂停</t>
+  </si>
+  <si>
+    <t>拍后暂停</t>
+  </si>
+  <si>
+    <t>速度</t>
   </si>
   <si>
     <t>广角模式</t>
@@ -1138,7 +1168,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1241,6 +1271,15 @@
       </left>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1386,7 +1425,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1398,34 +1437,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1609,13 +1648,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1624,20 +1663,35 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1645,26 +1699,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2019,33 +2058,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N76"/>
+  <dimension ref="A1:N79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H32" sqref="B26:L32"/>
+      <selection pane="bottomLeft" activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="6" width="21.8796296296296" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.8796296296296" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.3796296296296" style="1" customWidth="1"/>
+    <col min="5" max="6" width="21.8833333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.8833333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.3833333333333" style="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.88888888888889" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.89166666666667" style="1" customWidth="1"/>
     <col min="11" max="13" width="9" style="1"/>
     <col min="14" max="14" width="28.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14.6296296296296" customWidth="1"/>
+    <col min="15" max="15" width="14.6333333333333" customWidth="1"/>
     <col min="16" max="16" width="13.75" customWidth="1"/>
-    <col min="17" max="17" width="12.8796296296296" customWidth="1"/>
+    <col min="17" max="17" width="12.8833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.4" spans="1:14">
+    <row r="1" ht="18.75" spans="1:14">
       <c r="A1" s="17"/>
       <c r="C1" s="18" t="s">
         <v>0</v>
@@ -2160,7 +2199,7 @@
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
     </row>
-    <row r="4" ht="28.8" spans="1:14">
+    <row r="4" ht="27" spans="1:14">
       <c r="A4" s="21"/>
       <c r="B4" s="21"/>
       <c r="C4" s="2"/>
@@ -2188,7 +2227,7 @@
       <c r="M4" s="14"/>
       <c r="N4" s="14"/>
     </row>
-    <row r="5" ht="28.8" spans="1:14">
+    <row r="5" ht="27" spans="1:14">
       <c r="A5" s="21"/>
       <c r="B5" s="21"/>
       <c r="C5" s="2"/>
@@ -2216,7 +2255,7 @@
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
     </row>
-    <row r="6" ht="28.8" spans="1:14">
+    <row r="6" ht="27" spans="1:14">
       <c r="A6" s="21"/>
       <c r="B6" s="21"/>
       <c r="C6" s="2"/>
@@ -2244,7 +2283,7 @@
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
     </row>
-    <row r="7" ht="28.8" spans="1:14">
+    <row r="7" ht="27" spans="1:14">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
       <c r="C7" s="2"/>
@@ -2272,7 +2311,7 @@
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
     </row>
-    <row r="8" ht="28.8" spans="1:14">
+    <row r="8" ht="27" spans="1:14">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
       <c r="C8" s="2"/>
@@ -2300,7 +2339,7 @@
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
     </row>
-    <row r="9" ht="28.8" spans="1:14">
+    <row r="9" ht="27" spans="1:14">
       <c r="A9" s="21"/>
       <c r="B9" s="23"/>
       <c r="C9" s="2"/>
@@ -2420,7 +2459,7 @@
       <c r="M12" s="14"/>
       <c r="N12" s="14"/>
     </row>
-    <row r="13" ht="28.8" spans="1:14">
+    <row r="13" ht="27" spans="1:14">
       <c r="A13" s="21"/>
       <c r="B13" s="21"/>
       <c r="C13" s="2"/>
@@ -2448,7 +2487,7 @@
       <c r="M13" s="14"/>
       <c r="N13" s="14"/>
     </row>
-    <row r="14" ht="28.8" spans="1:14">
+    <row r="14" ht="27" spans="1:14">
       <c r="A14" s="21"/>
       <c r="B14" s="21"/>
       <c r="C14" s="2"/>
@@ -2476,7 +2515,7 @@
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
     </row>
-    <row r="15" ht="28.8" spans="1:14">
+    <row r="15" ht="27" spans="1:14">
       <c r="A15" s="21"/>
       <c r="B15" s="21"/>
       <c r="C15" s="2"/>
@@ -2504,7 +2543,7 @@
       <c r="M15" s="14"/>
       <c r="N15" s="14"/>
     </row>
-    <row r="16" ht="28.8" spans="1:14">
+    <row r="16" ht="27" spans="1:14">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="2"/>
@@ -2574,7 +2613,7 @@
       <c r="M18" s="14"/>
       <c r="N18" s="14"/>
     </row>
-    <row r="19" ht="57.6" spans="1:14">
+    <row r="19" ht="54" spans="1:14">
       <c r="A19" s="21"/>
       <c r="B19" s="2" t="s">
         <v>49</v>
@@ -2610,7 +2649,7 @@
       <c r="M19" s="14"/>
       <c r="N19" s="14"/>
     </row>
-    <row r="20" ht="57.6" spans="1:14">
+    <row r="20" ht="54" spans="1:14">
       <c r="A20" s="21"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2634,7 +2673,7 @@
       <c r="M20" s="14"/>
       <c r="N20" s="14"/>
     </row>
-    <row r="21" ht="57.6" spans="1:14">
+    <row r="21" ht="54" spans="1:14">
       <c r="A21" s="21"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2656,7 +2695,7 @@
       <c r="M21" s="14"/>
       <c r="N21" s="14"/>
     </row>
-    <row r="22" ht="86.4" spans="1:14">
+    <row r="22" ht="81" spans="1:14">
       <c r="A22" s="21"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2678,7 +2717,7 @@
       <c r="M22" s="14"/>
       <c r="N22" s="14"/>
     </row>
-    <row r="23" ht="57.6" spans="1:14">
+    <row r="23" ht="54" spans="1:14">
       <c r="A23" s="21"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2731,8 +2770,8 @@
       <c r="L24" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M24" s="46"/>
-      <c r="N24" s="47"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="45"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="32"/>
@@ -2747,15 +2786,15 @@
       <c r="J25" s="33"/>
       <c r="K25" s="33"/>
       <c r="L25" s="4"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="47"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="45"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="2"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="8" t="s">
         <v>64</v>
       </c>
       <c r="D26" s="4" t="s">
@@ -2785,13 +2824,13 @@
       <c r="L26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M26" s="46"/>
-      <c r="N26" s="47"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="45"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="2"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="4" t="s">
+      <c r="A27" s="13"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="8" t="s">
         <v>69</v>
       </c>
       <c r="D27" s="4" t="s">
@@ -2821,13 +2860,15 @@
       <c r="L27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M27" s="46"/>
-      <c r="N27" s="47"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="45"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="2"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="4"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="D28" s="4" t="s">
         <v>16</v>
       </c>
@@ -2841,13 +2882,13 @@
         <v>65</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J28" s="4">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="K28" s="4">
         <v>0</v>
@@ -2855,13 +2896,13 @@
       <c r="L28" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M28" s="46"/>
-      <c r="N28" s="47"/>
-    </row>
-    <row r="29" ht="28.8" spans="1:14">
-      <c r="A29" s="2"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="4"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="45"/>
+    </row>
+    <row r="29" ht="27" spans="1:14">
+      <c r="A29" s="13"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="8"/>
       <c r="D29" s="4" t="s">
         <v>16</v>
       </c>
@@ -2875,7 +2916,7 @@
         <v>65</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I29" s="11" t="s">
         <v>43</v>
@@ -2889,13 +2930,13 @@
       <c r="L29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M29" s="46"/>
-      <c r="N29" s="47"/>
-    </row>
-    <row r="30" ht="28.8" spans="1:14">
-      <c r="A30" s="2"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="4"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="45"/>
+    </row>
+    <row r="30" ht="27" spans="1:14">
+      <c r="A30" s="13"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="8"/>
       <c r="D30" s="4" t="s">
         <v>16</v>
       </c>
@@ -2909,7 +2950,7 @@
         <v>65</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I30" s="11" t="s">
         <v>45</v>
@@ -2923,13 +2964,13 @@
       <c r="L30" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M30" s="46"/>
-      <c r="N30" s="47"/>
-    </row>
-    <row r="31" ht="28.8" spans="1:14">
-      <c r="A31" s="2"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="4"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="45"/>
+    </row>
+    <row r="31" ht="27" spans="1:14">
+      <c r="A31" s="13"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="8"/>
       <c r="D31" s="4" t="s">
         <v>16</v>
       </c>
@@ -2943,7 +2984,7 @@
         <v>65</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I31" s="11" t="s">
         <v>30</v>
@@ -2957,13 +2998,13 @@
       <c r="L31" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M31" s="46"/>
-      <c r="N31" s="47"/>
-    </row>
-    <row r="32" ht="28.8" spans="1:14">
-      <c r="A32" s="2"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="4"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="45"/>
+    </row>
+    <row r="32" ht="27" spans="1:14">
+      <c r="A32" s="13"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="8"/>
       <c r="D32" s="4" t="s">
         <v>16</v>
       </c>
@@ -2977,10 +3018,10 @@
         <v>65</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J32" s="5">
         <v>0</v>
@@ -2991,162 +3032,166 @@
       <c r="L32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M32" s="46"/>
-      <c r="N32" s="47"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="45"/>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="35"/>
+      <c r="A33" s="32"/>
       <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="49"/>
+      <c r="C33" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K33" s="4">
+        <v>0</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M33" s="44"/>
+      <c r="N33" s="45"/>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="32"/>
-      <c r="B34" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37" t="s">
+      <c r="B34" s="15"/>
+      <c r="C34" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="37" t="s">
+      <c r="E34" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F34" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="H34" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="I34" s="31" t="s">
+      <c r="F34" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H34" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="J34" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="K34" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="L34" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="M34" s="46"/>
-      <c r="N34" s="47"/>
+      <c r="I34" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K34" s="4">
+        <v>0</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M34" s="44"/>
+      <c r="N34" s="45"/>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="32"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6" t="s">
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F35" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="J35" s="10">
-        <v>0</v>
-      </c>
-      <c r="K35" s="10" t="s">
+      <c r="F35" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I35" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="L35" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M35" s="46"/>
-      <c r="N35" s="47"/>
+      <c r="J35" s="5">
+        <v>0</v>
+      </c>
+      <c r="K35" s="4">
+        <v>0</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M35" s="44"/>
+      <c r="N35" s="45"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="32"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I36" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="J36" s="10">
-        <v>0</v>
-      </c>
-      <c r="K36" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="L36" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M36" s="46"/>
+      <c r="A36" s="35"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="47"/>
       <c r="N36" s="47"/>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="32"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6" t="s">
+      <c r="B37" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H37" s="6" t="s">
+      <c r="F37" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="H37" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="I37" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="J37" s="10">
-        <v>0</v>
-      </c>
-      <c r="K37" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="L37" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M37" s="46"/>
-      <c r="N37" s="47"/>
+      <c r="I37" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="J37" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="K37" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="L37" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="M37" s="44"/>
+      <c r="N37" s="45"/>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="32"/>
@@ -3162,25 +3207,25 @@
         <v>18</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="J38" s="10">
         <v>0</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L38" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M38" s="46"/>
-      <c r="N38" s="47"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="45"/>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="32"/>
@@ -3196,13 +3241,13 @@
         <v>18</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="J39" s="10">
         <v>0</v>
@@ -3213,8 +3258,8 @@
       <c r="L39" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M39" s="46"/>
-      <c r="N39" s="47"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="45"/>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="32"/>
@@ -3230,10 +3275,10 @@
         <v>18</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I40" s="10" t="s">
         <v>92</v>
@@ -3247,8 +3292,8 @@
       <c r="L40" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M40" s="46"/>
-      <c r="N40" s="47"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="45"/>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="32"/>
@@ -3264,13 +3309,13 @@
         <v>18</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J41" s="10">
         <v>0</v>
@@ -3281,15 +3326,13 @@
       <c r="L41" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M41" s="46"/>
-      <c r="N41" s="47"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="45"/>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="32"/>
       <c r="B42" s="36"/>
-      <c r="C42" s="6" t="s">
-        <v>94</v>
-      </c>
+      <c r="C42" s="6"/>
       <c r="D42" s="6" t="s">
         <v>16</v>
       </c>
@@ -3300,32 +3343,30 @@
         <v>18</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="J42" s="10">
         <v>0</v>
       </c>
-      <c r="K42" s="10">
-        <v>0</v>
+      <c r="K42" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="L42" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M42" s="46"/>
-      <c r="N42" s="47"/>
-    </row>
-    <row r="43" ht="28.8" spans="1:14">
+      <c r="M42" s="44"/>
+      <c r="N42" s="45"/>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" s="32"/>
       <c r="B43" s="36"/>
-      <c r="C43" s="6" t="s">
-        <v>95</v>
-      </c>
+      <c r="C43" s="6"/>
       <c r="D43" s="6" t="s">
         <v>16</v>
       </c>
@@ -3336,16 +3377,16 @@
         <v>18</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="J43" s="10" t="s">
-        <v>84</v>
+        <v>99</v>
+      </c>
+      <c r="J43" s="10">
+        <v>0</v>
       </c>
       <c r="K43" s="10" t="s">
         <v>97</v>
@@ -3353,15 +3394,13 @@
       <c r="L43" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M43" s="46"/>
-      <c r="N43" s="47"/>
+      <c r="M43" s="44"/>
+      <c r="N43" s="45"/>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="32"/>
       <c r="B44" s="36"/>
-      <c r="C44" s="6" t="s">
-        <v>98</v>
-      </c>
+      <c r="C44" s="6"/>
       <c r="D44" s="6" t="s">
         <v>16</v>
       </c>
@@ -3372,31 +3411,31 @@
         <v>18</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="J44" s="10">
         <v>0</v>
       </c>
-      <c r="K44" s="10">
-        <v>0</v>
+      <c r="K44" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="L44" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M44" s="46"/>
-      <c r="N44" s="47"/>
+      <c r="M44" s="44"/>
+      <c r="N44" s="45"/>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="32"/>
       <c r="B45" s="36"/>
       <c r="C45" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>16</v>
@@ -3408,13 +3447,13 @@
         <v>18</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J45" s="10">
         <v>0</v>
@@ -3425,10 +3464,10 @@
       <c r="L45" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M45" s="46"/>
-      <c r="N45" s="47"/>
-    </row>
-    <row r="46" spans="1:14">
+      <c r="M45" s="44"/>
+      <c r="N45" s="45"/>
+    </row>
+    <row r="46" ht="27" spans="1:14">
       <c r="A46" s="32"/>
       <c r="B46" s="36"/>
       <c r="C46" s="6" t="s">
@@ -3444,31 +3483,31 @@
         <v>18</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>103</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="J46" s="10">
-        <v>0</v>
-      </c>
-      <c r="K46" s="10">
-        <v>0</v>
+        <v>97</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="K46" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="L46" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M46" s="46"/>
-      <c r="N46" s="47"/>
+      <c r="M46" s="44"/>
+      <c r="N46" s="45"/>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="32"/>
       <c r="B47" s="36"/>
       <c r="C47" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>16</v>
@@ -3480,30 +3519,32 @@
         <v>18</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="J47" s="10">
         <v>0</v>
       </c>
-      <c r="K47" s="10" t="s">
-        <v>84</v>
+      <c r="K47" s="10">
+        <v>0</v>
       </c>
       <c r="L47" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M47" s="46"/>
-      <c r="N47" s="47"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="45"/>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="32"/>
       <c r="B48" s="36"/>
-      <c r="C48" s="6"/>
+      <c r="C48" s="6" t="s">
+        <v>107</v>
+      </c>
       <c r="D48" s="6" t="s">
         <v>16</v>
       </c>
@@ -3514,50 +3555,52 @@
         <v>18</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="I48" s="50" t="s">
         <v>108</v>
       </c>
+      <c r="I48" s="10" t="s">
+        <v>97</v>
+      </c>
       <c r="J48" s="10">
         <v>0</v>
       </c>
-      <c r="K48" s="10" t="s">
-        <v>90</v>
+      <c r="K48" s="10">
+        <v>0</v>
       </c>
       <c r="L48" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M48" s="46"/>
-      <c r="N48" s="47"/>
-    </row>
-    <row r="49" customFormat="1" ht="57.6" spans="1:14">
+      <c r="M48" s="44"/>
+      <c r="N48" s="45"/>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" s="32"/>
       <c r="B49" s="36"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="38" t="s">
+      <c r="C49" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E49" s="29" t="s">
+      <c r="E49" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F49" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="H49" s="38" t="s">
-        <v>109</v>
+      <c r="F49" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="J49" s="10" t="s">
-        <v>53</v>
+        <v>90</v>
+      </c>
+      <c r="J49" s="10">
+        <v>0</v>
       </c>
       <c r="K49" s="10">
         <v>0</v>
@@ -3565,36 +3608,48 @@
       <c r="L49" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M49" s="46"/>
-      <c r="N49" s="47"/>
-    </row>
-    <row r="50" customFormat="1" ht="57.6" spans="1:14">
+      <c r="M49" s="44"/>
+      <c r="N49" s="45"/>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" s="32"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="I50" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J50" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="K50" s="10">
-        <v>0</v>
+        <v>113</v>
+      </c>
+      <c r="J50" s="10">
+        <v>0</v>
+      </c>
+      <c r="K50" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="L50" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M50" s="46"/>
-      <c r="N50" s="47"/>
-    </row>
-    <row r="51" customFormat="1" ht="28.8" spans="1:14">
+      <c r="M50" s="44"/>
+      <c r="N50" s="45"/>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" s="32"/>
-      <c r="B51" s="39"/>
+      <c r="B51" s="36"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6" t="s">
         <v>16</v>
@@ -3606,305 +3661,305 @@
         <v>18</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="I51" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="J51" s="10" t="s">
-        <v>90</v>
+        <v>114</v>
+      </c>
+      <c r="I51" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="J51" s="10">
+        <v>0</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="L51" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M51" s="46"/>
-      <c r="N51" s="47"/>
-    </row>
-    <row r="52" spans="1:14">
+      <c r="M51" s="44"/>
+      <c r="N51" s="45"/>
+    </row>
+    <row r="52" customFormat="1" ht="54" spans="1:14">
       <c r="A52" s="32"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="46"/>
-      <c r="N52" s="47"/>
-    </row>
-    <row r="53" spans="1:14">
+      <c r="B52" s="36"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="H52" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J52" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K52" s="10">
+        <v>0</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M52" s="44"/>
+      <c r="N52" s="45"/>
+    </row>
+    <row r="53" customFormat="1" ht="54" spans="1:14">
       <c r="A53" s="32"/>
-      <c r="B53" s="6" t="s">
-        <v>113</v>
-      </c>
+      <c r="B53" s="39"/>
       <c r="C53" s="6"/>
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="37"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J53" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="K53" s="10">
+        <v>0</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M53" s="44"/>
+      <c r="N53" s="45"/>
+    </row>
+    <row r="54" customFormat="1" ht="27" spans="1:14">
+      <c r="A54" s="32"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E54" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="H53" s="6" t="s">
+      <c r="F54" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="K54" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M54" s="44"/>
+      <c r="N54" s="45"/>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="32"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="44"/>
+      <c r="N55" s="45"/>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="32"/>
+      <c r="B56" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H56" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I53" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="46"/>
-      <c r="N53" s="47"/>
-    </row>
-    <row r="54" ht="57.6" spans="1:14">
-      <c r="A54" s="32"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="E54" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="F54" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="H54" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="I54" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="J54" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K54" s="10">
-        <v>0</v>
-      </c>
-      <c r="L54" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M54" s="46"/>
-      <c r="N54" s="47"/>
-    </row>
-    <row r="55" ht="57.6" spans="1:14">
-      <c r="A55" s="32"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="41"/>
-      <c r="I55" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J55" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="K55" s="10">
-        <v>0</v>
-      </c>
-      <c r="L55" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M55" s="46"/>
-      <c r="N55" s="47"/>
-    </row>
-    <row r="56" ht="57.6" spans="1:14">
-      <c r="A56" s="32"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="41"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="41"/>
-      <c r="H56" s="41"/>
       <c r="I56" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J56" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="K56" s="10">
-        <v>0</v>
-      </c>
-      <c r="L56" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M56" s="46"/>
-      <c r="N56" s="47"/>
-    </row>
-    <row r="57" ht="86.4" spans="1:14">
+        <v>121</v>
+      </c>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="44"/>
+      <c r="N56" s="45"/>
+    </row>
+    <row r="57" ht="54" spans="1:14">
       <c r="A57" s="32"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
+      <c r="D57" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="H57" s="38" t="s">
+        <v>36</v>
+      </c>
       <c r="I57" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J57" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K57" s="10">
+        <v>0</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M57" s="44"/>
+      <c r="N57" s="45"/>
+    </row>
+    <row r="58" ht="54" spans="1:14">
+      <c r="A58" s="32"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J58" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="K58" s="10">
+        <v>0</v>
+      </c>
+      <c r="L58" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M58" s="44"/>
+      <c r="N58" s="45"/>
+    </row>
+    <row r="59" ht="54" spans="1:14">
+      <c r="A59" s="32"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="41"/>
+      <c r="I59" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J59" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="K59" s="10">
+        <v>0</v>
+      </c>
+      <c r="L59" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M59" s="44"/>
+      <c r="N59" s="45"/>
+    </row>
+    <row r="60" ht="81" spans="1:14">
+      <c r="A60" s="32"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="J57" s="10" t="s">
+      <c r="J60" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="K57" s="10">
-        <v>0</v>
-      </c>
-      <c r="L57" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M57" s="46"/>
-      <c r="N57" s="47"/>
-    </row>
-    <row r="58" spans="1:14">
-      <c r="A58" s="32"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="33"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="46"/>
-      <c r="N58" s="47"/>
-    </row>
-    <row r="59" spans="1:14">
-      <c r="A59" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H59" s="6">
-        <v>0</v>
-      </c>
-      <c r="I59" s="6">
-        <v>0</v>
-      </c>
-      <c r="J59" s="6">
-        <v>0</v>
-      </c>
-      <c r="K59" s="6">
-        <v>0</v>
-      </c>
-      <c r="L59" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M59" s="4"/>
-      <c r="N59" s="11"/>
-    </row>
-    <row r="60" ht="28.8" spans="1:14">
-      <c r="A60" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="B60" s="43"/>
-      <c r="C60" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E60" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="F60" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="H60" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="I60" s="33">
-        <v>0</v>
-      </c>
-      <c r="J60" s="33">
-        <v>0</v>
-      </c>
-      <c r="K60" s="33">
-        <v>0</v>
-      </c>
-      <c r="L60" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M60" s="33"/>
-      <c r="N60" s="11"/>
+      <c r="K60" s="10">
+        <v>0</v>
+      </c>
+      <c r="L60" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M60" s="44"/>
+      <c r="N60" s="45"/>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="13"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="12"/>
-      <c r="M61" s="14"/>
-      <c r="N61" s="2"/>
-    </row>
-    <row r="62" ht="48" customHeight="1" spans="1:14">
-      <c r="A62" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="B62" s="45"/>
-      <c r="C62" s="19" t="s">
+      <c r="A61" s="32"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="33"/>
+      <c r="J61" s="33"/>
+      <c r="K61" s="33"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="44"/>
+      <c r="N61" s="45"/>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="14"/>
+      <c r="C62" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="F62" s="10" t="s">
         <v>18</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="H62" s="6">
         <v>0</v>
@@ -3922,175 +3977,189 @@
         <v>12</v>
       </c>
       <c r="M62" s="4"/>
-      <c r="N62" s="51"/>
-    </row>
-    <row r="63" ht="28" customHeight="1" spans="1:14">
-      <c r="A63" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="B63" s="45"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="6" t="s">
+      <c r="N62" s="11"/>
+    </row>
+    <row r="63" ht="27" spans="1:14">
+      <c r="A63" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="43"/>
+      <c r="C63" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E63" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H63" s="6">
-        <v>0</v>
-      </c>
-      <c r="I63" s="6">
-        <v>0</v>
-      </c>
-      <c r="J63" s="6">
-        <v>0</v>
-      </c>
-      <c r="K63" s="6">
-        <v>0</v>
-      </c>
-      <c r="L63" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M63" s="4"/>
-      <c r="N63" s="51"/>
-    </row>
-    <row r="64" customFormat="1" ht="28" customHeight="1" spans="1:14">
-      <c r="A64" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="B64" s="45"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H64" s="6">
-        <v>0</v>
-      </c>
-      <c r="I64" s="6">
-        <v>0</v>
-      </c>
-      <c r="J64" s="6">
-        <v>0</v>
-      </c>
-      <c r="K64" s="6">
-        <v>0</v>
-      </c>
-      <c r="L64" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M64" s="4"/>
-      <c r="N64" s="51"/>
-    </row>
-    <row r="65" customFormat="1" ht="28" customHeight="1" spans="1:14">
-      <c r="A65" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="B65" s="45"/>
-      <c r="C65" s="21"/>
+      <c r="E63" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G63" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H63" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="I63" s="33">
+        <v>0</v>
+      </c>
+      <c r="J63" s="33">
+        <v>0</v>
+      </c>
+      <c r="K63" s="33">
+        <v>0</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M63" s="33"/>
+      <c r="N63" s="11"/>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="13"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="14"/>
+      <c r="N64" s="2"/>
+    </row>
+    <row r="65" ht="48" customHeight="1" spans="1:14">
+      <c r="A65" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" s="50"/>
+      <c r="C65" s="19" t="s">
+        <v>15</v>
+      </c>
       <c r="D65" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F65" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F65" s="10" t="s">
         <v>18</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
+        <v>127</v>
+      </c>
+      <c r="H65" s="6">
+        <v>0</v>
+      </c>
+      <c r="I65" s="6">
+        <v>0</v>
+      </c>
+      <c r="J65" s="6">
+        <v>0</v>
+      </c>
+      <c r="K65" s="6">
+        <v>0</v>
+      </c>
+      <c r="L65" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="M65" s="4"/>
-      <c r="N65" s="51"/>
-    </row>
-    <row r="66" customFormat="1" ht="28" customHeight="1" spans="1:14">
-      <c r="A66" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="B66" s="45"/>
+      <c r="N65" s="52"/>
+    </row>
+    <row r="66" ht="28" customHeight="1" spans="1:14">
+      <c r="A66" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" s="50"/>
       <c r="C66" s="21"/>
       <c r="D66" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="H66" s="6">
+        <v>0</v>
+      </c>
+      <c r="I66" s="6">
+        <v>0</v>
+      </c>
+      <c r="J66" s="6">
+        <v>0</v>
+      </c>
+      <c r="K66" s="6">
+        <v>0</v>
+      </c>
+      <c r="L66" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="M66" s="4"/>
-      <c r="N66" s="51"/>
+      <c r="N66" s="52"/>
     </row>
     <row r="67" customFormat="1" ht="28" customHeight="1" spans="1:14">
-      <c r="A67" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="B67" s="45"/>
+      <c r="A67" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="B67" s="50"/>
       <c r="C67" s="21"/>
       <c r="D67" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
-      <c r="L67" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="H67" s="6">
+        <v>0</v>
+      </c>
+      <c r="I67" s="6">
+        <v>0</v>
+      </c>
+      <c r="J67" s="6">
+        <v>0</v>
+      </c>
+      <c r="K67" s="6">
+        <v>0</v>
+      </c>
+      <c r="L67" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="M67" s="4"/>
-      <c r="N67" s="51"/>
+      <c r="N67" s="52"/>
     </row>
     <row r="68" customFormat="1" ht="28" customHeight="1" spans="1:14">
-      <c r="A68" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="B68" s="45"/>
+      <c r="A68" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="B68" s="50"/>
       <c r="C68" s="21"/>
       <c r="D68" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
@@ -4098,25 +4167,25 @@
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
       <c r="M68" s="4"/>
-      <c r="N68" s="51"/>
+      <c r="N68" s="52"/>
     </row>
     <row r="69" customFormat="1" ht="28" customHeight="1" spans="1:14">
-      <c r="A69" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="B69" s="45"/>
+      <c r="A69" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="B69" s="50"/>
       <c r="C69" s="21"/>
       <c r="D69" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
@@ -4124,25 +4193,25 @@
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
       <c r="M69" s="4"/>
-      <c r="N69" s="51"/>
+      <c r="N69" s="52"/>
     </row>
     <row r="70" customFormat="1" ht="28" customHeight="1" spans="1:14">
-      <c r="A70" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="B70" s="45"/>
+      <c r="A70" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="B70" s="50"/>
       <c r="C70" s="21"/>
       <c r="D70" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
@@ -4150,25 +4219,25 @@
       <c r="K70" s="6"/>
       <c r="L70" s="6"/>
       <c r="M70" s="4"/>
-      <c r="N70" s="51"/>
+      <c r="N70" s="52"/>
     </row>
     <row r="71" customFormat="1" ht="28" customHeight="1" spans="1:14">
-      <c r="A71" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="B71" s="45"/>
+      <c r="A71" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="B71" s="50"/>
       <c r="C71" s="21"/>
       <c r="D71" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
@@ -4176,115 +4245,97 @@
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
       <c r="M71" s="4"/>
-      <c r="N71" s="51"/>
-    </row>
-    <row r="72" spans="1:14">
-      <c r="A72" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="B72" s="33"/>
-      <c r="C72" s="33"/>
-      <c r="D72" s="33" t="s">
+      <c r="N71" s="52"/>
+    </row>
+    <row r="72" customFormat="1" ht="28" customHeight="1" spans="1:14">
+      <c r="A72" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="B72" s="50"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E72" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="F72" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="H72" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="I72" s="33">
-        <v>0</v>
-      </c>
-      <c r="J72" s="33">
-        <v>0</v>
-      </c>
-      <c r="K72" s="33">
-        <v>0</v>
-      </c>
-      <c r="L72" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="M72" s="33"/>
-      <c r="N72" s="2"/>
-    </row>
-    <row r="73" spans="1:14">
-      <c r="A73" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="B73" s="33"/>
-      <c r="C73" s="33"/>
-      <c r="D73" s="33" t="s">
+      <c r="E72" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="52"/>
+    </row>
+    <row r="73" customFormat="1" ht="28" customHeight="1" spans="1:14">
+      <c r="A73" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="B73" s="50"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E73" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="F73" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="H73" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="I73" s="33"/>
-      <c r="J73" s="33"/>
-      <c r="K73" s="33"/>
-      <c r="L73" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="M73" s="33"/>
-      <c r="N73" s="2"/>
-    </row>
-    <row r="74" spans="1:14">
-      <c r="A74" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="B74" s="33"/>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33" t="s">
+      <c r="E73" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="52"/>
+    </row>
+    <row r="74" customFormat="1" ht="28" customHeight="1" spans="1:14">
+      <c r="A74" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="B74" s="50"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E74" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F74" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="H74" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="I74" s="33"/>
-      <c r="J74" s="33"/>
-      <c r="K74" s="33"/>
-      <c r="L74" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="M74" s="33"/>
-      <c r="N74" s="2"/>
-    </row>
-    <row r="75" spans="1:12">
-      <c r="A75" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
+      <c r="E74" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="52"/>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B75" s="33"/>
+      <c r="C75" s="33"/>
       <c r="D75" s="33" t="s">
         <v>16</v>
       </c>
       <c r="E75" s="33" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="F75" s="33" t="s">
         <v>18</v>
@@ -4295,46 +4346,139 @@
       <c r="H75" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="I75" s="33"/>
-      <c r="J75" s="33"/>
-      <c r="K75" s="33"/>
+      <c r="I75" s="33">
+        <v>0</v>
+      </c>
+      <c r="J75" s="33">
+        <v>0</v>
+      </c>
+      <c r="K75" s="33">
+        <v>0</v>
+      </c>
       <c r="L75" s="33" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="76" spans="1:12">
-      <c r="A76" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D76" s="52" t="s">
+      <c r="M75" s="33"/>
+      <c r="N75" s="2"/>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="B76" s="33"/>
+      <c r="C76" s="33"/>
+      <c r="D76" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E76" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="F76" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" s="52" t="s">
+      <c r="E76" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="F76" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G76" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H76" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I76" s="33"/>
+      <c r="J76" s="33"/>
+      <c r="K76" s="33"/>
+      <c r="L76" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="M76" s="33"/>
+      <c r="N76" s="2"/>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="B77" s="33"/>
+      <c r="C77" s="33"/>
+      <c r="D77" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E77" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G77" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H77" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I77" s="33"/>
+      <c r="J77" s="33"/>
+      <c r="K77" s="33"/>
+      <c r="L77" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="M77" s="33"/>
+      <c r="N77" s="2"/>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E78" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="F78" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G78" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I78" s="33"/>
+      <c r="J78" s="33"/>
+      <c r="K78" s="33"/>
+      <c r="L78" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D79" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E79" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="F79" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="G79" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="H76" s="52" t="s">
+      <c r="H79" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="I76" s="52"/>
-      <c r="J76" s="52"/>
-      <c r="K76" s="52"/>
-      <c r="L76" s="52"/>
+      <c r="I79" s="51"/>
+      <c r="J79" s="51"/>
+      <c r="K79" s="51"/>
+      <c r="L79" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A33:L33"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:M61"/>
+    <mergeCell ref="A36:L36"/>
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A64:M64"/>
     <mergeCell ref="A65:B65"/>
     <mergeCell ref="A66:B66"/>
     <mergeCell ref="A67:B67"/>
@@ -4347,35 +4491,38 @@
     <mergeCell ref="A74:B74"/>
     <mergeCell ref="A75:B75"/>
     <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
     <mergeCell ref="A3:A24"/>
     <mergeCell ref="B3:B9"/>
     <mergeCell ref="B10:B17"/>
     <mergeCell ref="B19:B24"/>
-    <mergeCell ref="B26:B32"/>
-    <mergeCell ref="B34:B50"/>
-    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="B26:B35"/>
+    <mergeCell ref="B37:B53"/>
+    <mergeCell ref="B56:B60"/>
     <mergeCell ref="C3:C24"/>
-    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="C65:C67"/>
     <mergeCell ref="D3:D9"/>
     <mergeCell ref="D10:D17"/>
     <mergeCell ref="D19:D24"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="D57:D60"/>
     <mergeCell ref="E3:E9"/>
     <mergeCell ref="E10:E17"/>
     <mergeCell ref="E19:E24"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="E57:E60"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="F57:F60"/>
     <mergeCell ref="G3:G9"/>
     <mergeCell ref="G10:G17"/>
     <mergeCell ref="G19:G24"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G54:G57"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="G57:G60"/>
     <mergeCell ref="H19:H22"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="H57:H60"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4386,24 +4533,24 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T30"/>
+  <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O7" sqref="O7"/>
+      <selection pane="bottomLeft" activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="17.25" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="13.6296296296296" customWidth="1"/>
+    <col min="5" max="5" width="13.6333333333333" customWidth="1"/>
     <col min="6" max="7" width="17.5" customWidth="1"/>
-    <col min="8" max="8" width="10.8796296296296" customWidth="1"/>
+    <col min="8" max="8" width="10.8833333333333" customWidth="1"/>
     <col min="9" max="9" width="17.5" customWidth="1"/>
-    <col min="14" max="14" width="10.2222222222222" customWidth="1"/>
+    <col min="14" max="14" width="10.225" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -4477,22 +4624,22 @@
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>12</v>
@@ -4504,10 +4651,10 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="72" spans="1:18">
+    <row r="3" s="1" customFormat="1" ht="67.5" spans="1:18">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>18</v>
@@ -4516,34 +4663,34 @@
         <v>17</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="M3" s="5">
         <v>0</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>12</v>
@@ -4552,10 +4699,10 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="72" spans="1:18">
+    <row r="4" s="1" customFormat="1" ht="67.5" spans="1:18">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>18</v>
@@ -4564,37 +4711,37 @@
         <v>17</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="H4" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="O4" s="16" t="s">
         <v>155</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="O4" s="16" t="s">
-        <v>148</v>
       </c>
       <c r="P4" s="16" t="s">
         <v>12</v>
@@ -4605,7 +4752,7 @@
     <row r="5" spans="1:18">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>18</v>
@@ -4614,7 +4761,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>50</v>
@@ -4637,7 +4784,7 @@
     <row r="6" spans="1:18">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>18</v>
@@ -4649,7 +4796,7 @@
         <v>65</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>12</v>
@@ -4666,7 +4813,7 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:22">
       <c r="A7" s="4"/>
       <c r="B7" s="6" t="s">
         <v>63</v>
@@ -4684,42 +4831,58 @@
         <v>65</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>169</v>
+        <v>173</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>175</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="S7" t="s">
+        <v>179</v>
+      </c>
+      <c r="T7" t="s">
+        <v>179</v>
+      </c>
+      <c r="U7" t="s">
+        <v>180</v>
+      </c>
+      <c r="V7" s="16" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>18</v>
@@ -4731,31 +4894,31 @@
         <v>65</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>12</v>
@@ -4764,10 +4927,10 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" ht="28.8" spans="1:20">
+    <row r="9" ht="27" spans="1:20">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>18</v>
@@ -4776,58 +4939,58 @@
         <v>17</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="J9" s="5">
         <v>0</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="T9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="10" ht="28.8" spans="1:18">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" ht="27" spans="1:18">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>18</v>
@@ -4836,22 +4999,22 @@
         <v>17</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>48</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -4865,7 +5028,7 @@
     <row r="11" spans="1:18">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>18</v>
@@ -4874,13 +5037,13 @@
         <v>17</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -4914,9 +5077,9 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
     </row>
-    <row r="13" ht="28.8" spans="1:18">
+    <row r="13" ht="27" spans="1:18">
       <c r="A13" s="7" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="4" t="s">
@@ -4926,16 +5089,16 @@
         <v>19</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>36</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>12</v>
@@ -4953,7 +5116,7 @@
     <row r="14" spans="1:18">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>18</v>
@@ -4962,13 +5125,13 @@
         <v>19</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>12</v>
@@ -4992,7 +5155,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>12</v>
@@ -5011,7 +5174,7 @@
     <row r="16" spans="1:18">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>18</v>
@@ -5020,13 +5183,13 @@
         <v>36</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>12</v>
@@ -5045,7 +5208,7 @@
     <row r="17" spans="1:18">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>18</v>
@@ -5054,19 +5217,19 @@
         <v>50</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>12</v>
@@ -5080,42 +5243,42 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
     </row>
-    <row r="18" ht="28.8" spans="1:18">
+    <row r="18" ht="27" spans="1:18">
       <c r="A18" s="10" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="M18" s="6" t="s">
         <v>12</v>
@@ -5126,43 +5289,43 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
     </row>
-    <row r="19" ht="28.8" spans="1:18">
+    <row r="19" ht="27" spans="1:18">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>65</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="N19" s="4" t="s">
         <v>12</v>
@@ -5172,10 +5335,10 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
     </row>
-    <row r="20" ht="28.8" spans="1:18">
+    <row r="20" ht="27" spans="1:18">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>18</v>
@@ -5184,13 +5347,13 @@
         <v>65</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>12</v>
@@ -5209,28 +5372,28 @@
     <row r="21" spans="1:18">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>12</v>
@@ -5246,35 +5409,35 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="7" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>12</v>
@@ -5286,10 +5449,10 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
     </row>
-    <row r="23" ht="43.2" spans="1:18">
+    <row r="23" ht="40.5" spans="1:18">
       <c r="A23" s="2"/>
       <c r="B23" s="11" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>18</v>
@@ -5298,22 +5461,22 @@
         <v>48</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>12</v>
@@ -5346,22 +5509,22 @@
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
     </row>
-    <row r="25" ht="43.2" spans="1:18">
+    <row r="25" ht="40.5" spans="1:18">
       <c r="A25" s="2"/>
       <c r="B25" s="12" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>12</v>
@@ -5378,22 +5541,22 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
     </row>
-    <row r="26" ht="43.2" spans="1:18">
+    <row r="26" ht="40.5" spans="1:18">
       <c r="A26" s="2"/>
       <c r="B26" s="10" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>12</v>
@@ -5413,25 +5576,25 @@
     <row r="27" spans="1:18">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>12</v>
@@ -5446,19 +5609,19 @@
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
     </row>
-    <row r="28" ht="100.8" spans="1:18">
+    <row r="28" ht="67.5" spans="1:18">
       <c r="A28" s="13" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>12</v>

--- a/LG-06 Protocol V1.0.xlsx
+++ b/LG-06 Protocol V1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="controller to motor" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="245">
   <si>
     <t>byte:</t>
   </si>
@@ -139,6 +139,9 @@
 0x00:off</t>
   </si>
   <si>
+    <t>0x08快门开关</t>
+  </si>
+  <si>
     <t>延时拍摄</t>
   </si>
   <si>
@@ -327,10 +330,13 @@
     <t>0x04快门速度</t>
   </si>
   <si>
+    <t>低位</t>
+  </si>
+  <si>
     <t>0x05缓停时间</t>
   </si>
   <si>
-    <t>定时</t>
+    <t>0-99</t>
   </si>
   <si>
     <t>模式ID</t>
@@ -375,13 +381,10 @@
     <t>0x0d</t>
   </si>
   <si>
-    <t>快门关闭后的等待时间</t>
+    <t>快门关闭后的等待时间，单位毫秒500-65000</t>
   </si>
   <si>
     <t>0x0e延时时间</t>
-  </si>
-  <si>
-    <t>0-99</t>
   </si>
   <si>
     <t>0x0f转速档位</t>
@@ -618,16 +621,28 @@
     <t>快门次数</t>
   </si>
   <si>
-    <t>曝光</t>
-  </si>
-  <si>
-    <t>间隔</t>
-  </si>
-  <si>
-    <t>延时时间</t>
+    <t>曝光-低位</t>
+  </si>
+  <si>
+    <t>间隔-低位</t>
+  </si>
+  <si>
+    <t>定时</t>
+  </si>
+  <si>
+    <t>延时时间-低位</t>
   </si>
   <si>
     <t>速度档位</t>
+  </si>
+  <si>
+    <t>曝光-高位</t>
+  </si>
+  <si>
+    <t>间隔-高位</t>
+  </si>
+  <si>
+    <t>延时时间-高位</t>
   </si>
   <si>
     <t>预设总数ID</t>
@@ -956,7 +971,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -978,6 +993,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1425,7 +1452,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1449,16 +1476,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1467,89 +1494,89 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1597,6 +1624,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1621,6 +1658,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1657,41 +1700,62 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2058,12 +2122,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N79"/>
+  <dimension ref="A1:N81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I29" sqref="I29"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2085,35 +2149,35 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:14">
-      <c r="A1" s="17"/>
-      <c r="C1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="18">
-        <v>0</v>
-      </c>
-      <c r="E1" s="18">
+      <c r="A1" s="21"/>
+      <c r="C1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="22">
+        <v>0</v>
+      </c>
+      <c r="E1" s="22">
         <v>1</v>
       </c>
-      <c r="F1" s="18">
+      <c r="F1" s="22">
         <v>2</v>
       </c>
-      <c r="G1" s="18">
+      <c r="G1" s="22">
         <v>3</v>
       </c>
-      <c r="H1" s="18">
+      <c r="H1" s="22">
         <v>4</v>
       </c>
-      <c r="I1" s="18">
+      <c r="I1" s="22">
         <v>5</v>
       </c>
-      <c r="J1" s="18">
+      <c r="J1" s="22">
         <v>6</v>
       </c>
-      <c r="K1" s="18">
+      <c r="K1" s="22">
         <v>7</v>
       </c>
-      <c r="L1" s="18">
+      <c r="L1" s="22">
         <v>8</v>
       </c>
       <c r="M1" s="3"/>
@@ -2160,25 +2224,25 @@
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="24" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="23" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="11" t="s">
@@ -2200,19 +2264,19 @@
       <c r="N3" s="14"/>
     </row>
     <row r="4" ht="27" spans="1:14">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="21"/>
+      <c r="G4" s="25"/>
       <c r="H4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="39" t="s">
         <v>25</v>
       </c>
       <c r="J4" s="16">
@@ -2228,15 +2292,15 @@
       <c r="N4" s="14"/>
     </row>
     <row r="5" ht="27" spans="1:14">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="21"/>
+      <c r="G5" s="25"/>
       <c r="H5" s="11" t="s">
         <v>26</v>
       </c>
@@ -2256,15 +2320,15 @@
       <c r="N5" s="14"/>
     </row>
     <row r="6" ht="27" spans="1:14">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="21"/>
+      <c r="G6" s="25"/>
       <c r="H6" s="11" t="s">
         <v>28</v>
       </c>
@@ -2284,15 +2348,15 @@
       <c r="N6" s="14"/>
     </row>
     <row r="7" ht="27" spans="1:14">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
       <c r="F7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="21"/>
+      <c r="G7" s="25"/>
       <c r="H7" s="5" t="s">
         <v>29</v>
       </c>
@@ -2312,15 +2376,15 @@
       <c r="N7" s="14"/>
     </row>
     <row r="8" ht="27" spans="1:14">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="26"/>
       <c r="F8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="21"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="5" t="s">
         <v>31</v>
       </c>
@@ -2340,15 +2404,15 @@
       <c r="N8" s="14"/>
     </row>
     <row r="9" ht="27" spans="1:14">
-      <c r="A9" s="21"/>
-      <c r="B9" s="23"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="23"/>
+      <c r="G9" s="27"/>
       <c r="H9" s="5" t="s">
         <v>33</v>
       </c>
@@ -2367,88 +2431,74 @@
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
     </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="21"/>
-      <c r="B10" s="19" t="s">
+    <row r="10" ht="27" spans="1:14">
+      <c r="A10" s="25"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-      <c r="L10" s="4" t="s">
+      <c r="I10" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="47">
+        <v>0</v>
+      </c>
+      <c r="K10" s="47">
+        <v>0</v>
+      </c>
+      <c r="L10" s="47" t="s">
         <v>12</v>
       </c>
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="D11" s="29"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="4"/>
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="23" t="s">
+        <v>36</v>
+      </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="26"/>
+      <c r="D12" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="F12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="21"/>
+      <c r="G12" s="23" t="s">
+        <v>37</v>
+      </c>
       <c r="H12" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
@@ -2459,24 +2509,24 @@
       <c r="M12" s="14"/>
       <c r="N12" s="14"/>
     </row>
-    <row r="13" ht="27" spans="1:14">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
+    <row r="13" spans="1:14">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="26"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="32"/>
       <c r="F13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="21"/>
+      <c r="G13" s="25"/>
       <c r="H13" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="K13" s="2">
         <v>0</v>
@@ -2487,24 +2537,24 @@
       <c r="M13" s="14"/>
       <c r="N13" s="14"/>
     </row>
-    <row r="14" ht="27" spans="1:14">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
+    <row r="14" spans="1:14">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="26"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="32"/>
       <c r="F14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="11" t="s">
-        <v>44</v>
+      <c r="G14" s="25"/>
+      <c r="H14" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
@@ -2516,20 +2566,20 @@
       <c r="N14" s="14"/>
     </row>
     <row r="15" ht="27" spans="1:14">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="26"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="32"/>
       <c r="F15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="21"/>
+      <c r="G15" s="25"/>
       <c r="H15" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="J15" s="2">
         <v>0</v>
@@ -2544,20 +2594,20 @@
       <c r="N15" s="14"/>
     </row>
     <row r="16" ht="27" spans="1:14">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="26"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="32"/>
       <c r="F16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="5" t="s">
-        <v>47</v>
+      <c r="G16" s="25"/>
+      <c r="H16" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="J16" s="2">
         <v>0</v>
@@ -2571,25 +2621,27 @@
       <c r="M16" s="14"/>
       <c r="N16" s="14"/>
     </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="21"/>
-      <c r="B17" s="23"/>
+    <row r="17" ht="27" spans="1:14">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="23"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="25"/>
       <c r="H17" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>12</v>
@@ -2597,106 +2649,114 @@
       <c r="M17" s="14"/>
       <c r="N17" s="14"/>
     </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="21"/>
-      <c r="B18" s="23"/>
+    <row r="18" ht="27" spans="1:14">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="4"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="25"/>
+      <c r="H18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="M18" s="14"/>
       <c r="N18" s="14"/>
     </row>
-    <row r="19" ht="54" spans="1:14">
-      <c r="A19" s="21"/>
-      <c r="B19" s="2" t="s">
+    <row r="19" spans="1:14">
+      <c r="A19" s="25"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H19" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K19" s="6">
-        <v>0</v>
-      </c>
-      <c r="L19" s="6" t="s">
+      <c r="I19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19" s="4" t="s">
         <v>12</v>
       </c>
       <c r="M19" s="14"/>
       <c r="N19" s="14"/>
     </row>
-    <row r="20" ht="54" spans="1:14">
-      <c r="A20" s="21"/>
-      <c r="B20" s="2"/>
+    <row r="20" spans="1:14">
+      <c r="A20" s="25"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="D20" s="27"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="4"/>
       <c r="M20" s="14"/>
       <c r="N20" s="14"/>
     </row>
     <row r="21" ht="54" spans="1:14">
-      <c r="A21" s="21"/>
-      <c r="B21" s="2"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F21" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="30"/>
+      <c r="G21" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="35" t="s">
+        <v>52</v>
+      </c>
       <c r="I21" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="K21" s="6">
+        <v>0</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="M21" s="14"/>
       <c r="N21" s="14"/>
     </row>
-    <row r="22" ht="81" spans="1:14">
-      <c r="A22" s="21"/>
+    <row r="22" ht="54" spans="1:14">
+      <c r="A22" s="25"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -2705,20 +2765,22 @@
         <v>18</v>
       </c>
       <c r="G22" s="6"/>
-      <c r="H22" s="31"/>
+      <c r="H22" s="36"/>
       <c r="I22" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
+      <c r="L22" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="M22" s="14"/>
       <c r="N22" s="14"/>
     </row>
     <row r="23" ht="54" spans="1:14">
-      <c r="A23" s="21"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2727,26 +2789,20 @@
         <v>18</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="10" t="s">
-        <v>60</v>
-      </c>
+      <c r="H23" s="36"/>
       <c r="I23" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="J23" s="6">
-        <v>0</v>
-      </c>
-      <c r="K23" s="6">
-        <v>0</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>12</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
       <c r="M23" s="14"/>
       <c r="N23" s="14"/>
     </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="21"/>
+    <row r="24" ht="81" spans="1:14">
+      <c r="A24" s="25"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -2755,119 +2811,97 @@
         <v>18</v>
       </c>
       <c r="G24" s="6"/>
-      <c r="H24" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J24" s="6">
-        <v>0</v>
-      </c>
-      <c r="K24" s="6">
-        <v>0</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M24" s="44"/>
-      <c r="N24" s="45"/>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="32"/>
-      <c r="B25" s="14"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+    </row>
+    <row r="25" ht="54" spans="1:14">
+      <c r="A25" s="25"/>
+      <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="45"/>
+      <c r="F25" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J25" s="6">
+        <v>0</v>
+      </c>
+      <c r="K25" s="6">
+        <v>0</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="13"/>
-      <c r="B26" s="34" t="s">
+      <c r="A26" s="25"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K26" s="4">
-        <v>0</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M26" s="44"/>
-      <c r="N26" s="45"/>
+      <c r="I26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" s="6">
+        <v>0</v>
+      </c>
+      <c r="K26" s="6">
+        <v>0</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M26" s="55"/>
+      <c r="N26" s="56"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="13"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J27" s="4">
-        <v>0</v>
-      </c>
-      <c r="K27" s="4">
-        <v>0</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M27" s="44"/>
-      <c r="N27" s="45"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="56"/>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="13"/>
-      <c r="B28" s="15"/>
+      <c r="B28" s="40" t="s">
+        <v>64</v>
+      </c>
       <c r="C28" s="8" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>16</v>
@@ -2879,16 +2913,16 @@
         <v>18</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>74</v>
+        <v>67</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="K28" s="4">
         <v>0</v>
@@ -2896,13 +2930,15 @@
       <c r="L28" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M28" s="44"/>
-      <c r="N28" s="45"/>
-    </row>
-    <row r="29" ht="27" spans="1:14">
+      <c r="M28" s="55"/>
+      <c r="N28" s="56"/>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="13"/>
       <c r="B29" s="15"/>
-      <c r="C29" s="8"/>
+      <c r="C29" s="8" t="s">
+        <v>70</v>
+      </c>
       <c r="D29" s="4" t="s">
         <v>16</v>
       </c>
@@ -2913,15 +2949,15 @@
         <v>18</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J29" s="5">
+        <v>71</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J29" s="4">
         <v>0</v>
       </c>
       <c r="K29" s="4">
@@ -2930,13 +2966,15 @@
       <c r="L29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M29" s="44"/>
-      <c r="N29" s="45"/>
-    </row>
-    <row r="30" ht="27" spans="1:14">
+      <c r="M29" s="55"/>
+      <c r="N29" s="56"/>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="13"/>
       <c r="B30" s="15"/>
-      <c r="C30" s="8"/>
+      <c r="C30" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="D30" s="4" t="s">
         <v>16</v>
       </c>
@@ -2947,16 +2985,16 @@
         <v>18</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="J30" s="5">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="K30" s="4">
         <v>0</v>
@@ -2964,8 +3002,8 @@
       <c r="L30" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M30" s="44"/>
-      <c r="N30" s="45"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="56"/>
     </row>
     <row r="31" ht="27" spans="1:14">
       <c r="A31" s="13"/>
@@ -2981,13 +3019,13 @@
         <v>18</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="J31" s="5">
         <v>0</v>
@@ -2998,8 +3036,8 @@
       <c r="L31" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M31" s="44"/>
-      <c r="N31" s="45"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="56"/>
     </row>
     <row r="32" ht="27" spans="1:14">
       <c r="A32" s="13"/>
@@ -3015,13 +3053,13 @@
         <v>18</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="J32" s="5">
         <v>0</v>
@@ -3032,15 +3070,13 @@
       <c r="L32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M32" s="44"/>
-      <c r="N32" s="45"/>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="32"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="56"/>
+    </row>
+    <row r="33" ht="27" spans="1:14">
+      <c r="A33" s="13"/>
       <c r="B33" s="15"/>
-      <c r="C33" s="8" t="s">
-        <v>72</v>
-      </c>
+      <c r="C33" s="8"/>
       <c r="D33" s="4" t="s">
         <v>16</v>
       </c>
@@ -3051,16 +3087,16 @@
         <v>18</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>75</v>
+        <v>79</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J33" s="5">
+        <v>0</v>
       </c>
       <c r="K33" s="4">
         <v>0</v>
@@ -3068,15 +3104,13 @@
       <c r="L33" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M33" s="44"/>
-      <c r="N33" s="45"/>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="32"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="56"/>
+    </row>
+    <row r="34" ht="27" spans="1:14">
+      <c r="A34" s="13"/>
       <c r="B34" s="15"/>
-      <c r="C34" s="8" t="s">
-        <v>72</v>
-      </c>
+      <c r="C34" s="8"/>
       <c r="D34" s="4" t="s">
         <v>16</v>
       </c>
@@ -3087,16 +3121,16 @@
         <v>18</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>75</v>
+        <v>80</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J34" s="5">
+        <v>0</v>
       </c>
       <c r="K34" s="4">
         <v>0</v>
@@ -3104,13 +3138,15 @@
       <c r="L34" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M34" s="44"/>
-      <c r="N34" s="45"/>
+      <c r="M34" s="55"/>
+      <c r="N34" s="56"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="32"/>
+      <c r="A35" s="38"/>
       <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
+      <c r="C35" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="D35" s="4" t="s">
         <v>16</v>
       </c>
@@ -3121,776 +3157,802 @@
         <v>18</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H35" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K35" s="4">
+        <v>0</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M35" s="55"/>
+      <c r="N35" s="56"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="38"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H36" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="I35" s="11" t="s">
+      <c r="I36" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K36" s="4">
+        <v>0</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M36" s="55"/>
+      <c r="N36" s="56"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="38"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H37" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="J35" s="5">
-        <v>0</v>
-      </c>
-      <c r="K35" s="4">
-        <v>0</v>
-      </c>
-      <c r="L35" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M35" s="44"/>
-      <c r="N35" s="45"/>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="35"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="47"/>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="32"/>
-      <c r="B37" s="36" t="s">
+      <c r="I37" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37" t="s">
+      <c r="J37" s="5">
+        <v>0</v>
+      </c>
+      <c r="K37" s="4">
+        <v>0</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M37" s="55"/>
+      <c r="N37" s="56"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="41"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="58"/>
+      <c r="N38" s="58"/>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="38"/>
+      <c r="B39" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="37" t="s">
+      <c r="E39" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="H37" s="37" t="s">
+      <c r="F39" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="I37" s="31" t="s">
+      <c r="H39" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="J37" s="31" t="s">
+      <c r="I39" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="K37" s="31" t="s">
+      <c r="J39" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="L37" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="M37" s="44"/>
-      <c r="N37" s="45"/>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="A38" s="32"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6" t="s">
+      <c r="K39" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="L39" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="M39" s="55"/>
+      <c r="N39" s="56"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="38"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E40" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="F38" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H38" s="6" t="s">
+      <c r="F40" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="H40" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="I40" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="J40" s="46">
+        <v>0</v>
+      </c>
+      <c r="K40" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="I38" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="J38" s="10">
-        <v>0</v>
-      </c>
-      <c r="K38" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="L38" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M38" s="44"/>
-      <c r="N38" s="45"/>
-    </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="32"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6" t="s">
+      <c r="L40" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="M40" s="55"/>
+      <c r="N40" s="56"/>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="38"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E41" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="F39" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I39" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="J39" s="10">
-        <v>0</v>
-      </c>
-      <c r="K39" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="L39" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M39" s="44"/>
-      <c r="N39" s="45"/>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="A40" s="32"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6" t="s">
+      <c r="F41" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="H41" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="I41" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="J41" s="46">
+        <v>0</v>
+      </c>
+      <c r="K41" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="L41" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="M41" s="55"/>
+      <c r="N41" s="56"/>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="38"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E42" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="F40" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="I40" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="J40" s="10">
-        <v>0</v>
-      </c>
-      <c r="K40" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="L40" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M40" s="44"/>
-      <c r="N40" s="45"/>
-    </row>
-    <row r="41" spans="1:14">
-      <c r="A41" s="32"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6" t="s">
+      <c r="F42" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="H42" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="I42" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="J42" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="K42" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="L42" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="M42" s="55"/>
+      <c r="N42" s="56"/>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="38"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E43" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="I41" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="J41" s="10">
-        <v>0</v>
-      </c>
-      <c r="K41" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="L41" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M41" s="44"/>
-      <c r="N41" s="45"/>
-    </row>
-    <row r="42" spans="1:14">
-      <c r="A42" s="32"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6" t="s">
+      <c r="F43" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="H43" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="I43" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="J43" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="K43" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="L43" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="M43" s="55"/>
+      <c r="N43" s="56"/>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="38"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E44" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="F42" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="I42" s="10" t="s">
+      <c r="F44" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="H44" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="I44" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="J44" s="17">
+        <v>0</v>
+      </c>
+      <c r="K44" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="L44" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="M44" s="55"/>
+      <c r="N44" s="56"/>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="38"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="H45" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="I45" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="J45" s="46">
+        <v>0</v>
+      </c>
+      <c r="K45" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="L45" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="M45" s="55"/>
+      <c r="N45" s="56"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="38"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="H46" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="I46" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="J46" s="46">
+        <v>0</v>
+      </c>
+      <c r="K46" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="L46" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="M46" s="55"/>
+      <c r="N46" s="56"/>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="38"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="H47" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="I47" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="J47" s="46">
+        <v>0</v>
+      </c>
+      <c r="K47" s="46">
+        <v>0</v>
+      </c>
+      <c r="L47" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="M47" s="55"/>
+      <c r="N47" s="56"/>
+    </row>
+    <row r="48" ht="27" spans="1:14">
+      <c r="A48" s="38"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="H48" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="I48" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="J48" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="K48" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="L48" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="M48" s="55"/>
+      <c r="N48" s="56"/>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="38"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="H49" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="I49" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="J49" s="46">
+        <v>0</v>
+      </c>
+      <c r="K49" s="46">
+        <v>0</v>
+      </c>
+      <c r="L49" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="M49" s="55"/>
+      <c r="N49" s="56"/>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="38"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="D50" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="H50" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="I50" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="J50" s="46">
+        <v>0</v>
+      </c>
+      <c r="K50" s="46">
+        <v>0</v>
+      </c>
+      <c r="L50" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="M50" s="55"/>
+      <c r="N50" s="56"/>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="38"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="D51" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="H51" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="I51" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="J51" s="46">
+        <v>0</v>
+      </c>
+      <c r="K51" s="46">
+        <v>0</v>
+      </c>
+      <c r="L51" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="M51" s="55"/>
+      <c r="N51" s="56"/>
+    </row>
+    <row r="52" ht="40.5" spans="1:14">
+      <c r="A52" s="38"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D52" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="H52" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="I52" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="J42" s="10">
-        <v>0</v>
-      </c>
-      <c r="K42" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="L42" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M42" s="44"/>
-      <c r="N42" s="45"/>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="A43" s="32"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6" t="s">
+      <c r="J52" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="K52" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="L52" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="M52" s="55"/>
+      <c r="N52" s="56"/>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="38"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E53" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="F43" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="I43" s="10" t="s">
+      <c r="F53" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="H53" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="I53" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="J53" s="46">
+        <v>0</v>
+      </c>
+      <c r="K53" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="J43" s="10">
-        <v>0</v>
-      </c>
-      <c r="K43" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="L43" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M43" s="44"/>
-      <c r="N43" s="45"/>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="A44" s="32"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6" t="s">
+      <c r="L53" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="M53" s="55"/>
+      <c r="N53" s="56"/>
+    </row>
+    <row r="54" customFormat="1" ht="54" spans="1:14">
+      <c r="A54" s="38"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E54" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="F44" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I44" s="10" t="s">
+      <c r="F54" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="H54" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="I54" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="J54" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="K54" s="46">
+        <v>0</v>
+      </c>
+      <c r="L54" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="M54" s="55"/>
+      <c r="N54" s="56"/>
+    </row>
+    <row r="55" customFormat="1" ht="54" spans="1:14">
+      <c r="A55" s="38"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="J55" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="K55" s="46">
+        <v>0</v>
+      </c>
+      <c r="L55" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="M55" s="55"/>
+      <c r="N55" s="56"/>
+    </row>
+    <row r="56" customFormat="1" ht="27" spans="1:14">
+      <c r="A56" s="38"/>
+      <c r="B56" s="50"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="H56" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="I56" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="J56" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="K56" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="L56" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="M56" s="55"/>
+      <c r="N56" s="56"/>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="38"/>
+      <c r="B57" s="51"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="55"/>
+      <c r="N57" s="56"/>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="38"/>
+      <c r="B58" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="J44" s="10">
-        <v>0</v>
-      </c>
-      <c r="K44" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="L44" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M44" s="44"/>
-      <c r="N44" s="45"/>
-    </row>
-    <row r="45" spans="1:14">
-      <c r="A45" s="32"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I45" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="J45" s="10">
-        <v>0</v>
-      </c>
-      <c r="K45" s="10">
-        <v>0</v>
-      </c>
-      <c r="L45" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M45" s="44"/>
-      <c r="N45" s="45"/>
-    </row>
-    <row r="46" ht="27" spans="1:14">
-      <c r="A46" s="32"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="I46" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="J46" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="K46" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L46" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M46" s="44"/>
-      <c r="N46" s="45"/>
-    </row>
-    <row r="47" spans="1:14">
-      <c r="A47" s="32"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I47" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="J47" s="10">
-        <v>0</v>
-      </c>
-      <c r="K47" s="10">
-        <v>0</v>
-      </c>
-      <c r="L47" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M47" s="44"/>
-      <c r="N47" s="45"/>
-    </row>
-    <row r="48" spans="1:14">
-      <c r="A48" s="32"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="I48" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="J48" s="10">
-        <v>0</v>
-      </c>
-      <c r="K48" s="10">
-        <v>0</v>
-      </c>
-      <c r="L48" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M48" s="44"/>
-      <c r="N48" s="45"/>
-    </row>
-    <row r="49" spans="1:14">
-      <c r="A49" s="32"/>
-      <c r="B49" s="36"/>
-      <c r="C49" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="I49" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="J49" s="10">
-        <v>0</v>
-      </c>
-      <c r="K49" s="10">
-        <v>0</v>
-      </c>
-      <c r="L49" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M49" s="44"/>
-      <c r="N49" s="45"/>
-    </row>
-    <row r="50" spans="1:14">
-      <c r="A50" s="32"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="I50" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="J50" s="10">
-        <v>0</v>
-      </c>
-      <c r="K50" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="L50" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M50" s="44"/>
-      <c r="N50" s="45"/>
-    </row>
-    <row r="51" spans="1:14">
-      <c r="A51" s="32"/>
-      <c r="B51" s="36"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="I51" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="J51" s="10">
-        <v>0</v>
-      </c>
-      <c r="K51" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="L51" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M51" s="44"/>
-      <c r="N51" s="45"/>
-    </row>
-    <row r="52" customFormat="1" ht="54" spans="1:14">
-      <c r="A52" s="32"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="E52" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F52" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="H52" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="I52" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="J52" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K52" s="10">
-        <v>0</v>
-      </c>
-      <c r="L52" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M52" s="44"/>
-      <c r="N52" s="45"/>
-    </row>
-    <row r="53" customFormat="1" ht="54" spans="1:14">
-      <c r="A53" s="32"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="37"/>
-      <c r="I53" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J53" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="K53" s="10">
-        <v>0</v>
-      </c>
-      <c r="L53" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M53" s="44"/>
-      <c r="N53" s="45"/>
-    </row>
-    <row r="54" customFormat="1" ht="27" spans="1:14">
-      <c r="A54" s="32"/>
-      <c r="B54" s="39"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="I54" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="J54" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="K54" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="L54" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M54" s="44"/>
-      <c r="N54" s="45"/>
-    </row>
-    <row r="55" spans="1:14">
-      <c r="A55" s="32"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="44"/>
-      <c r="N55" s="45"/>
-    </row>
-    <row r="56" spans="1:14">
-      <c r="A56" s="32"/>
-      <c r="B56" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="H56" s="6" t="s">
+      <c r="H58" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I56" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="6"/>
-      <c r="M56" s="44"/>
-      <c r="N56" s="45"/>
-    </row>
-    <row r="57" ht="54" spans="1:14">
-      <c r="A57" s="32"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="E57" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="F57" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="H57" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="I57" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="J57" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K57" s="10">
-        <v>0</v>
-      </c>
-      <c r="L57" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M57" s="44"/>
-      <c r="N57" s="45"/>
-    </row>
-    <row r="58" ht="54" spans="1:14">
-      <c r="A58" s="32"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="41"/>
-      <c r="H58" s="41"/>
       <c r="I58" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J58" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="K58" s="10">
-        <v>0</v>
-      </c>
-      <c r="L58" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M58" s="44"/>
-      <c r="N58" s="45"/>
+        <v>122</v>
+      </c>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="55"/>
+      <c r="N58" s="56"/>
     </row>
     <row r="59" ht="54" spans="1:14">
-      <c r="A59" s="32"/>
+      <c r="A59" s="38"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
-      <c r="D59" s="41"/>
-      <c r="E59" s="41"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="41"/>
-      <c r="H59" s="41"/>
+      <c r="D59" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="H59" s="52" t="s">
+        <v>37</v>
+      </c>
       <c r="I59" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J59" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K59" s="10">
         <v>0</v>
@@ -3898,232 +3960,208 @@
       <c r="L59" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M59" s="44"/>
-      <c r="N59" s="45"/>
-    </row>
-    <row r="60" ht="81" spans="1:14">
-      <c r="A60" s="32"/>
+      <c r="M59" s="55"/>
+      <c r="N59" s="56"/>
+    </row>
+    <row r="60" ht="54" spans="1:14">
+      <c r="A60" s="38"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="37"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="37"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="53"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="53"/>
+      <c r="H60" s="53"/>
       <c r="I60" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J60" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="K60" s="10">
+        <v>0</v>
+      </c>
+      <c r="L60" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M60" s="55"/>
+      <c r="N60" s="56"/>
+    </row>
+    <row r="61" ht="54" spans="1:14">
+      <c r="A61" s="38"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="53"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="53"/>
+      <c r="H61" s="53"/>
+      <c r="I61" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J61" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="J60" s="10" t="s">
+      <c r="K61" s="10">
+        <v>0</v>
+      </c>
+      <c r="L61" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M61" s="55"/>
+      <c r="N61" s="56"/>
+    </row>
+    <row r="62" ht="81" spans="1:14">
+      <c r="A62" s="38"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="54"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="54"/>
+      <c r="I62" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="K60" s="10">
-        <v>0</v>
-      </c>
-      <c r="L60" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M60" s="44"/>
-      <c r="N60" s="45"/>
-    </row>
-    <row r="61" spans="1:14">
-      <c r="A61" s="32"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="33"/>
-      <c r="J61" s="33"/>
-      <c r="K61" s="33"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="44"/>
-      <c r="N61" s="45"/>
-    </row>
-    <row r="62" spans="1:14">
-      <c r="A62" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="2" t="s">
+      <c r="J62" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K62" s="10">
+        <v>0</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M62" s="55"/>
+      <c r="N62" s="56"/>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="38"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="39"/>
+      <c r="I63" s="39"/>
+      <c r="J63" s="39"/>
+      <c r="K63" s="39"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="55"/>
+      <c r="N63" s="56"/>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D64" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E62" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="F62" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" s="6" t="s">
+      <c r="E64" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H62" s="6">
-        <v>0</v>
-      </c>
-      <c r="I62" s="6">
-        <v>0</v>
-      </c>
-      <c r="J62" s="6">
-        <v>0</v>
-      </c>
-      <c r="K62" s="6">
-        <v>0</v>
-      </c>
-      <c r="L62" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M62" s="4"/>
-      <c r="N62" s="11"/>
-    </row>
-    <row r="63" ht="27" spans="1:14">
-      <c r="A63" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="B63" s="43"/>
-      <c r="C63" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" s="33" t="s">
+      <c r="H64" s="6">
+        <v>0</v>
+      </c>
+      <c r="I64" s="6">
+        <v>0</v>
+      </c>
+      <c r="J64" s="6">
+        <v>0</v>
+      </c>
+      <c r="K64" s="6">
+        <v>0</v>
+      </c>
+      <c r="L64" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M64" s="4"/>
+      <c r="N64" s="11"/>
+    </row>
+    <row r="65" ht="27" spans="1:14">
+      <c r="A65" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="B65" s="61"/>
+      <c r="C65" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="E63" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="F63" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" s="33" t="s">
+      <c r="E65" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="H63" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="I63" s="33">
-        <v>0</v>
-      </c>
-      <c r="J63" s="33">
-        <v>0</v>
-      </c>
-      <c r="K63" s="33">
-        <v>0</v>
-      </c>
-      <c r="L63" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M63" s="33"/>
-      <c r="N63" s="11"/>
-    </row>
-    <row r="64" spans="1:14">
-      <c r="A64" s="13"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
-      <c r="L64" s="12"/>
-      <c r="M64" s="14"/>
-      <c r="N64" s="2"/>
-    </row>
-    <row r="65" ht="48" customHeight="1" spans="1:14">
-      <c r="A65" s="49" t="s">
+      <c r="H65" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B65" s="50"/>
-      <c r="C65" s="19" t="s">
+      <c r="I65" s="39">
+        <v>0</v>
+      </c>
+      <c r="J65" s="39">
+        <v>0</v>
+      </c>
+      <c r="K65" s="39">
+        <v>0</v>
+      </c>
+      <c r="L65" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M65" s="39"/>
+      <c r="N65" s="11"/>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="13"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="14"/>
+      <c r="N66" s="2"/>
+    </row>
+    <row r="67" ht="48" customHeight="1" spans="1:14">
+      <c r="A67" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="B67" s="63"/>
+      <c r="C67" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F65" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="H65" s="6">
-        <v>0</v>
-      </c>
-      <c r="I65" s="6">
-        <v>0</v>
-      </c>
-      <c r="J65" s="6">
-        <v>0</v>
-      </c>
-      <c r="K65" s="6">
-        <v>0</v>
-      </c>
-      <c r="L65" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M65" s="4"/>
-      <c r="N65" s="52"/>
-    </row>
-    <row r="66" ht="28" customHeight="1" spans="1:14">
-      <c r="A66" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="B66" s="50"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H66" s="6">
-        <v>0</v>
-      </c>
-      <c r="I66" s="6">
-        <v>0</v>
-      </c>
-      <c r="J66" s="6">
-        <v>0</v>
-      </c>
-      <c r="K66" s="6">
-        <v>0</v>
-      </c>
-      <c r="L66" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M66" s="4"/>
-      <c r="N66" s="52"/>
-    </row>
-    <row r="67" customFormat="1" ht="28" customHeight="1" spans="1:14">
-      <c r="A67" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="B67" s="50"/>
-      <c r="C67" s="21"/>
       <c r="D67" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F67" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F67" s="10" t="s">
         <v>18</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="H67" s="6">
         <v>0</v>
@@ -4141,77 +4179,97 @@
         <v>12</v>
       </c>
       <c r="M67" s="4"/>
-      <c r="N67" s="52"/>
-    </row>
-    <row r="68" customFormat="1" ht="28" customHeight="1" spans="1:14">
-      <c r="A68" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="B68" s="50"/>
-      <c r="C68" s="21"/>
+      <c r="N67" s="65"/>
+    </row>
+    <row r="68" ht="28" customHeight="1" spans="1:14">
+      <c r="A68" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="B68" s="63"/>
+      <c r="C68" s="25"/>
       <c r="D68" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="H68" s="6">
+        <v>0</v>
+      </c>
+      <c r="I68" s="6">
+        <v>0</v>
+      </c>
+      <c r="J68" s="6">
+        <v>0</v>
+      </c>
+      <c r="K68" s="6">
+        <v>0</v>
+      </c>
+      <c r="L68" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="M68" s="4"/>
-      <c r="N68" s="52"/>
+      <c r="N68" s="65"/>
     </row>
     <row r="69" customFormat="1" ht="28" customHeight="1" spans="1:14">
-      <c r="A69" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="B69" s="50"/>
-      <c r="C69" s="21"/>
+      <c r="A69" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="B69" s="63"/>
+      <c r="C69" s="25"/>
       <c r="D69" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
-      <c r="L69" s="6"/>
+        <v>51</v>
+      </c>
+      <c r="H69" s="6">
+        <v>0</v>
+      </c>
+      <c r="I69" s="6">
+        <v>0</v>
+      </c>
+      <c r="J69" s="6">
+        <v>0</v>
+      </c>
+      <c r="K69" s="6">
+        <v>0</v>
+      </c>
+      <c r="L69" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="M69" s="4"/>
-      <c r="N69" s="52"/>
+      <c r="N69" s="65"/>
     </row>
     <row r="70" customFormat="1" ht="28" customHeight="1" spans="1:14">
-      <c r="A70" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="B70" s="50"/>
-      <c r="C70" s="21"/>
+      <c r="A70" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="B70" s="63"/>
+      <c r="C70" s="25"/>
       <c r="D70" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
@@ -4219,25 +4277,25 @@
       <c r="K70" s="6"/>
       <c r="L70" s="6"/>
       <c r="M70" s="4"/>
-      <c r="N70" s="52"/>
+      <c r="N70" s="65"/>
     </row>
     <row r="71" customFormat="1" ht="28" customHeight="1" spans="1:14">
-      <c r="A71" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="B71" s="50"/>
-      <c r="C71" s="21"/>
+      <c r="A71" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="B71" s="63"/>
+      <c r="C71" s="25"/>
       <c r="D71" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
@@ -4245,25 +4303,25 @@
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
       <c r="M71" s="4"/>
-      <c r="N71" s="52"/>
+      <c r="N71" s="65"/>
     </row>
     <row r="72" customFormat="1" ht="28" customHeight="1" spans="1:14">
-      <c r="A72" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="B72" s="50"/>
-      <c r="C72" s="21"/>
+      <c r="A72" s="62" t="s">
+        <v>133</v>
+      </c>
+      <c r="B72" s="63"/>
+      <c r="C72" s="25"/>
       <c r="D72" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
@@ -4271,25 +4329,25 @@
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
       <c r="M72" s="4"/>
-      <c r="N72" s="52"/>
+      <c r="N72" s="65"/>
     </row>
     <row r="73" customFormat="1" ht="28" customHeight="1" spans="1:14">
-      <c r="A73" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="B73" s="50"/>
-      <c r="C73" s="21"/>
+      <c r="A73" s="62" t="s">
+        <v>134</v>
+      </c>
+      <c r="B73" s="63"/>
+      <c r="C73" s="25"/>
       <c r="D73" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
@@ -4297,25 +4355,25 @@
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
       <c r="M73" s="4"/>
-      <c r="N73" s="52"/>
+      <c r="N73" s="65"/>
     </row>
     <row r="74" customFormat="1" ht="28" customHeight="1" spans="1:14">
-      <c r="A74" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="B74" s="50"/>
-      <c r="C74" s="21"/>
+      <c r="A74" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="B74" s="63"/>
+      <c r="C74" s="25"/>
       <c r="D74" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
@@ -4323,164 +4381,214 @@
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
       <c r="M74" s="4"/>
-      <c r="N74" s="52"/>
-    </row>
-    <row r="75" spans="1:14">
-      <c r="A75" s="33" t="s">
+      <c r="N74" s="65"/>
+    </row>
+    <row r="75" customFormat="1" ht="28" customHeight="1" spans="1:14">
+      <c r="A75" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="B75" s="63"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="65"/>
+    </row>
+    <row r="76" customFormat="1" ht="28" customHeight="1" spans="1:14">
+      <c r="A76" s="62" t="s">
         <v>137</v>
       </c>
-      <c r="B75" s="33"/>
-      <c r="C75" s="33"/>
-      <c r="D75" s="33" t="s">
+      <c r="B76" s="63"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E75" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="F75" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" s="33" t="s">
+      <c r="E76" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="65"/>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="B77" s="39"/>
+      <c r="C77" s="39"/>
+      <c r="D77" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E77" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="F77" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G77" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="H75" s="33" t="s">
+      <c r="H77" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="I75" s="33">
-        <v>0</v>
-      </c>
-      <c r="J75" s="33">
-        <v>0</v>
-      </c>
-      <c r="K75" s="33">
-        <v>0</v>
-      </c>
-      <c r="L75" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="M75" s="33"/>
-      <c r="N75" s="2"/>
-    </row>
-    <row r="76" spans="1:14">
-      <c r="A76" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="B76" s="33"/>
-      <c r="C76" s="33"/>
-      <c r="D76" s="33" t="s">
+      <c r="I77" s="39">
+        <v>0</v>
+      </c>
+      <c r="J77" s="39">
+        <v>0</v>
+      </c>
+      <c r="K77" s="39">
+        <v>0</v>
+      </c>
+      <c r="L77" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="M77" s="39"/>
+      <c r="N77" s="2"/>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="B78" s="39"/>
+      <c r="C78" s="39"/>
+      <c r="D78" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="E76" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="F76" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" s="33" t="s">
+      <c r="E78" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="F78" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G78" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="H76" s="33" t="s">
+      <c r="H78" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="I76" s="33"/>
-      <c r="J76" s="33"/>
-      <c r="K76" s="33"/>
-      <c r="L76" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="M76" s="33"/>
-      <c r="N76" s="2"/>
-    </row>
-    <row r="77" spans="1:14">
-      <c r="A77" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="B77" s="33"/>
-      <c r="C77" s="33"/>
-      <c r="D77" s="33" t="s">
+      <c r="I78" s="39"/>
+      <c r="J78" s="39"/>
+      <c r="K78" s="39"/>
+      <c r="L78" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="M78" s="39"/>
+      <c r="N78" s="2"/>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="B79" s="39"/>
+      <c r="C79" s="39"/>
+      <c r="D79" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="E77" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F77" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" s="33" t="s">
+      <c r="E79" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F79" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G79" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="H77" s="33" t="s">
+      <c r="H79" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="I77" s="33"/>
-      <c r="J77" s="33"/>
-      <c r="K77" s="33"/>
-      <c r="L77" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="M77" s="33"/>
-      <c r="N77" s="2"/>
-    </row>
-    <row r="78" spans="1:12">
-      <c r="A78" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="33" t="s">
+      <c r="I79" s="39"/>
+      <c r="J79" s="39"/>
+      <c r="K79" s="39"/>
+      <c r="L79" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="M79" s="39"/>
+      <c r="N79" s="2"/>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="F78" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G78" s="33" t="s">
+      <c r="E80" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="F80" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G80" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="H78" s="33" t="s">
+      <c r="H80" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="I78" s="33"/>
-      <c r="J78" s="33"/>
-      <c r="K78" s="33"/>
-      <c r="L78" s="33" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
-      <c r="A79" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D79" s="51" t="s">
+      <c r="I80" s="39"/>
+      <c r="J80" s="39"/>
+      <c r="K80" s="39"/>
+      <c r="L80" s="39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D81" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="E79" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="F79" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" s="51" t="s">
+      <c r="E81" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="F81" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="G81" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="H79" s="51" t="s">
+      <c r="H81" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="I79" s="51"/>
-      <c r="J79" s="51"/>
-      <c r="K79" s="51"/>
-      <c r="L79" s="51"/>
+      <c r="I81" s="64"/>
+      <c r="J81" s="64"/>
+      <c r="K81" s="64"/>
+      <c r="L81" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A36:L36"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:M64"/>
+    <mergeCell ref="A38:L38"/>
+    <mergeCell ref="A64:B64"/>
     <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A66:M66"/>
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="A68:B68"/>
     <mergeCell ref="A69:B69"/>
@@ -4494,35 +4602,37 @@
     <mergeCell ref="A77:B77"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A3:A24"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A3:A26"/>
     <mergeCell ref="B3:B9"/>
-    <mergeCell ref="B10:B17"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="B26:B35"/>
-    <mergeCell ref="B37:B53"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="C3:C24"/>
-    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="B28:B37"/>
+    <mergeCell ref="B39:B55"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="C3:C26"/>
+    <mergeCell ref="C67:C69"/>
     <mergeCell ref="D3:D9"/>
-    <mergeCell ref="D10:D17"/>
-    <mergeCell ref="D19:D24"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="D12:D19"/>
+    <mergeCell ref="D21:D26"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="D59:D62"/>
     <mergeCell ref="E3:E9"/>
-    <mergeCell ref="E10:E17"/>
-    <mergeCell ref="E19:E24"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="E57:E60"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="F57:F60"/>
+    <mergeCell ref="E12:E19"/>
+    <mergeCell ref="E21:E26"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="E59:E62"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="F59:F62"/>
     <mergeCell ref="G3:G9"/>
-    <mergeCell ref="G10:G17"/>
-    <mergeCell ref="G19:G24"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="G57:G60"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="H57:H60"/>
+    <mergeCell ref="G12:G19"/>
+    <mergeCell ref="G21:G26"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="G59:G62"/>
+    <mergeCell ref="H21:H24"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="H59:H62"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4533,12 +4643,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V30"/>
+  <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="V8" sqref="V8"/>
+      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4553,7 +4663,7 @@
     <col min="14" max="14" width="10.225" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:23">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -4605,6 +4715,21 @@
       </c>
       <c r="R1" s="3">
         <v>15</v>
+      </c>
+      <c r="S1" s="3">
+        <v>16</v>
+      </c>
+      <c r="T1" s="3">
+        <v>17</v>
+      </c>
+      <c r="U1" s="3">
+        <v>18</v>
+      </c>
+      <c r="V1" s="3">
+        <v>19</v>
+      </c>
+      <c r="W1" s="3">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -4624,22 +4749,22 @@
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>12</v>
@@ -4654,7 +4779,7 @@
     <row r="3" s="1" customFormat="1" ht="67.5" spans="1:18">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>18</v>
@@ -4663,34 +4788,34 @@
         <v>17</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M3" s="5">
         <v>0</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>12</v>
@@ -4702,7 +4827,7 @@
     <row r="4" s="1" customFormat="1" ht="67.5" spans="1:18">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>18</v>
@@ -4711,37 +4836,37 @@
         <v>17</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P4" s="16" t="s">
         <v>12</v>
@@ -4752,7 +4877,7 @@
     <row r="5" spans="1:18">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>18</v>
@@ -4761,10 +4886,10 @@
         <v>17</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -4784,7 +4909,7 @@
     <row r="6" spans="1:18">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>18</v>
@@ -4793,10 +4918,10 @@
         <v>17</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>12</v>
@@ -4816,7 +4941,7 @@
     <row r="7" spans="1:22">
       <c r="A7" s="4"/>
       <c r="B7" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>18</v>
@@ -4825,55 +4950,55 @@
         <v>17</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="S7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="T7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="U7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="V7" s="16" t="s">
         <v>12</v>
@@ -4882,7 +5007,7 @@
     <row r="8" spans="1:18">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>18</v>
@@ -4891,34 +5016,34 @@
         <v>17</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>12</v>
@@ -4927,10 +5052,10 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" ht="27" spans="1:20">
+    <row r="9" ht="27" spans="1:23">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>18</v>
@@ -4939,58 +5064,67 @@
         <v>17</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J9" s="5">
         <v>0</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="M9" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L9" s="17" t="s">
         <v>192</v>
       </c>
+      <c r="M9" s="18" t="s">
+        <v>193</v>
+      </c>
       <c r="N9" s="5" t="s">
-        <v>96</v>
+        <v>194</v>
       </c>
       <c r="O9" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="R9" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="P9" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="T9" t="s">
-        <v>194</v>
+      <c r="S9" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="T9" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="U9" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="V9" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="W9" s="19" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:18">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>18</v>
@@ -4999,22 +5133,22 @@
         <v>17</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -5028,7 +5162,7 @@
     <row r="11" spans="1:18">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>18</v>
@@ -5037,13 +5171,13 @@
         <v>17</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -5079,7 +5213,7 @@
     </row>
     <row r="13" ht="27" spans="1:18">
       <c r="A13" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="4" t="s">
@@ -5089,16 +5223,16 @@
         <v>19</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>12</v>
@@ -5116,7 +5250,7 @@
     <row r="14" spans="1:18">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>18</v>
@@ -5125,13 +5259,13 @@
         <v>19</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>12</v>
@@ -5155,7 +5289,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>12</v>
@@ -5174,22 +5308,22 @@
     <row r="16" spans="1:18">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>12</v>
@@ -5208,28 +5342,28 @@
     <row r="17" spans="1:18">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>12</v>
@@ -5245,40 +5379,40 @@
     </row>
     <row r="18" ht="27" spans="1:18">
       <c r="A18" s="10" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="M18" s="6" t="s">
         <v>12</v>
@@ -5292,40 +5426,40 @@
     <row r="19" ht="27" spans="1:18">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="N19" s="4" t="s">
         <v>12</v>
@@ -5338,22 +5472,22 @@
     <row r="20" ht="27" spans="1:18">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>12</v>
@@ -5372,28 +5506,28 @@
     <row r="21" spans="1:18">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>12</v>
@@ -5409,35 +5543,35 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>12</v>
@@ -5452,31 +5586,31 @@
     <row r="23" ht="40.5" spans="1:18">
       <c r="A23" s="2"/>
       <c r="B23" s="11" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>12</v>
@@ -5512,19 +5646,19 @@
     <row r="25" ht="40.5" spans="1:18">
       <c r="A25" s="2"/>
       <c r="B25" s="12" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>12</v>
@@ -5544,19 +5678,19 @@
     <row r="26" ht="40.5" spans="1:18">
       <c r="A26" s="2"/>
       <c r="B26" s="10" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>12</v>
@@ -5576,25 +5710,25 @@
     <row r="27" spans="1:18">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>12</v>
@@ -5611,17 +5745,17 @@
     </row>
     <row r="28" ht="67.5" spans="1:18">
       <c r="A28" s="13" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>12</v>
